--- a/results/stimulated_NAMU_results_analysis/functional_analysis_of_hubs/hyperhubs.xlsx
+++ b/results/stimulated_NAMU_results_analysis/functional_analysis_of_hubs/hyperhubs.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,7 +385,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Centrality</t>
+          <t>total.abs.centrality</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -429,16 +429,11 @@
         <v>0.2545083847575639</v>
       </c>
       <c r="F2">
-        <v>1.389857755777178</v>
+        <v>1.364415949484105</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>Hyper</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1591</t>
         </is>
       </c>
     </row>
@@ -467,16 +462,11 @@
         <v>0.2545083847575639</v>
       </c>
       <c r="F3">
-        <v>1.389857755778162</v>
+        <v>1.364415949485089</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>Hyper</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1591</t>
         </is>
       </c>
     </row>
@@ -505,7 +495,7 @@
         <v>0.2545083847575639</v>
       </c>
       <c r="F4">
-        <v>1.38985775578016</v>
+        <v>1.364415949487087</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -543,7 +533,7 @@
         <v>0.2545083847575639</v>
       </c>
       <c r="F5">
-        <v>1.389857755775715</v>
+        <v>1.364415949482642</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -581,16 +571,11 @@
         <v>0.3903591103623061</v>
       </c>
       <c r="F6">
-        <v>1.387957199199443</v>
+        <v>1.362593178353816</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>Hyper</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1591</t>
         </is>
       </c>
     </row>
@@ -619,16 +604,11 @@
         <v>0.3903591103623061</v>
       </c>
       <c r="F7">
-        <v>1.387957932447063</v>
+        <v>1.362593267730314</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>Hyper</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1591</t>
         </is>
       </c>
     </row>
@@ -657,16 +637,11 @@
         <v>0.3903591103623061</v>
       </c>
       <c r="F8">
-        <v>1.387957199205975</v>
+        <v>1.362593178360348</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>Hyper</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1591</t>
         </is>
       </c>
     </row>
@@ -695,33 +670,28 @@
         <v>0.3903591103623061</v>
       </c>
       <c r="F9">
-        <v>1.387957932450502</v>
+        <v>1.362593267733754</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>Hyper</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1591</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3DPHBH1</t>
+          <t>3AIBtm</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hydroxylation of 3-Decaprenyl-4-hydroxybenzoate (NADH) Astrocyte</t>
+          <t>3-amino-isobutyrate transport, mitochondrial Astrocyte</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3dphb[mA] + h[mA] + nadh[mA] + o2[mA] --&gt; 3dpdhb[mA] + h2o[mA] + nad[mA]</t>
+          <t>3aib[mA] --&gt; 3aib[cA]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -730,31 +700,36 @@
         </is>
       </c>
       <c r="E10">
-        <v>0.7072955837107801</v>
+        <v>0.1233369056014479</v>
       </c>
       <c r="F10">
-        <v>1.47601682954242</v>
+        <v>0.1915485503041008</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>Hyper</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>18.1, 18.2</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3DPHBH2</t>
+          <t>3DPHBH1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hydroxylation of 3-Decaprenyl-4-hydroxybenzoate (NADPH) Astrocyte</t>
+          <t>Hydroxylation of 3-Decaprenyl-4-hydroxybenzoate (NADH) Astrocyte</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3dphb[mA] + h[mA] + nadph[mA] + o2[mA] --&gt; 3dpdhb[mA] + h2o[mA] + nadp[mA]</t>
+          <t>3dphb[mA] + h[mA] + nadh[mA] + o2[mA] --&gt; 3dpdhb[mA] + h2o[mA] + nad[mA]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -763,10 +738,10 @@
         </is>
       </c>
       <c r="E11">
-        <v>0.7083362447352169</v>
+        <v>0.7072955837107801</v>
       </c>
       <c r="F11">
-        <v>1.405141132920604</v>
+        <v>1.440477708401532</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -777,17 +752,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AASAD3m</t>
+          <t>3DPHBH2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>L-aminoadipate-semialdehyde dehydrogenase (NADH), mitochondrial Astrocyte</t>
+          <t>Hydroxylation of 3-Decaprenyl-4-hydroxybenzoate (NADPH) Astrocyte</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>L2aadp6sa[mA] + h2o[mA] + nad[mA] --&gt; L2aadp[mA] + 2.0 h[mA] + nadh[mA]</t>
+          <t>3dphb[mA] + h[mA] + nadph[mA] + o2[mA] --&gt; 3dpdhb[mA] + h2o[mA] + nadp[mA]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -796,36 +771,31 @@
         </is>
       </c>
       <c r="E12">
-        <v>0.05294369411532059</v>
+        <v>0.7083362447352169</v>
       </c>
       <c r="F12">
-        <v>1.459533134542842</v>
+        <v>1.369690840029971</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>Hyper</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>501</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ADPRDPm</t>
+          <t>AASAD3m</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ADPribose diphosphatase (mitochondrial) Astrocyte</t>
+          <t>L-aminoadipate-semialdehyde dehydrogenase (NADH), mitochondrial Astrocyte</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>adprib[mA] + h2o[mA] --&gt; amp[mA] + 2.0 h[mA] + r5p[mA]</t>
+          <t>L2aadp6sa[mA] + h2o[mA] + nad[mA] --&gt; L2aadp[mA] + 2.0 h[mA] + nadh[mA]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -834,41 +804,36 @@
         </is>
       </c>
       <c r="E13">
-        <v>0.06386370767950153</v>
+        <v>0.05294369411532059</v>
       </c>
       <c r="F13">
-        <v>1.407101461852657</v>
+        <v>1.434230281719858</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>53343, 53343, 53343</t>
-        </is>
-      </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>11164, 53343, 56985, 7226</t>
+          <t>501</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ALDD2xm</t>
+          <t>ADPRDPm</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>aldehyde dehydrogenase (acetylaldehyde, NAD), mitochondrial Astrocyte</t>
+          <t>ADPribose diphosphatase (mitochondrial) Astrocyte</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>acald[mA] + h2o[mA] + nad[mA] --&gt; ac[mA] + 2.0 h[mA] + nadh[mA]</t>
+          <t>adprib[mA] + h2o[mA] --&gt; amp[mA] + 2.0 h[mA] + r5p[mA]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -877,10 +842,10 @@
         </is>
       </c>
       <c r="E14">
-        <v>0.2316318208042136</v>
+        <v>0.06386370767950153</v>
       </c>
       <c r="F14">
-        <v>1.460712983871559</v>
+        <v>1.380189171687286</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -889,29 +854,29 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>219, 217</t>
+          <t>53343, 53343, 53343</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>218, 221, 222</t>
+          <t>11164, 53343, 56985, 7226</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ASPGLUm</t>
+          <t>AKGDm</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>aspartate-glutamate mitochondrial shuttle Astrocyte</t>
+          <t>2-oxoglutarate dehydrogenase Astrocyte</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>asp-L[mA] + glu-L[cA] + h[cA] --&gt; asp-L[cA] + glu-L[mA] + h[mA]</t>
+          <t>akg[mA] + coa[mA] + nad[mA] --&gt; co2[mA] + nadh[mA] + succoa[mA]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -920,10 +885,10 @@
         </is>
       </c>
       <c r="E15">
-        <v>0.2468311908770477</v>
+        <v>0.229820721053501</v>
       </c>
       <c r="F15">
-        <v>1.801921139365162</v>
+        <v>0.2248250448488504</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -932,24 +897,29 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>10165, 8604</t>
+          <t>4967, 1738, 8050, 1743, 4967</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>4967</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>COQ7m</t>
+          <t>ALCD2yf</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ubiquinone biosynthesis COQ7 Astrocyte</t>
+          <t>alcohol dehydrogenase (ethanol, NADP), forward reaction Astrocyte</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2dp6mobq_me[mA] + h[mA] + nadph[mA] + o2[mA] --&gt; 2dpmhobq[mA] + h2o[mA] + nadp[mA]</t>
+          <t>etoh[cA] + nadp[cA] --&gt; acald[cA] + h[cA] + nadph[cA]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -958,10 +928,10 @@
         </is>
       </c>
       <c r="E16">
-        <v>0.3270868227758046</v>
+        <v>0.3461492786152284</v>
       </c>
       <c r="F16">
-        <v>1.381370962556235</v>
+        <v>0.1713423503132279</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -970,29 +940,29 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>10229</t>
+          <t>10327, 10327</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>10229</t>
+          <t>10327</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DGNSKm</t>
+          <t>ALDD2xm</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>deoxyguanosine kinase Astrocyte</t>
+          <t>aldehyde dehydrogenase (acetylaldehyde, NAD), mitochondrial Astrocyte</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>atp[mA] + dgsn[mA] --&gt; adp[mA] + dgmp[mA] + h[mA]</t>
+          <t>acald[mA] + h2o[mA] + nad[mA] --&gt; ac[mA] + 2.0 h[mA] + nadh[mA]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1001,10 +971,10 @@
         </is>
       </c>
       <c r="E17">
-        <v>0.3175359391462746</v>
+        <v>0.2316318208042136</v>
       </c>
       <c r="F17">
-        <v>1.438407882829914</v>
+        <v>1.431823101230085</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1013,29 +983,29 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1716, 1716, 1716, 1716, 1716</t>
+          <t>219, 217</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1716</t>
+          <t>218, 221, 222</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DURIK1m</t>
+          <t>ALDD2y</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>deoxyuridine kinase (ATP:Deoxyuridine), mitochondrial Astrocyte</t>
+          <t>aldehyde dehydrogenase (acetaldehyde, NADP) Astrocyte</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>atp[mA] + duri[mA] --&gt; adp[mA] + dump[mA] + h[mA]</t>
+          <t>acald[cA] + h2o[cA] + nadp[cA] --&gt; ac[cA] + 2.0 h[cA] + nadph[cA]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1044,10 +1014,10 @@
         </is>
       </c>
       <c r="E18">
-        <v>0.1204938365801788</v>
+        <v>0.3461492786152284</v>
       </c>
       <c r="F18">
-        <v>1.244213668055382</v>
+        <v>0.1839797433154619</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1056,29 +1026,29 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>7084</t>
+          <t>218, 222, 221, 219, 223, 8854, 8854, 224, 8854</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>7083, 7084</t>
+          <t>218, 221, 222</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>FPGS8m</t>
+          <t>ALR</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>folylpolyglutamate synthetase (10fthf), mitochondrial Astrocyte</t>
+          <t>Aldose reductase Astrocyte</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>10fthf5glu[mA] + atp[mA] + glu-L[mA] --&gt; 10fthf6glu[mA] + adp[mA] + h[mA] + pi[mA]</t>
+          <t>h2o[cA] + mthgxl[cA] + nadp[cA] --&gt; 2.0 h[cA] + nadph[cA] + pyr[cA]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1087,41 +1057,36 @@
         </is>
       </c>
       <c r="E19">
-        <v>0.2545083847575631</v>
+        <v>0.3815111982957977</v>
       </c>
       <c r="F19">
-        <v>1.382677259383249</v>
+        <v>0.1837846093308289</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2356</t>
-        </is>
-      </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>10327.2, 8574.1, 10327.1, 231.1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GLUDym</t>
+          <t>ASNt4</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>glutamate dehydrogenase (NADP), mitochondrial Astrocyte</t>
+          <t>L-asparagine transport in via sodium symport Astrocyte</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>glu-L[mA] + h2o[mA] + nadp[mA] --&gt; akg[mA] + h[mA] + nadph[mA] + nh4[mA]</t>
+          <t>asn-L[e] + na1[e] --&gt; asn-L[cA] + na1[cA]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1130,10 +1095,10 @@
         </is>
       </c>
       <c r="E20">
-        <v>0.03248377960335636</v>
+        <v>0.04328107473014822</v>
       </c>
       <c r="F20">
-        <v>1.456097654613066</v>
+        <v>0.03916633766978924</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1142,29 +1107,24 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2747, 2746</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>2746, 2747</t>
+          <t>54407, 11254, 81539, 55089, 340024, 57393, 59272</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GLYOXm</t>
+          <t>ASPGLUm</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>hydroxyacylglutathione hydrolase, mitochondrial Astrocyte</t>
+          <t>aspartate-glutamate mitochondrial shuttle Astrocyte</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>h2o[mA] + lgt-S[mA] --&gt; gthrd[mA] + h[mA] + lac-D[mA]</t>
+          <t>asp-L[mA] + glu-L[cA] + h[cA] --&gt; asp-L[cA] + glu-L[mA] + h[mA]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1173,10 +1133,10 @@
         </is>
       </c>
       <c r="E21">
-        <v>0.281641752713357</v>
+        <v>0.2468311908770477</v>
       </c>
       <c r="F21">
-        <v>1.370990444674149</v>
+        <v>1.74437491595559</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1185,29 +1145,24 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>3029</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>3029</t>
+          <t>10165, 8604</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>GTHOm</t>
+          <t>ATPtm</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>glutathione oxidoreductase Astrocyte</t>
+          <t>ADP/ATP transporter, mitochondrial Astrocyte</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>gthox[mA] + h[mA] + nadph[mA] --&gt; 2.0 gthrd[mA] + nadp[mA]</t>
+          <t>adp[cA] + atp[mA] --&gt; adp[mA] + atp[cA]</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1216,10 +1171,10 @@
         </is>
       </c>
       <c r="E22">
-        <v>0.2545083847575647</v>
+        <v>0.02293267905734556</v>
       </c>
       <c r="F22">
-        <v>1.127496600051914</v>
+        <v>0.116436870282059</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1228,29 +1183,24 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2936</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>2936</t>
+          <t>291, 293, 292</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Htm</t>
+          <t>CO2t</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Uncoupling protein Astrocyte</t>
+          <t>CO2 transporter via diffusion Astrocyte</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>h[cA] --&gt; h[mA]</t>
+          <t>co2[e] &lt;=&gt; co2[cA]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1259,36 +1209,31 @@
         </is>
       </c>
       <c r="E23">
-        <v>0.03248377960335507</v>
+        <v>0.5948953862997168</v>
       </c>
       <c r="F23">
-        <v>1.696089672936582</v>
+        <v>0.05378587299982619</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
           <t>Hyper</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>9016, 7352, 7352, 7351, 9016, 7350, 9481</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>L-LACtm</t>
+          <t>COQ7m</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>L-lactate transport, mitochondrial Astrocyte</t>
+          <t>Ubiquinone biosynthesis COQ7 Astrocyte</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>h[cA] + lac-L[cA] --&gt; h[mA] + lac-L[mA]</t>
+          <t>2dp6mobq_me[mA] + h[mA] + nadph[mA] + o2[mA] --&gt; 2dpmhobq[mA] + h2o[mA] + nadp[mA]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1297,10 +1242,10 @@
         </is>
       </c>
       <c r="E24">
-        <v>0.2316318208042138</v>
+        <v>0.3270868227758046</v>
       </c>
       <c r="F24">
-        <v>1.697504599192436</v>
+        <v>1.355929201195742</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1309,24 +1254,29 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>6566</t>
+          <t>10229</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>10229</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>LCADi_Dm</t>
+          <t>CYSGLUexR</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>lactaldehyde dehydrogenase, mitochondrial Astrocyte</t>
+          <t>L-cysteine/L-glutamine reversible exchanger Astrocyte</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>h2o[mA] + lald-D[mA] + nad[mA] --&gt; 2.0 h[mA] + lac-D[mA] + nadh[mA]</t>
+          <t>cys-L[e] + gln-L[cA] --&gt; cys-L[cA] + gln-L[e]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1335,10 +1285,10 @@
         </is>
       </c>
       <c r="E25">
-        <v>0.09559313845952844</v>
+        <v>0.4918656722394495</v>
       </c>
       <c r="F25">
-        <v>1.457410058916242</v>
+        <v>0.01988646371897007</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1347,29 +1297,24 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>8659, 8659, 219, 217, 5832, 4329, 7915, 7915</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>217, 219, 223, 224, 501</t>
+          <t>56301, 6520, 8140</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MMCDm</t>
+          <t>CYSO</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Methylmalonyl-CoA decarboxylase, mitochondrial Astrocyte</t>
+          <t>cysteine oxidase Astrocyte</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>h[mA] + mmcoa-S[mA] --&gt; co2[mA] + ppcoa[mA]</t>
+          <t>cys-L[cA] + o2[cA] --&gt; 3sala[cA] + 2.0 h[cA]</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1378,10 +1323,10 @@
         </is>
       </c>
       <c r="E26">
-        <v>0.1204938365801787</v>
+        <v>0.2730459438691784</v>
       </c>
       <c r="F26">
-        <v>1.215009148081763</v>
+        <v>0.1757328780829796</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1390,29 +1335,29 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>23417</t>
+          <t>1036</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>23417</t>
+          <t>1036</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>P45011A1m</t>
+          <t>DGNSKm</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Cytochrome P450 11A1, mitochondrial [Precursor] Astrocyte</t>
+          <t>deoxyguanosine kinase Astrocyte</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>chsterol[mA] + h[mA] + nadph[mA] + 2.0 o2[mA] --&gt; 4mptnl[mA] + 2.0 h2o[mA] + nadp[mA] + prgnlone[mA]</t>
+          <t>atp[mA] + dgsn[mA] --&gt; adp[mA] + dgmp[mA] + h[mA]</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1421,10 +1366,10 @@
         </is>
       </c>
       <c r="E27">
-        <v>0.254508384757564</v>
+        <v>0.3175359391462746</v>
       </c>
       <c r="F27">
-        <v>1.663827298294489</v>
+        <v>1.394932948836643</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1433,24 +1378,29 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1583</t>
+          <t>1716, 1716, 1716, 1716, 1716</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>1716</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PCm</t>
+          <t>DURIK1m</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pyruvate carboxylase Astrocyte</t>
+          <t>deoxyuridine kinase (ATP:Deoxyuridine), mitochondrial Astrocyte</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>atp[mA] + hco3[mA] + pyr[mA] --&gt; adp[mA] + h[mA] + oaa[mA] + pi[mA]</t>
+          <t>atp[mA] + duri[mA] --&gt; adp[mA] + dump[mA] + h[mA]</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1459,10 +1409,10 @@
         </is>
       </c>
       <c r="E28">
-        <v>0.2127960709118143</v>
+        <v>0.1204938365801788</v>
       </c>
       <c r="F28">
-        <v>1.315867885403478</v>
+        <v>1.219000364594774</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1471,29 +1421,29 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>5091, 5091</t>
+          <t>7084</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>5091</t>
+          <t>7083, 7084</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PRO1xm</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>proline oxidase (NAD), mitochondrial Astrocyte</t>
+          <t>electron transfer flavoprotein Astrocyte</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>nad[mA] + pro-L[mA] --&gt; 1pyr5c[mA] + 2.0 h[mA] + nadh[mA]</t>
+          <t>etfox[mA] + fadh2[mA] --&gt; etfrd[mA] + fad[mA]</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1502,10 +1452,10 @@
         </is>
       </c>
       <c r="E29">
-        <v>0.08945010681678646</v>
+        <v>0.1178287990266148</v>
       </c>
       <c r="F29">
-        <v>1.180030231648135</v>
+        <v>0.03229747664173104</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1514,24 +1464,29 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>5625</t>
+          <t>2109, 2108, 2109</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2110</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PROD2m</t>
+          <t>ETOHMO</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Proline dehydrogenase (m) Astrocyte</t>
+          <t>ethanol monooxygenase Astrocyte</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>fad[mA] + pro-L[mA] --&gt; 1pyr5c[mA] + fadh2[mA] + h[mA]</t>
+          <t>etoh[cA] + h[cA] + nadph[cA] + o2[cA] --&gt; acald[cA] + 2.0 h2o[cA] + nadp[cA]</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1540,10 +1495,10 @@
         </is>
       </c>
       <c r="E30">
-        <v>0.09236690168139318</v>
+        <v>0.3461492786152285</v>
       </c>
       <c r="F30">
-        <v>1.256170181433522</v>
+        <v>0.1951647178153829</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1552,24 +1507,24 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>5625</t>
+          <t>1571</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SPODMm</t>
+          <t>FPGS8m</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>superoxide dismutase Astrocyte</t>
+          <t>folylpolyglutamate synthetase (10fthf), mitochondrial Astrocyte</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2.0 h[mA] + 2.0 o2s[mA] --&gt; h2o2[mA] + o2[mA]</t>
+          <t>10fthf5glu[mA] + atp[mA] + glu-L[mA] --&gt; 10fthf6glu[mA] + adp[mA] + h[mA] + pi[mA]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1578,36 +1533,41 @@
         </is>
       </c>
       <c r="E31">
-        <v>0.02008412559315792</v>
+        <v>0.2545083847575631</v>
       </c>
       <c r="F31">
-        <v>1.224340850705004</v>
+        <v>1.356187502335385</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2356</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>6648</t>
+          <t>2356</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SSALxm</t>
+          <t>GCC2bim</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>succinate-semialdehyde dehydrogenase (NAD) reversible (mitochondrial) Astrocyte</t>
+          <t>glycine-cleavage system (lipoamide) irreversible, mitochondrial Astrocyte</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>h2o[mA] + nad[mA] + sucsal[mA] --&gt; 2.0 h[mA] + nadh[mA] + succ[mA]</t>
+          <t>alpam[mA] + thf[mA] --&gt; dhlam[mA] + mlthf[mA] + nh4[mA]</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1616,10 +1576,10 @@
         </is>
       </c>
       <c r="E32">
-        <v>0.2407409575736789</v>
+        <v>0.09559313845952661</v>
       </c>
       <c r="F32">
-        <v>1.482513761464429</v>
+        <v>0.02354410875856976</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1628,74 +1588,74 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>7915</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>7915</t>
+          <t>275, 1738, 2731, 2653</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3DPHBH2_Neuron</t>
+          <t>GCCbim</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Hydroxylation of 3-Decaprenyl-4-hydroxybenzoate (NADPH) Neuron</t>
+          <t>glycine-cleavage complex (lipoylprotein) irreversible, mitochondrial Astrocyte</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>3dphb[mN] + h[mN] + nadph[mN] + o2[mN] --&gt; 3dpdhb[mN] + h2o[mN] + nadp[mN]</t>
+          <t>alpro[mA] + thf[mA] --&gt; dhlpro[mA] + mlthf[mA] + nh4[mA]</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Neuron</t>
+          <t>Astrocyte</t>
         </is>
       </c>
       <c r="E33">
-        <v>0.04231154086752686</v>
+        <v>0.09559313845952661</v>
       </c>
       <c r="F33">
-        <v>1.025308850429375</v>
+        <v>0.02354410875857164</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
           <t>Hyper</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>275.1, 1738.1, 2731.1, 2653.1</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ADPRDPm_Neuron</t>
+          <t>GLCt1r</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ADPribose diphosphatase (mitochondrial) Neuron</t>
+          <t>glucose transport (uniport) Astrocyte</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>adprib[mN] + h2o[mN] --&gt; amp[mN] + 2.0 h[mN] + r5p[mN]</t>
+          <t>glc-D[e] --&gt; glc-D[cA]</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Neuron</t>
+          <t>Astrocyte</t>
         </is>
       </c>
       <c r="E34">
-        <v>0.2468311908770466</v>
+        <v>0.945227732153085</v>
       </c>
       <c r="F34">
-        <v>1.012332730207477</v>
+        <v>0.06670481248927029</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1704,41 +1664,36 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>53343, 53343, 53343</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>11164, 53343, 56985, 7226</t>
+          <t>66035, 6517, 56606, 154091, 6513, 11182, 29988, 6514, 155184, 56606, 144195, 6515, 81031</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>APOCFm_Neuron</t>
+          <t>GLCt2r</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Apocarboxylase formation, mitochondrial Neuron</t>
+          <t>D-glucose transport in via proton symport Astrocyte</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>apoC[mN] + lys-L[mN] --&gt; apoC-Lys[mN] + h2o[mN] + h[mN]</t>
+          <t>glc-D[e] + h[e] --&gt; glc-D[cA] + h[cA]</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Neuron</t>
+          <t>Astrocyte</t>
         </is>
       </c>
       <c r="E35">
-        <v>0.2468311908770461</v>
+        <v>0.7177229709166631</v>
       </c>
       <c r="F35">
-        <v>1.010440747758078</v>
+        <v>0.3187743546870472</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1749,29 +1704,29 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ASPGLUm_Neuron</t>
+          <t>GLNS</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>aspartate-glutamate mitochondrial shuttle Neuron</t>
+          <t>glutamine synthetase Astrocyte</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>asp-L[mN] + glu-L[cN] + h[cN] --&gt; asp-L[cN] + glu-L[mN] + h[mN]</t>
+          <t>atp[cA] + glu-L[cA] + nh4[cA] --&gt; adp[cA] + gln-L[cA] + h[cA] + pi[cA]</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Neuron</t>
+          <t>Astrocyte</t>
         </is>
       </c>
       <c r="E36">
-        <v>0.4083399935410372</v>
+        <v>0.2551643238024873</v>
       </c>
       <c r="F36">
-        <v>1.256083368961487</v>
+        <v>0.2047417833152293</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1780,74 +1735,79 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>10165, 8604</t>
+          <t>2752, 51557</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>COQ3m_Neuron</t>
+          <t>GLUDym</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>methyltransferase COQ3 Neuron</t>
+          <t>glutamate dehydrogenase (NADP), mitochondrial Astrocyte</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2dpmhobq[mN] + amet[mN] --&gt; ahcys[mN] + h[mN] + q10[mN]</t>
+          <t>glu-L[mA] + h2o[mA] + nadp[mA] --&gt; akg[mA] + h[mA] + nadph[mA] + nh4[mA]</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Neuron</t>
+          <t>Astrocyte</t>
         </is>
       </c>
       <c r="E37">
-        <v>0.3649308603518459</v>
+        <v>0.03248377960335636</v>
       </c>
       <c r="F37">
-        <v>0.87567280897736</v>
+        <v>1.430549318024912</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2747, 2746</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>51805</t>
+          <t>2746, 2747</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CSm_Neuron</t>
+          <t>GLUNm</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>citrate synthase Neuron</t>
+          <t>glutaminase (mitochondrial) Astrocyte</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>accoa[mN] + h2o[mN] + oaa[mN] --&gt; cit[mN] + coa[mN] + h[mN]</t>
+          <t>gln-L[mA] + h2o[mA] --&gt; glu-L[mA] + nh4[mA]</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Neuron</t>
+          <t>Astrocyte</t>
         </is>
       </c>
       <c r="E38">
-        <v>0.4083399935410397</v>
+        <v>0.1016262463976684</v>
       </c>
       <c r="F38">
-        <v>1.162907386679467</v>
+        <v>0.396363950552722</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1856,36 +1816,36 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>1431, 1431</t>
+          <t>2744, 27165, 27165</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>DURIK1m_Neuron</t>
+          <t>GLUVESSEC</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>deoxyuridine kinase (ATP:Deoxyuridine), mitochondrial Neuron</t>
+          <t>L-glutamate secretion via secretory vesicle (ATP driven) Astrocyte</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>atp[mN] + duri[mN] --&gt; adp[mN] + dump[mN] + h[mN]</t>
+          <t>atp[cA] + glu-L[cA] + h2o[cA] --&gt; adp[cA] + glu-L[e] + h[cA] + pi[cA]</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Neuron</t>
+          <t>Astrocyte</t>
         </is>
       </c>
       <c r="E39">
-        <v>0.1506962774412711</v>
+        <v>0.5879223687504413</v>
       </c>
       <c r="F39">
-        <v>0.9304079179819471</v>
+        <v>0.2490877043790228</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1894,41 +1854,36 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>7084</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>7083, 7084</t>
+          <t>57084, 246213, 57030</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>DUTPDPm_Neuron</t>
+          <t>GLUt6</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>dUTP diphosphatase Neuron</t>
+          <t>Glutamate transport via Na, H symport and K antiport Astrocyte</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>dutp[mN] + h2o[mN] --&gt; dump[mN] + h[mN] + ppi[mN]</t>
+          <t>glu-L[e] + h[e] + k[cA] + 3.0 na1[e] --&gt; glu-L[cA] + h[cA] + k[e] + 3.0 na1[cA]</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Neuron</t>
+          <t>Astrocyte</t>
         </is>
       </c>
       <c r="E40">
-        <v>0.1506962774412712</v>
+        <v>0.5735118844228786</v>
       </c>
       <c r="F40">
-        <v>1.042237198354387</v>
+        <v>0.1818419913750442</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1937,36 +1892,36 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>1854, 3704</t>
+          <t>6511, 6505, 6507, 6506, 6512</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>GLUDym_Neuron</t>
+          <t>GLYOXm</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>glutamate dehydrogenase (NADP), mitochondrial Neuron</t>
+          <t>hydroxyacylglutathione hydrolase, mitochondrial Astrocyte</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>glu-L[mN] + h2o[mN] + nadp[mN] --&gt; akg[mN] + h[mN] + nadph[mN] + nh4[mN]</t>
+          <t>h2o[mA] + lgt-S[mA] --&gt; gthrd[mA] + h[mA] + lac-D[mA]</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Neuron</t>
+          <t>Astrocyte</t>
         </is>
       </c>
       <c r="E41">
-        <v>0.04231154086752641</v>
+        <v>0.281641752713357</v>
       </c>
       <c r="F41">
-        <v>1.044288708955063</v>
+        <v>1.345748214834902</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1975,112 +1930,122 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2747, 2746</t>
+          <t>3029</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>3029</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>GLUt2m_Neuron</t>
+          <t>GND</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>L-glutamate reversible transport via proton symport, mitochondrial Neuron</t>
+          <t>phosphogluconate dehydrogenase Astrocyte</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>glu-L[cN] + h[cN] &lt;=&gt; glu-L[mN] + h[mN]</t>
+          <t>6pgc[cA] + nadp[cA] --&gt; co2[cA] + nadph[cA] + ru5p-D[cA]</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Neuron</t>
+          <t>Astrocyte</t>
         </is>
       </c>
       <c r="E42">
-        <v>0.2551643238024807</v>
+        <v>0.4127056666134207</v>
       </c>
       <c r="F42">
-        <v>1.236050331646496</v>
+        <v>0.22491802372041</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>10165, 8604, 83733, 79751</t>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>5226.1</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>GLYCLTDym_Neuron</t>
+          <t>GTHOm</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Glycolate dehydrogenase (NADP), mitochondrial Neuron</t>
+          <t>glutathione oxidoreductase Astrocyte</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>glx[mN] + h[mN] + nadph[mN] --&gt; glyclt[mN] + nadp[mN]</t>
+          <t>gthox[mA] + h[mA] + nadph[mA] --&gt; 2.0 gthrd[mA] + nadp[mA]</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Neuron</t>
+          <t>Astrocyte</t>
         </is>
       </c>
       <c r="E43">
-        <v>0.456973716068677</v>
+        <v>0.2545083847575647</v>
       </c>
       <c r="F43">
-        <v>0.8705334904077521</v>
+        <v>1.102343503912964</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2936</t>
+        </is>
+      </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>9380</t>
+          <t>2936</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>GLYKm_Neuron</t>
+          <t>H2Ot</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>glycerol kinase Neuron</t>
+          <t>H2O transport via diffusion Astrocyte</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>atp[mN] + glyc[mN] --&gt; adp[mN] + glyc3p[mN] + h[mN]</t>
+          <t>h2o[e] &lt;=&gt; h2o[cA]</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Neuron</t>
+          <t>Astrocyte</t>
         </is>
       </c>
       <c r="E44">
-        <v>0.1791162903049744</v>
+        <v>0.2551643238024978</v>
       </c>
       <c r="F44">
-        <v>1.082919459003627</v>
+        <v>0.0918211779350052</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2089,41 +2054,36 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2710, 2712, 2710, 2713</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>256356, 2710, 2712</t>
+          <t>358, 361, 4284, 359, 362, 343</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>GLYOXm_Neuron</t>
+          <t>HMGLm</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>hydroxyacylglutathione hydrolase, mitochondrial Neuron</t>
+          <t>hydroxymethylglutaryl-CoA lyase Astrocyte</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>h2o[mN] + lgt-S[mN] --&gt; gthrd[mN] + h[mN] + lac-D[mN]</t>
+          <t>hmgcoa[mA] --&gt; acac[mA] + accoa[mA]</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Neuron</t>
+          <t>Astrocyte</t>
         </is>
       </c>
       <c r="E45">
-        <v>0.2816417527133567</v>
+        <v>0.1204938365801788</v>
       </c>
       <c r="F45">
-        <v>1.010440747718088</v>
+        <v>0.02298562016439399</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2132,41 +2092,41 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>3029</t>
+          <t>3155, 54511</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>3029</t>
+          <t>3155, 54511</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>GTHOm_Neuron</t>
+          <t>Htm</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>glutathione oxidoreductase Neuron</t>
+          <t>Uncoupling protein Astrocyte</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>gthox[mN] + h[mN] + nadph[mN] --&gt; 2.0 gthrd[mN] + nadp[mN]</t>
+          <t>h[cA] --&gt; h[mA]</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Neuron</t>
+          <t>Astrocyte</t>
         </is>
       </c>
       <c r="E46">
-        <v>0.296866814184105</v>
+        <v>0.03248377960335507</v>
       </c>
       <c r="F46">
-        <v>0.8784801819250813</v>
+        <v>1.642526058470975</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2175,79 +2135,74 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2936</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>2936</t>
+          <t>9016, 7352, 7352, 7351, 9016, 7350, 9481</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>H2Otm_Neuron</t>
+          <t>ICDHxm</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>H2O transport, mitochondrial Neuron</t>
+          <t>Isocitrate dehydrogenase (NAD+) Astrocyte</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>h2o[cN] &lt;=&gt; h2o[mN]</t>
+          <t>icit[mA] + nad[mA] --&gt; akg[mA] + co2[mA] + nadh[mA]</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Neuron</t>
+          <t>Astrocyte</t>
         </is>
       </c>
       <c r="E47">
-        <v>0.8873408209388892</v>
+        <v>0.03248377960335564</v>
       </c>
       <c r="F47">
-        <v>0.6245694759786535</v>
+        <v>0.1813071359032163</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>343</t>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>3421, 3420, 3419, 3420, 3421, 3419, 3420, 3421, 3419, 3420, 3421, 3419, 3421, 3419, 3420, 3421, 3419, 3420</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HMGCOASim_Neuron</t>
+          <t>L-LACtm</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Hydroxymethylglutaryl CoA synthase (ir) Neuron</t>
+          <t>L-lactate transport, mitochondrial Astrocyte</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>aacoa[mN] + accoa[mN] + h2o[mN] --&gt; coa[mN] + h[mN] + hmgcoa[mN]</t>
+          <t>h[cA] + lac-L[cA] --&gt; h[mA] + lac-L[mA]</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Neuron</t>
+          <t>Astrocyte</t>
         </is>
       </c>
       <c r="E48">
-        <v>0.4083399935410398</v>
+        <v>0.2316318208042138</v>
       </c>
       <c r="F48">
-        <v>1.076461041880869</v>
+        <v>1.643932903883289</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2256,74 +2211,79 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>3158</t>
+          <t>6566</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Htm_Neuron</t>
+          <t>LCADi_Dm</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Uncoupling protein Neuron</t>
+          <t>lactaldehyde dehydrogenase, mitochondrial Astrocyte</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>h[cN] --&gt; h[mN]</t>
+          <t>h2o[mA] + lald-D[mA] + nad[mA] --&gt; 2.0 h[mA] + lac-D[mA] + nadh[mA]</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Neuron</t>
+          <t>Astrocyte</t>
         </is>
       </c>
       <c r="E49">
-        <v>0.0423115408675267</v>
+        <v>0.09559313845952844</v>
       </c>
       <c r="F49">
-        <v>1.192028413011865</v>
+        <v>1.432100157194409</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>8659, 8659, 219, 217, 5832, 4329, 7915, 7915</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>9481, 7352, 7351, 7350</t>
+          <t>217, 219, 223, 224, 501</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>L-LACtm_Neuron</t>
+          <t>LDH_L</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>L-lactate transport, mitochondrial Neuron</t>
+          <t>L-lactate dehydrogenase Astrocyte</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>h[cN] + lac-L[cN] --&gt; h[mN] + lac-L[mN]</t>
+          <t>lac-L[cA] + nad[cA] &lt;-- h[cA] + nadh[cA] + pyr[cA]</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Neuron</t>
+          <t>Astrocyte</t>
         </is>
       </c>
       <c r="E50">
-        <v>0.04231154086752445</v>
+        <v>0.33698693032714</v>
       </c>
       <c r="F50">
-        <v>1.192028413009717</v>
+        <v>0.1637634430692716</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2332,74 +2292,69 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>6566</t>
+          <t>3945,  3939, 160287,  3948, 3939, 3948, 55293, 3945, 92483</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MDHm_Neuron</t>
+          <t>LSOProd</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>malate dehydrogenase, mitochondrial Neuron</t>
+          <t>Lumped superoxide production Astrocyte</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>mal-L[mN] + nad[mN] &lt;=&gt; h[mN] + nadh[mN] + oaa[mN]</t>
+          <t>focytC[mA] + o2[mA] --&gt; ficytC[mA] + o2s[mA]</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Neuron</t>
+          <t>Astrocyte</t>
         </is>
       </c>
       <c r="E51">
-        <v>0.525771967612382</v>
+        <v>0.02254895615401662</v>
       </c>
       <c r="F51">
-        <v>0.8977163633064976</v>
+        <v>0.05339790801962968</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
           <t>Hyper</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>4191, 4190</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>NMNATm_Neuron</t>
+          <t>MMCDm</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>nicotinamide-nucleotide adenylyltransferase, mitochondrial Neuron</t>
+          <t>Methylmalonyl-CoA decarboxylase, mitochondrial Astrocyte</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>atp[mN] + h[mN] + nmn[mN] --&gt; nad[mN] + ppi[mN]</t>
+          <t>h[mA] + mmcoa-S[mA] --&gt; co2[mA] + ppcoa[mA]</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Neuron</t>
+          <t>Astrocyte</t>
         </is>
       </c>
       <c r="E52">
-        <v>0.296866814184104</v>
+        <v>0.1204938365801787</v>
       </c>
       <c r="F52">
-        <v>0.9907310021482683</v>
+        <v>1.189916481383731</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2408,36 +2363,41 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>349565</t>
+          <t>23417</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>23417</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>P45011A1m_Neuron</t>
+          <t>MMSAD1m</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Cytochrome P450 11A1, mitochondrial [Precursor] Neuron</t>
+          <t>methylmalonate-semialdehyde dehydrogenase Astrocyte</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>chsterol[mN] + h[mN] + nadph[mN] + 2.0 o2[mN] --&gt; 4mptnl[mN] + 2.0 h2o[mN] + nadp[mN] + prgnlone[mN]</t>
+          <t>2mop[mA] + coa[mA] + nad[mA] --&gt; co2[mA] + nadh[mA] + ppcoa[mA]</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Neuron</t>
+          <t>Astrocyte</t>
         </is>
       </c>
       <c r="E53">
-        <v>0.2968668141841054</v>
+        <v>0.3085852034991958</v>
       </c>
       <c r="F53">
-        <v>1.318902827635798</v>
+        <v>0.1966776965833001</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2446,36 +2406,41 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>1583</t>
+          <t>4329</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>4329</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PIt2m_Neuron</t>
+          <t>MMSAD3m</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>phosphate transporter, mitochondrial Neuron</t>
+          <t>methylmalonate-semialdehyde dehydrogenase (malonic semialdehyde), mitochondrial Astrocyte</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>h[cN] + pi[cN] &lt;=&gt; h[mN] + pi[mN]</t>
+          <t>coa[mA] + msa[mA] + nad[mA] --&gt; accoa[mA] + co2[mA] + nadh[mA]</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Neuron</t>
+          <t>Astrocyte</t>
         </is>
       </c>
       <c r="E54">
-        <v>0.858123880230392</v>
+        <v>0.03098273041885493</v>
       </c>
       <c r="F54">
-        <v>1.531873823841739</v>
+        <v>0.2074217795823175</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2484,36 +2449,36 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>5250, 5250, 5250, 5250</t>
+          <t>4329</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PNTKm_Neuron</t>
+          <t>NTD5m</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pantothenate kinase (mitochondrial) Neuron</t>
+          <t>5'-nucleotidase (dTMP), mitochondrial Astrocyte</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>atp[mN] + pnto-R[mN] --&gt; 4ppan[mN] + adp[mN] + h[mN]</t>
+          <t>dtmp[mA] + h2o[mA] --&gt; pi[mA] + thymd[mA]</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Neuron</t>
+          <t>Astrocyte</t>
         </is>
       </c>
       <c r="E55">
-        <v>0.1791162903049744</v>
+        <v>0.1204938365801788</v>
       </c>
       <c r="F55">
-        <v>0.917936316304142</v>
+        <v>0.4258745771538749</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2522,84 +2487,74 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>80025</t>
+          <t>56953</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>53354, 79646, 80025</t>
+          <t>100526794, 115024, 22978, 30833, 4907, 51251, 55, 56953, 84618, 93034</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PROD2m_Neuron</t>
+          <t>O2t</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Proline dehydrogenase (m) Neuron</t>
+          <t>o2 transport (diffusion) Astrocyte</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>fad[mN] + pro-L[mN] --&gt; 1pyr5c[mN] + fadh2[mN] + h[mN]</t>
+          <t>o2[e] &lt;=&gt; o2[cA]</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Neuron</t>
+          <t>Astrocyte</t>
         </is>
       </c>
       <c r="E56">
-        <v>0.150696277441272</v>
+        <v>0.5948953862997171</v>
       </c>
       <c r="F56">
-        <v>1.04144242543987</v>
+        <v>0.05149375585052034</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
           <t>Hyper</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>5625</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>5625</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PYRt2m_Neuron</t>
+          <t>P45011A1m</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pyruvate mitochondrial transport via proton symport Neuron</t>
+          <t>Cytochrome P450 11A1, mitochondrial [Precursor] Astrocyte</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>h[cN] + pyr[cN] &lt;=&gt; h[mN] + pyr[mN]</t>
+          <t>chsterol[mA] + h[mA] + nadph[mA] + 2.0 o2[mA] --&gt; 4mptnl[mA] + 2.0 h2o[mA] + nadp[mA] + prgnlone[mA]</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Neuron</t>
+          <t>Astrocyte</t>
         </is>
       </c>
       <c r="E57">
-        <v>0.4083399935410396</v>
+        <v>0.254508384757564</v>
       </c>
       <c r="F57">
-        <v>1.229631430848541</v>
+        <v>1.551066065965337</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2608,36 +2563,36 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>6566</t>
+          <t>1583</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>THD1m_Neuron</t>
+          <t>PCm</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>NAD(P) transhydrogenase Neuron</t>
+          <t>pyruvate carboxylase Astrocyte</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>h[cN] + nadh[mN] + nadp[mN] &lt;=&gt; h[mN] + nad[mN] + nadph[mN]</t>
+          <t>atp[mA] + hco3[mA] + pyr[mA] --&gt; adp[mA] + h[mA] + oaa[mA] + pi[mA]</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Neuron</t>
+          <t>Astrocyte</t>
         </is>
       </c>
       <c r="E58">
-        <v>0.4083399935410395</v>
+        <v>0.2127960709118143</v>
       </c>
       <c r="F58">
-        <v>1.404674915214316</v>
+        <v>1.288790998346188</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2646,41 +2601,41 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>23530, 23530</t>
+          <t>5091, 5091</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>23530</t>
+          <t>5091</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TMDK1m_Neuron</t>
+          <t>PRO1xm</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>thymidine kinase (ATP:thymidine) Neuron</t>
+          <t>proline oxidase (NAD), mitochondrial Astrocyte</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>atp[mN] + thymd[mN] --&gt; adp[mN] + dtmp[mN] + h[mN]</t>
+          <t>nad[mA] + pro-L[mA] --&gt; 1pyr5c[mA] + 2.0 h[mA] + nadh[mA]</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Neuron</t>
+          <t>Astrocyte</t>
         </is>
       </c>
       <c r="E59">
-        <v>0.1506962774412711</v>
+        <v>0.08945010681678646</v>
       </c>
       <c r="F59">
-        <v>0.9304350839615292</v>
+        <v>1.155048968612488</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2689,45 +2644,4580 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>7084</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>7083, 7084</t>
+          <t>5625</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
+          <t>PROD2m</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Proline dehydrogenase (m) Astrocyte</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>fad[mA] + pro-L[mA] --&gt; 1pyr5c[mA] + fadh2[mA] + h[mA]</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Astrocyte</t>
+        </is>
+      </c>
+      <c r="E60">
+        <v>0.09236690168139318</v>
+      </c>
+      <c r="F60">
+        <v>1.211710139841329</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>5625</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>PSFLIP</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>phosphatidylserine flippase Astrocyte</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>atp[cA] + h2o[cA] + ps_hs[e] --&gt; adp[cA] + h[cA] + pi[cA] + ps_hs[cA]</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Astrocyte</t>
+        </is>
+      </c>
+      <c r="E61">
+        <v>0.1016262463976683</v>
+      </c>
+      <c r="F61">
+        <v>0.2573511201165187</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>10396, 57194</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>PSFLIPm</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>phosphatidylserine flippase Astrocyte</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>atp[cA] + h2o[cA] + ps_hs[cA] --&gt; adp[cA] + h[cA] + pi[cA] + ps_hs[mA]</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Astrocyte</t>
+        </is>
+      </c>
+      <c r="E62">
+        <v>0.1016262463976683</v>
+      </c>
+      <c r="F62">
+        <v>0.2396847780198574</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>10396, 57194</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>SERGLNexR</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>L-Serine/Glutamine reversible exchange Astrocyte</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>gln-L[cA] + ser-L[e] --&gt; gln-L[e] + ser-L[cA]</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Astrocyte</t>
+        </is>
+      </c>
+      <c r="E63">
+        <v>0.4918656722394495</v>
+      </c>
+      <c r="F63">
+        <v>0.01928872264041243</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>56301, 6520</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>SERt4</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>L-serine via sodium symport Astrocyte</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>na1[e] + ser-L[e] --&gt; na1[cA] + ser-L[cA]</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Astrocyte</t>
+        </is>
+      </c>
+      <c r="E64">
+        <v>0.03564676468208341</v>
+      </c>
+      <c r="F64">
+        <v>0.01862026940920982</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>81539.1, 11254.1, 54407.1, 55089.1, 340024.1, 57393.1, 340024.1, 59272.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>SPODMm</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>superoxide dismutase Astrocyte</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2.0 h[mA] + 2.0 o2s[mA] --&gt; h2o2[mA] + o2[mA]</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Astrocyte</t>
+        </is>
+      </c>
+      <c r="E65">
+        <v>0.02008412559315792</v>
+      </c>
+      <c r="F65">
+        <v>1.174586314071016</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>6648</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>SSALxm</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>succinate-semialdehyde dehydrogenase (NAD) reversible (mitochondrial) Astrocyte</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>h2o[mA] + nad[mA] + sucsal[mA] --&gt; 2.0 h[mA] + nadh[mA] + succ[mA]</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Astrocyte</t>
+        </is>
+      </c>
+      <c r="E66">
+        <v>0.2407409575736789</v>
+      </c>
+      <c r="F66">
+        <v>1.456100599123247</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>7915</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>7915</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>GLGNS1</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>glycogen synthase Astrocyte</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>ggn[cA] + 3.0 udpg[cA] --&gt; glygn1[cA] + 3.0 h[cA] + 3.0 udp[cA]</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Astrocyte</t>
+        </is>
+      </c>
+      <c r="E67">
+        <v>0.8826984114934228</v>
+      </c>
+      <c r="F67">
+        <v>0.1850788531738283</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>8908, 2998, 2992, 2997</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>LacLtm</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>L-lactate mito transporter thorugh AQP9 Astrocyte</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>lac-L[cA] --&gt; lac-L[mA]</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Astrocyte</t>
+        </is>
+      </c>
+      <c r="E68">
+        <v>0.2151506028648214</v>
+      </c>
+      <c r="F68">
+        <v>0.01735233573871959</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>GLNtN1</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Glutamine transporter Astrocyte</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>gln-L[e] + h[cA] + na1[e] --&gt; gln-L[cA] + h[e] + na1[cA]</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Astrocyte</t>
+        </is>
+      </c>
+      <c r="E69">
+        <v>0.4877863136962159</v>
+      </c>
+      <c r="F69">
+        <v>0.1685888312714857</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>92745, 10991</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>PCREATtmdiffir</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Phosphocreatine transport to/from mitochondria via diffusion Astrocyte</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>pcreat[mA] --&gt; pcreat[cA]</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Astrocyte</t>
+        </is>
+      </c>
+      <c r="E70">
+        <v>0.02293267905734556</v>
+      </c>
+      <c r="F70">
+        <v>0.02648744365678043</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>ASNt4_Int</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>L-asparagine transport in via sodium symport Interstitial And Synapse</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>asn-L[I] + na1[I] --&gt; asn-L[cA] + na1[cA]</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Astrocyte</t>
+        </is>
+      </c>
+      <c r="E71">
+        <v>0.04328107473014822</v>
+      </c>
+      <c r="F71">
+        <v>0.01987425049014282</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>54407, 11254, 81539, 55089, 340024, 57393, 59272</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>BTNt2_Int</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Biotin reversible transport via proton symport Interstitial And Synapse</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>btn[I] + h[I] &lt;=&gt; btn[cA] + h[cA]</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Astrocyte</t>
+        </is>
+      </c>
+      <c r="E72">
+        <v>0.1573375403723916</v>
+      </c>
+      <c r="F72">
+        <v>0.1539780115495046</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>6566</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>BTNt4i_Int</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Biotin uptake (antiport) Interstitial And Synapse</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>btn[I] + h[cA] --&gt; btn[cA] + h[I]</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Astrocyte</t>
+        </is>
+      </c>
+      <c r="E73">
+        <v>0.1573375403723916</v>
+      </c>
+      <c r="F73">
+        <v>0.1539780115507472</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>80704.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>CO2t_Int</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>CO2 transporter via diffusion Interstitial And Synapse</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>co2[I] &lt;=&gt; co2[cA]</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Astrocyte</t>
+        </is>
+      </c>
+      <c r="E74">
+        <v>0.5948953862997168</v>
+      </c>
+      <c r="F74">
+        <v>0.02398105911374099</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>CYSGLUexR_Int</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>L-cysteine/L-glutamine reversible exchanger Interstitial And Synapse</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>cys-L[I] + gln-L[cA] --&gt; cys-L[cA] + gln-L[I]</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Astrocyte</t>
+        </is>
+      </c>
+      <c r="E75">
+        <v>0.1801817876079312</v>
+      </c>
+      <c r="F75">
+        <v>0.01518939019993718</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>56301, 6520, 8140</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>GLCt2r_Int</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>D-glucose transport in via proton symport Interstitial And Synapse</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>glc-D[I] + h[I] --&gt; glc-D[cA] + h[cA]</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Astrocyte</t>
+        </is>
+      </c>
+      <c r="E76">
+        <v>0.7177229709166631</v>
+      </c>
+      <c r="F76">
+        <v>0.2040661336102463</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>GLUt6_Int</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Glutamate transport via Na, H symport and K antiport Interstitial And Synapse</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>glu-L[I] + h[I] + k[cA] + 3.0 na1[I] --&gt; glu-L[cA] + h[cA] + k[I] + 3.0 na1[cA]</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Astrocyte</t>
+        </is>
+      </c>
+      <c r="E77">
+        <v>0.2551643238024872</v>
+      </c>
+      <c r="F77">
+        <v>0.2121258292993385</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>6511, 6505, 6507, 6506, 6512</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Kt1r_Int</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>potassium transport via uniport (facilitated diffusion) Interstitial And Synapse</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>k[I] &lt;=&gt; k[cA]</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Astrocyte</t>
+        </is>
+      </c>
+      <c r="E78">
+        <v>0.1121240009630125</v>
+      </c>
+      <c r="F78">
+        <v>0.01213982266257638</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>L-LACt2r_Int</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>L-lactate reversible transport via proton symport Interstitial And Synapse</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>h[I] + lac-L[I] &lt;-- h[cA] + lac-L[cA]</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Astrocyte</t>
+        </is>
+      </c>
+      <c r="E79">
+        <v>0.33698693032714</v>
+      </c>
+      <c r="F79">
+        <v>0.154350827178808</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>9194, 23539, 6566, 9123, 682</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>NH4t3r_Int</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ammonia transport via proton antiport Interstitial And Synapse</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>h[I] + nh4[cA] &lt;=&gt; h[cA] + nh4[I]</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Astrocyte</t>
+        </is>
+      </c>
+      <c r="E80">
+        <v>0.2551643238024936</v>
+      </c>
+      <c r="F80">
+        <v>0.1609705505710438</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>NaKt_Int</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Na+/K+ exchanging ATPase Interstitial And Synapse</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>atp[cA] + h2o[cA] + 2.0 k[I] + 3.0 na1[cA] --&gt; adp[cA] + h[cA] + 2.0 k[cA] + 3.0 na1[I] + pi[cA]</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Astrocyte</t>
+        </is>
+      </c>
+      <c r="E81">
+        <v>0.19532483578669</v>
+      </c>
+      <c r="F81">
+        <v>0.2284735158014929</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>481, 478, 477, 23439, 483, 476, 481, 480, 482, 478, 482, 476, 482, 477, 481, 476, 23439, 476, 480, 23439, 481, 477</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>O2t_Int</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>o2 transport (diffusion) Interstitial And Synapse</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>o2[I] &lt;=&gt; o2[cA]</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Astrocyte</t>
+        </is>
+      </c>
+      <c r="E82">
+        <v>0.5948953862997176</v>
+      </c>
+      <c r="F82">
+        <v>0.01676494102426236</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>ORNtiDF_Int</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ornithine transport via diffusion (extracellular to cytosol) Interstitial And Synapse</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>orn[I] --&gt; orn[cA]</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Astrocyte</t>
+        </is>
+      </c>
+      <c r="E83">
+        <v>0.1307815701708421</v>
+      </c>
+      <c r="F83">
+        <v>0.01934206601100877</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>6542, 6541, 84889</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>PEFLIP_Int</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>phosphatidylethanolamine flippase Interstitial And Synapse</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>atp[cA] + h2o[cA] + pe_hs[I] --&gt; adp[cA] + h[cA] + pe_hs[cA] + pi[cA]</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Astrocyte</t>
+        </is>
+      </c>
+      <c r="E84">
+        <v>0.1995916731610817</v>
+      </c>
+      <c r="F84">
+        <v>0.2394838054536436</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>10396, 57194, 5244</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>PSFLIP_Int</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>phosphatidylserine flippase Interstitial And Synapse</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>atp[cA] + h2o[cA] + ps_hs[I] --&gt; adp[cA] + h[cA] + pi[cA] + ps_hs[cA]</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Astrocyte</t>
+        </is>
+      </c>
+      <c r="E85">
+        <v>0.1016262463976683</v>
+      </c>
+      <c r="F85">
+        <v>0.2394838054338641</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>10396, 57194</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>PYRt2r_Int</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>pyruvate reversible transport via proton symport Interstitial And Synapse</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>h[I] + pyr[I] --&gt; h[cA] + pyr[cA]</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Astrocyte</t>
+        </is>
+      </c>
+      <c r="E86">
+        <v>0.08680866587348109</v>
+      </c>
+      <c r="F86">
+        <v>0.1551791273444653</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>9123, 9194, 6566</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>SERGLNexR_Int</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>L-Serine/Glutamine reversible exchange Interstitial And Synapse</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>gln-L[cA] + ser-L[I] --&gt; gln-L[I] + ser-L[cA]</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Astrocyte</t>
+        </is>
+      </c>
+      <c r="E87">
+        <v>0.1801817876079313</v>
+      </c>
+      <c r="F87">
+        <v>0.01258244076911771</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>56301, 6520</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>SERt4_Int</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>L-serine via sodium symport Interstitial And Synapse</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>na1[I] + ser-L[I] --&gt; na1[cA] + ser-L[cA]</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Astrocyte</t>
+        </is>
+      </c>
+      <c r="E88">
+        <v>0.03564676468208343</v>
+      </c>
+      <c r="F88">
+        <v>0.01618124589050244</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>81539, 11254, 54407, 55089, 340024, 57393, 340024, 59272</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>GLNtN1_Int</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Glutamine transporter Interstitial And Synapse</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>gln-L[I] + h[cA] + na1[I] &lt;=&gt; gln-L[cA] + h[I] + na1[cA]</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Astrocyte</t>
+        </is>
+      </c>
+      <c r="E89">
+        <v>0.2551643238024873</v>
+      </c>
+      <c r="F89">
+        <v>0.1871443215804511</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>92745, 10991</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>3DPHBH2_Neuron</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Hydroxylation of 3-Decaprenyl-4-hydroxybenzoate (NADPH) Neuron</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>3dphb[mN] + h[mN] + nadph[mN] + o2[mN] --&gt; 3dpdhb[mN] + h2o[mN] + nadp[mN]</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E90">
+        <v>0.04231154086752686</v>
+      </c>
+      <c r="F90">
+        <v>0.9894602786806701</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>AACOAT_Neuron</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Acetoacetyl-CoA:acetate CoA-transferase Neuron</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>acac[cN] + atp[cN] + coa[cN] --&gt; aacoa[cN] + amp[cN] + ppi[cN]</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E91">
+        <v>0.6265040045668269</v>
+      </c>
+      <c r="F91">
+        <v>0.08628332551625202</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>65985.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>ACACt2_Neuron</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>acetoacetate transport via proton symport Neuron</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>acac[I] + h[I] --&gt; acac[cN] + h[cN]</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E92">
+        <v>0.2016499406551919</v>
+      </c>
+      <c r="F92">
+        <v>0.2533609148468003</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>9194, 6566</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>ACOAD1fm_Neuron</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>acyl-CoA dehydrogenase (butanoyl-CoA), mitochondrial Neuron</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>btcoa[mN] + fad[mN] --&gt; b2coa[mN] + fadh2[mN]</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E93">
+        <v>0.04231154086752679</v>
+      </c>
+      <c r="F93">
+        <v>0.03604237851649731</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>80724.1, 36.1, 35.1, 34.1, 84129.1, 27034.1, 28976.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>ACOAD8m_Neuron</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>acyl-CoA dehydrogenase (isovaleryl-CoA), mitochondrial Neuron</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>fad[mN] + ivcoa[mN] --&gt; 3mb2coa[mN] + fadh2[mN]</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E94">
+        <v>0.3000741007317247</v>
+      </c>
+      <c r="F94">
+        <v>0.03447843579429074</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>3712</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>3712</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>ACONTm_Neuron</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Aconitate hydratase Neuron</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>cit[mN] &lt;=&gt; icit[mN]</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E95">
+        <v>0.4083399935410396</v>
+      </c>
+      <c r="F95">
+        <v>0.02274252576991687</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>50, 48</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>ACSm_Neuron</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>acetyl-CoA synthetase Neuron</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>ac[mN] + atp[mN] + coa[mN] --&gt; accoa[mN] + amp[mN] + ppi[mN]</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E96">
+        <v>0.3716638157312586</v>
+      </c>
+      <c r="F96">
+        <v>0.1361675731392452</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>84532.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>ADK1_Neuron</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>adenylate kinase Neuron</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>amp[cN] + atp[cN] --&gt; 2.0 adp[cN]</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E97">
+        <v>0.1506962774412709</v>
+      </c>
+      <c r="F97">
+        <v>0.03129678805852438</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>122481, 203, 26289, 26289, 204</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>102157402, 122481, 158067, 203, 204, 205, 221264, 26289</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>ADPRDPm_Neuron</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>ADPribose diphosphatase (mitochondrial) Neuron</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>adprib[mN] + h2o[mN] --&gt; amp[mN] + 2.0 h[mN] + r5p[mN]</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E98">
+        <v>0.2468311908770466</v>
+      </c>
+      <c r="F98">
+        <v>0.9850989854928444</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>53343, 53343, 53343</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>11164, 53343, 56985, 7226</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>AKGMALtm_Neuron</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>alpha-ketoglutarate/malate transporter Neuron</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>akg[mN] + mal-L[cN] &lt;=&gt; akg[cN] + mal-L[mN]</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E99">
+        <v>0.4083399935410399</v>
+      </c>
+      <c r="F99">
+        <v>0.02751723644067625</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>8402, 1468</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>ALCD2if_Neuron</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>alcohol dehydrogenase, forward rxn (ethanol -&gt; acetaldehyde) Neuron</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>etoh[cN] + nad[cN] --&gt; acald[cN] + h[cN] + nadh[cN]</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E100">
+        <v>0.2014323321775647</v>
+      </c>
+      <c r="F100">
+        <v>0.1297894155051556</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>130, 127, 125, 124, 131, 126, 128, 137872, 284273, 284273</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>124, 125, 126, 127, 128, 130, 131</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>ALCD2yf_Neuron</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>alcohol dehydrogenase (ethanol, NADP), forward reaction Neuron</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>etoh[cN] + nadp[cN] --&gt; acald[cN] + h[cN] + nadph[cN]</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E101">
+        <v>0.1759088483639199</v>
+      </c>
+      <c r="F101">
+        <v>0.1296797055822377</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>10327, 10327</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>10327</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>ALDD2x_Neuron</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>aldehyde dehydrogenase (acetaldehyde, NAD) Neuron</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>acald[cN] + h2o[cN] + nad[cN] --&gt; ac[cN] + 2.0 h[cN] + nadh[cN]</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E102">
+        <v>0.0423115408675274</v>
+      </c>
+      <c r="F102">
+        <v>0.1625009218133469</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>218, 222, 220, 221, 219, 223, 216, 8854, 501, 8854, 224, 8854</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>218, 221, 222</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>ALR_Neuron</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Aldose reductase Neuron</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>h2o[cN] + mthgxl[cN] + nadp[cN] --&gt; 2.0 h[cN] + nadph[cN] + pyr[cN]</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E103">
+        <v>0.1999574601762108</v>
+      </c>
+      <c r="F103">
+        <v>0.1629922962322324</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>120227</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>APOCFm_Neuron</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Apocarboxylase formation, mitochondrial Neuron</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>apoC[mN] + lys-L[mN] --&gt; apoC-Lys[mN] + h2o[mN] + h[mN]</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E104">
+        <v>0.2468311908770461</v>
+      </c>
+      <c r="F104">
+        <v>0.9846893788208902</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>ASNt4_Neuron</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>L-asparagine transport in via sodium symport Neuron</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>asn-L[I] + na1[I] --&gt; asn-L[cN] + na1[cN]</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E105">
+        <v>0.16135807451028</v>
+      </c>
+      <c r="F105">
+        <v>0.02564507093492142</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>54407, 11254, 81539, 55089, 340024, 57393, 59272</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>ASPGLUm_Neuron</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>aspartate-glutamate mitochondrial shuttle Neuron</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>asp-L[mN] + glu-L[cN] + h[cN] --&gt; asp-L[cN] + glu-L[mN] + h[mN]</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E106">
+        <v>0.4083399935410372</v>
+      </c>
+      <c r="F106">
+        <v>1.195827285799175</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>10165, 8604</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>ASPTA_Neuron</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>aspartate transaminase Neuron</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>akg[cN] + asp-L[cN] &lt;=&gt; glu-L[cN] + oaa[cN]</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E107">
+        <v>0.408339993541037</v>
+      </c>
+      <c r="F107">
+        <v>0.0175006435618293</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>2805</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>ASPTAm_Neuron</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>aspartate transaminase Neuron</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>akg[mN] + asp-L[mN] &lt;=&gt; glu-L[mN] + oaa[mN]</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E108">
+        <v>0.408339993541037</v>
+      </c>
+      <c r="F108">
+        <v>0.05253819219518121</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>2806</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>ATPtm_Neuron</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>ADP/ATP transporter, mitochondrial Neuron</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>adp[cN] + atp[mN] --&gt; adp[mN] + atp[cN]</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E109">
+        <v>0.8581238802303921</v>
+      </c>
+      <c r="F109">
+        <v>0.102559750031811</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>291, 293, 292</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>BHBt_Neuron</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>(R)-3-Hydroxybutanoate transport via H+ symport Neuron</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>bhb[I] + h[I] --&gt; bhb[cN] + h[cN]</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E110">
+        <v>0.1362286582990552</v>
+      </c>
+      <c r="F110">
+        <v>0.2474917241365879</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>C160CPT2_Neuron</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>C160 transport into the mitochondria Neuron</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>coa[mN] + pmtcrn[mN] --&gt; crn[mN] + pmtcoa[mN]</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E111">
+        <v>0.5035992905001541</v>
+      </c>
+      <c r="F111">
+        <v>0.0680609906231158</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>1376.1, 1374.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>C204CPT2_Neuron</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>arachidonic acid transport into the mitochondria Neuron</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>arachdcrn[mN] + coa[mN] --&gt; arachdcoa[mN] + crn[mN]</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E112">
+        <v>0.5035992905001541</v>
+      </c>
+      <c r="F112">
+        <v>0.03474144153057189</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>1376.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>C226CPT2_Neuron</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>C226 transport into the mitochondria Neuron</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>c226crn[mN] + coa[mN] --&gt; c226coa[mN] + crn[mN]</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E113">
+        <v>0.5035992905001541</v>
+      </c>
+      <c r="F113">
+        <v>0.03474144153058004</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>1376.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>CO2t_Neuron</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>CO2 transporter via diffusion Neuron</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>co2[I] &lt;=&gt; co2[cN]</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E114">
+        <v>0.5948953862997168</v>
+      </c>
+      <c r="F114">
+        <v>0.02451667932674401</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>CO2tm_Neuron</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>CO2 transport (diffusion), mitochondrial Neuron</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>co2[cN] &lt;=&gt; co2[mN]</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E115">
+        <v>0.5948953862997168</v>
+      </c>
+      <c r="F115">
+        <v>0.06812637180639752</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>COQ3m_Neuron</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>methyltransferase COQ3 Neuron</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2dpmhobq[mN] + amet[mN] --&gt; ahcys[mN] + h[mN] + q10[mN]</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E116">
+        <v>0.3649308603518459</v>
+      </c>
+      <c r="F116">
+        <v>0.8413908126579929</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>51805</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>CSm_Neuron</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>citrate synthase Neuron</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>accoa[mN] + h2o[mN] + oaa[mN] --&gt; cit[mN] + coa[mN] + h[mN]</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E117">
+        <v>0.4083399935410397</v>
+      </c>
+      <c r="F117">
+        <v>1.087644010014422</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>1431, 1431</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>DURIK1m_Neuron</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>deoxyuridine kinase (ATP:Deoxyuridine), mitochondrial Neuron</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>atp[mN] + duri[mN] --&gt; adp[mN] + dump[mN] + h[mN]</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E118">
+        <v>0.1506962774412711</v>
+      </c>
+      <c r="F118">
+        <v>0.9046338375844781</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>7084</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>7083, 7084</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>DUTPDPm_Neuron</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>dUTP diphosphatase Neuron</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>dutp[mN] + h2o[mN] --&gt; dump[mN] + h[mN] + ppi[mN]</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E119">
+        <v>0.1506962774412712</v>
+      </c>
+      <c r="F119">
+        <v>1.00090553375108</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>1854, 3704</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>ETF_Neuron</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>electron transfer flavoprotein Neuron</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>etfox[mN] + fadh2[mN] --&gt; etfrd[mN] + fad[mN]</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E120">
+        <v>0.4083399935410396</v>
+      </c>
+      <c r="F120">
+        <v>0.03542454749858223</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>2109, 2108, 2109, 2108</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>ETFQO_Neuron</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Electron transfer flavoprotein-ubiquinone oxidoreductase Neuron</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>etfrd[mN] + q10[mN] --&gt; etfox[mN] + q10h2[mN]</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E121">
+        <v>0.4083399935410396</v>
+      </c>
+      <c r="F121">
+        <v>0.04913382692225356</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>2110</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>ETOHMO_Neuron</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>ethanol monooxygenase Neuron</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>etoh[cN] + h[cN] + nadph[cN] + o2[cN] --&gt; acald[cN] + 2.0 h2o[cN] + nadp[cN]</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E122">
+        <v>0.4321230137492205</v>
+      </c>
+      <c r="F122">
+        <v>0.1676490117004737</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>1571</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>FUMm_Neuron</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>fumarase, mitochondrial Neuron</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>fum[mN] + h2o[mN] &lt;=&gt; mal-L[mN]</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E123">
+        <v>0.4083399935410396</v>
+      </c>
+      <c r="F123">
+        <v>0.2562932067632965</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>2271</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>GLNtm_Neuron</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>L-glutamine transport via electroneutral transporter Neuron</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>gln-L[cN] --&gt; gln-L[mN]</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E124">
+        <v>0.2551643238024872</v>
+      </c>
+      <c r="F124">
+        <v>0.01665627034685863</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>GLUDym_Neuron</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>glutamate dehydrogenase (NADP), mitochondrial Neuron</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>glu-L[mN] + h2o[mN] + nadp[mN] --&gt; akg[mN] + h[mN] + nadph[mN] + nh4[mN]</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E125">
+        <v>0.04231154086752641</v>
+      </c>
+      <c r="F125">
+        <v>1.01818144384251</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>2747, 2746</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>GLUNm_Neuron</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>glutaminase (mitochondrial) Neuron</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>gln-L[mN] + h2o[mN] --&gt; glu-L[mN] + nh4[mN]</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E126">
+        <v>0.2551643238024873</v>
+      </c>
+      <c r="F126">
+        <v>0.3635989667157648</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>2744, 27165, 27165</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>GLUVESSEC_Neuron</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>L-glutamate secretion via secretory vesicle (ATP driven) Neuron</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>atp[cN] + glu-L[cN] + h2o[cN] --&gt; adp[cN] + glu-L[I] + h[cN] + pi[cN]</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E127">
+        <v>0.2551643238024872</v>
+      </c>
+      <c r="F127">
+        <v>0.248741982028832</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>57084, 246213, 57030</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>GLUt2m_Neuron</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>L-glutamate reversible transport via proton symport, mitochondrial Neuron</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>glu-L[cN] + h[cN] &lt;=&gt; glu-L[mN] + h[mN]</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E128">
+        <v>0.2551643238024807</v>
+      </c>
+      <c r="F128">
+        <v>1.178692701110391</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>10165, 8604, 83733, 79751</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>GLYCLTDym_Neuron</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Glycolate dehydrogenase (NADP), mitochondrial Neuron</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>glx[mN] + h[mN] + nadph[mN] --&gt; glyclt[mN] + nadp[mN]</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E129">
+        <v>0.456973716068677</v>
+      </c>
+      <c r="F129">
+        <v>0.8447100538376612</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>9380</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>GLYKm_Neuron</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>glycerol kinase Neuron</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>atp[mN] + glyc[mN] --&gt; adp[mN] + glyc3p[mN] + h[mN]</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E130">
+        <v>0.1791162903049744</v>
+      </c>
+      <c r="F130">
+        <v>1.037401310885178</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>2710, 2712, 2710, 2713</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>256356, 2710, 2712</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>GLYOXm_Neuron</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>hydroxyacylglutathione hydrolase, mitochondrial Neuron</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>h2o[mN] + lgt-S[mN] --&gt; gthrd[mN] + h[mN] + lac-D[mN]</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E131">
+        <v>0.2816417527133567</v>
+      </c>
+      <c r="F131">
+        <v>0.9846893787808997</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>3029</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>3029</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>GTHOm_Neuron</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>glutathione oxidoreductase Neuron</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>gthox[mN] + h[mN] + nadph[mN] --&gt; 2.0 gthrd[mN] + nadp[mN]</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E132">
+        <v>0.296866814184105</v>
+      </c>
+      <c r="F132">
+        <v>0.8526690810809062</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>2936</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>2936</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>H2Otm_Neuron</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>H2O transport, mitochondrial Neuron</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>h2o[cN] &lt;=&gt; h2o[mN]</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E133">
+        <v>0.8873408209388892</v>
+      </c>
+      <c r="F133">
+        <v>0.4424500097571316</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>HMGCOASim_Neuron</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Hydroxymethylglutaryl CoA synthase (ir) Neuron</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>aacoa[mN] + accoa[mN] + h2o[mN] --&gt; coa[mN] + h[mN] + hmgcoa[mN]</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E134">
+        <v>0.4083399935410398</v>
+      </c>
+      <c r="F134">
+        <v>1.047877906036578</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>3158</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>HMGLm_Neuron</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>hydroxymethylglutaryl-CoA lyase Neuron</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>hmgcoa[mN] --&gt; acac[mN] + accoa[mN]</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E135">
+        <v>0.4083399935410396</v>
+      </c>
+      <c r="F135">
+        <v>0.02581166415880359</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>3155, 54511</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Htm_Neuron</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Uncoupling protein Neuron</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>h[cN] --&gt; h[mN]</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E136">
+        <v>0.0423115408675267</v>
+      </c>
+      <c r="F136">
+        <v>1.135726263752819</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>9481, 7352, 7351, 7350</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>ICDHxm_Neuron</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Isocitrate dehydrogenase (NAD+) Neuron</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>icit[mN] + nad[mN] --&gt; akg[mN] + co2[mN] + nadh[mN]</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E137">
+        <v>0.04231154086752646</v>
+      </c>
+      <c r="F137">
+        <v>0.1915764574847617</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>3421, 3420, 3419, 3420, 3421, 3419, 3420, 3421, 3419, 3420, 3421, 3419, 3421, 3419, 3420, 3421, 3419, 3420</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>ICDHyrm_Neuron</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Isocitrate dehydrogenase (NADP+) Neuron</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>icit[mN] + nadp[mN] &lt;=&gt; akg[mN] + co2[mN] + nadph[mN]</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E138">
+        <v>0.4083399935410396</v>
+      </c>
+      <c r="F138">
+        <v>0.1103608579544724</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>3418</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Kt1r_Neuron</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>potassium transport via uniport (facilitated diffusion) Neuron</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>k[I] &lt;=&gt; k[cN]</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E139">
+        <v>0.9327452401202376</v>
+      </c>
+      <c r="F139">
+        <v>0.01402060344072543</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>L-LACt2r_Neuron</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>L-lactate reversible transport via proton symport Neuron</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>h[I] + lac-L[I] --&gt; h[cN] + lac-L[cN]</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E140">
+        <v>0.33698693032714</v>
+      </c>
+      <c r="F140">
+        <v>0.2474917241559471</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>9194, 23539, 6566, 9123, 682</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>L-LACtm_Neuron</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>L-lactate transport, mitochondrial Neuron</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>h[cN] + lac-L[cN] --&gt; h[mN] + lac-L[mN]</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E141">
+        <v>0.04231154086752445</v>
+      </c>
+      <c r="F141">
+        <v>1.135726263750671</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>6566</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>LDH_L_Neuron</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>L-lactate dehydrogenase Neuron</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>lac-L[cN] + nad[cN] --&gt; h[cN] + nadh[cN] + pyr[cN]</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E142">
+        <v>0.3369869303271401</v>
+      </c>
+      <c r="F142">
+        <v>0.1271057218330384</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>3945, 3939, 160287, 3948, 3939, 3948, 55293, 3945, 92483</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>LSOProd_Neuron</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Lumped superoxide production Neuron</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>focytC[mN] + o2[mN] --&gt; ficytC[mN] + o2s[mN]</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E143">
+        <v>0.04231154086752677</v>
+      </c>
+      <c r="F143">
+        <v>0.06987928758625953</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>MDH_Neuron</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>malate dehydrogenase Neuron</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>mal-L[cN] + nad[cN] &lt;=&gt; h[cN] + nadh[cN] + oaa[cN]</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E144">
+        <v>0.4083399935410378</v>
+      </c>
+      <c r="F144">
+        <v>0.1439141137301207</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>130752, 4190</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>MDHm_Neuron</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>malate dehydrogenase, mitochondrial Neuron</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>mal-L[mN] + nad[mN] &lt;=&gt; h[mN] + nadh[mN] + oaa[mN]</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E145">
+        <v>0.525771967612382</v>
+      </c>
+      <c r="F145">
+        <v>0.8726283398733388</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>4191, 4190</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>MMSAD1m_Neuron</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>methylmalonate-semialdehyde dehydrogenase Neuron</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>2mop[mN] + coa[mN] + nad[mN] --&gt; co2[mN] + nadh[mN] + ppcoa[mN]</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E146">
+        <v>0.1791162903049763</v>
+      </c>
+      <c r="F146">
+        <v>0.2137909934887952</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>4329.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>NH4t3r_Neuron</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>ammonia transport via proton antiport Neuron</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>h[I] + nh4[cN] &lt;=&gt; h[cN] + nh4[I]</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E147">
+        <v>0.2551643238024938</v>
+      </c>
+      <c r="F147">
+        <v>0.2557087658230433</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>NMNATm_Neuron</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>nicotinamide-nucleotide adenylyltransferase, mitochondrial Neuron</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>atp[mN] + h[mN] + nmn[mN] --&gt; nad[mN] + ppi[mN]</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E148">
+        <v>0.296866814184104</v>
+      </c>
+      <c r="F148">
+        <v>0.9538898269505853</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>349565</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>NaKt_Neuron</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Na+/K+ exchanging ATPase Neuron</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>atp[cN] + h2o[cN] + 2.0 k[I] + 3.0 na1[cN] --&gt; adp[cN] + h[cN] + 2.0 k[cN] + 3.0 na1[I] + pi[cN]</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E149">
+        <v>0.8142410713786293</v>
+      </c>
+      <c r="F149">
+        <v>0.2736933873635355</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>481, 478, 477, 23439, 483, 476, 481, 480, 482, 478, 482, 476, 482, 477, 481, 476, 23439, 476, 480, 23439, 481, 477</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>O2t_Neuron</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>o2 transport (diffusion) Neuron</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>o2[I] &lt;=&gt; o2[cN]</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E150">
+        <v>0.5948953862997173</v>
+      </c>
+      <c r="F150">
+        <v>0.01667158192925891</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>O2tm_Neuron</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>O2 transport (diffusion) Neuron</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>o2[cN] &lt;=&gt; o2[mN]</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E151">
+        <v>0.5948953862997173</v>
+      </c>
+      <c r="F151">
+        <v>0.05070255170580898</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>OCOAT1m_Neuron</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>3-oxoacid CoA-transferase Neuron</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>acac[mN] + succoa[mN] &lt;=&gt; aacoa[mN] + succ[mN]</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E152">
+        <v>0.4083399935410396</v>
+      </c>
+      <c r="F152">
+        <v>0.02339489940607675</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>5019, 64064</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>P45011A1m_Neuron</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Cytochrome P450 11A1, mitochondrial [Precursor] Neuron</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>chsterol[mN] + h[mN] + nadph[mN] + 2.0 o2[mN] --&gt; 4mptnl[mN] + 2.0 h2o[mN] + nadp[mN] + prgnlone[mN]</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E153">
+        <v>0.2968668141841054</v>
+      </c>
+      <c r="F153">
+        <v>1.206921075078173</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>1583</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>PCFLOPm_Neuron</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>phosphatidylcholine flippase Neuron</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>atp[cN] + h2o[cN] + pchol_hs[mN] --&gt; adp[cN] + h[cN] + pchol_hs[cN] + pi[cN]</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E154">
+        <v>0.1506962774412711</v>
+      </c>
+      <c r="F154">
+        <v>0.2501926744170687</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>57194</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>PDHm_Neuron</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>pyruvate dehydrogenase Neuron</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>coa[mN] + nad[mN] + pyr[mN] --&gt; accoa[mN] + co2[mN] + nadh[mN]</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E155">
+        <v>0.4083399935410396</v>
+      </c>
+      <c r="F155">
+        <v>0.1989616618003694</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>1738, 8050, 5161, 5162, 1737, 1738, 8050, 5160, 5162, 1737</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>PEFLIP_Neuron</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>phosphatidylethanolamine flippase Neuron</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>atp[cN] + h2o[cN] + pe_hs[I] --&gt; adp[cN] + h[cN] + pe_hs[cN] + pi[cN]</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E156">
+        <v>0.1506962774412711</v>
+      </c>
+      <c r="F156">
+        <v>0.2391294400777179</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>57194, 5244, 10396</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>PEFLIPm_Neuron</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>phosphatidylethanolamine flippase Neuron</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>atp[cN] + h2o[cN] + pe_hs[cN] --&gt; adp[cN] + h[cN] + pe_hs[mN] + pi[cN]</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E157">
+        <v>0.1791162903049741</v>
+      </c>
+      <c r="F157">
+        <v>0.232367751967101</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>57194, 10396</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>PIt2m_Neuron</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>phosphate transporter, mitochondrial Neuron</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>h[cN] + pi[cN] &lt;=&gt; h[mN] + pi[mN]</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E158">
+        <v>0.858123880230392</v>
+      </c>
+      <c r="F158">
+        <v>1.353657660745549</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>5250, 5250, 5250, 5250</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>PNTKm_Neuron</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>pantothenate kinase (mitochondrial) Neuron</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>atp[mN] + pnto-R[mN] --&gt; 4ppan[mN] + adp[mN] + h[mN]</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E159">
+        <v>0.1791162903049744</v>
+      </c>
+      <c r="F159">
+        <v>0.8921906991366757</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>80025</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>53354, 79646, 80025</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>PPAt_Neuron</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Propionate transport, diffusion Neuron</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>ppa[I] --&gt; ppa[cN]</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E160">
+        <v>0.2613192597124655</v>
+      </c>
+      <c r="F160">
+        <v>0.03257646339807395</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>PROD2m_Neuron</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Proline dehydrogenase (m) Neuron</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>fad[mN] + pro-L[mN] --&gt; 1pyr5c[mN] + fadh2[mN] + h[mN]</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E161">
+        <v>0.150696277441272</v>
+      </c>
+      <c r="F161">
+        <v>0.9962228949063443</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>5625</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>5625</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>PSFLIP_Neuron</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>phosphatidylserine flippase Neuron</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>atp[cN] + h2o[cN] + ps_hs[I] --&gt; adp[cN] + h[cN] + pi[cN] + ps_hs[cN]</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E162">
+        <v>0.1506962774412711</v>
+      </c>
+      <c r="F162">
+        <v>0.2391294400755584</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>57194, 10396</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>PSFLIPm_Neuron</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>phosphatidylserine flippase Neuron</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>atp[cN] + h2o[cN] + ps_hs[cN] --&gt; adp[cN] + h[cN] + pi[cN] + ps_hs[mN]</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E163">
+        <v>0.1506962774412711</v>
+      </c>
+      <c r="F163">
+        <v>0.223758703875962</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>57194, 10396</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>PYRt2m_Neuron</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>pyruvate mitochondrial transport via proton symport Neuron</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>h[cN] + pyr[cN] &lt;=&gt; h[mN] + pyr[mN]</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E164">
+        <v>0.4083399935410396</v>
+      </c>
+      <c r="F164">
+        <v>1.165123429527704</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>6566</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>SUCD1m_Neuron</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>succinate dehydrogenase Neuron</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>fad[mN] + succ[mN] &lt;=&gt; fadh2[mN] + fum[mN]</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E165">
+        <v>0.4083399935410396</v>
+      </c>
+      <c r="F165">
+        <v>0.02846387973416268</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>6389, 6392, 6391, 6390</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>SUCOAS1m_Neuron</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Succinate--CoA ligase (GDP-forming) Neuron</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>coa[mN] + gtp[mN] + succ[mN] --&gt; gdp[mN] + pi[mN] + succoa[mN]</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E166">
+        <v>0.1506962774412712</v>
+      </c>
+      <c r="F166">
+        <v>0.0960771713942376</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>8802, 8801</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>8801, 8802, 8803</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>SUCOASm_Neuron</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Succinate--CoA ligase (ADP-forming) Neuron</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>atp[mN] + coa[mN] + succ[mN] --&gt; adp[mN] + pi[mN] + succoa[mN]</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E167">
+        <v>0.1506962774412712</v>
+      </c>
+      <c r="F167">
+        <v>0.1407317940142127</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>8802, 8803</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>8801, 8802, 8803</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>THD1m_Neuron</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>NAD(P) transhydrogenase Neuron</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>h[cN] + nadh[mN] + nadp[mN] &lt;=&gt; h[mN] + nad[mN] + nadph[mN]</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E168">
+        <v>0.4083399935410395</v>
+      </c>
+      <c r="F168">
+        <v>1.27081754360695</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>23530, 23530</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>23530</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>TMDK1m_Neuron</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>thymidine kinase (ATP:thymidine) Neuron</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>atp[mN] + thymd[mN] --&gt; adp[mN] + dtmp[mN] + h[mN]</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E169">
+        <v>0.1506962774412711</v>
+      </c>
+      <c r="F169">
+        <v>0.9046615169040608</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>7084</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>7083, 7084</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>DAKm_Neuron</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>adentylate kinase (GTP) / GTP-AMP Phosphotransferase Neuron</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>damp[mN] + gtp[mN] --&gt; dadp[mN] + gdp[mN]</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E170">
+        <v>0.2468311908770458</v>
+      </c>
+      <c r="F170">
+        <v>0.01846027385426</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>DTKm_Neuron</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>deoxythymidylate kinase (ATP) Neuron</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>atp[mN] + dtmp[mN] --&gt; adp[mN] + dtdp[mN]</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E171">
+        <v>0.2468311908770461</v>
+      </c>
+      <c r="F171">
+        <v>0.07528650210830622</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>1841</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>DCKm_Neuron</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>deoxycytidylate kinase (ATP) Neuron</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>atp[mN] + dcmp[mN] --&gt; adp[mN] + dcdp[mN]</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E172">
+        <v>0.2468311908770458</v>
+      </c>
+      <c r="F172">
+        <v>0.07214109702722118</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>51727</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>DGKm_Neuron</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>deoxyguanylate kinase (ATP) Neuron</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>atp[mN] + dgmp[mN] --&gt; adp[mN] + dgdp[mN]</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E173">
+        <v>0.2468311908770458</v>
+      </c>
+      <c r="F173">
+        <v>0.07214109702571395</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>2987.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
           <t>NH3tm_Neuron</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>mitochondrial ammonium transport Neuron</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t>h[mN] + nh4[cN] &lt;=&gt; h[cN] + nh4[mN]</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Neuron</t>
-        </is>
-      </c>
-      <c r="E60">
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E174">
         <v>0.2551643238024937</v>
       </c>
-      <c r="F60">
-        <v>1.272126231229316</v>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Hyper</t>
+      <c r="F174">
+        <v>1.189861121530439</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>NDPK1_Neuron</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>GTP-ADP Phosphotransferase Neuron</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>atp[cN] + gdp[cN] --&gt; adp[cN] + gtp[cN]</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E175">
+        <v>0.1185135354265836</v>
+      </c>
+      <c r="F175">
+        <v>0.02906929610572547</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>4832, 10201, 4831, 4830, 29922, 4830, 29922</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>GLNtN1_Neuron</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Glutamine transporter Neuron</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>gln-L[I] + h[cN] + na1[I] &lt;=&gt; gln-L[cN] + h[I] + na1[cN]</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E176">
+        <v>0.2551643238024874</v>
+      </c>
+      <c r="F176">
+        <v>0.2827472212696471</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>92745, 10991</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>CKc_Neuron</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>ATP Creatine kinase Neuron</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>atp[cN] + creat[cN] --&gt; adp[cN] + pcreat[cN]</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E177">
+        <v>0.1506962774412709</v>
+      </c>
+      <c r="F177">
+        <v>0.06855946241864902</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>1152</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>CREATtmdiffir_Neuron</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Creatine transport to/from mitochondria via diffusion Neuron</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>creat[cN] --&gt; creat[mN]</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E178">
+        <v>0.1506962774412709</v>
+      </c>
+      <c r="F178">
+        <v>0.02668601033442716</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>NaEX_Neuron</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Sodium transport (added for simulation)</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>na1[e] &lt;=&gt; na1[cN]</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+      <c r="F179">
+        <v>0.01352149704355755</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>GLCt1r_Neuron</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Glucose transporter_Neuron</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>glc-D[e] --&gt; glc-D[cN]</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E180">
+        <v>0.8435695736090508</v>
+      </c>
+      <c r="F180">
+        <v>0.1569952680804823</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>66035, 6517, 56606, 154091, 6513, 11182, 29988, 6514, 155184, 56606, 144195, 6515, 81031</t>
         </is>
       </c>
     </row>

--- a/results/stimulated_NAMU_results_analysis/functional_analysis_of_hubs/hyperhubs.xlsx
+++ b/results/stimulated_NAMU_results_analysis/functional_analysis_of_hubs/hyperhubs.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I180"/>
+  <dimension ref="A1:K190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -395,10 +395,20 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>recon3_genes</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Lewis2010_genes</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>VMH_gene_IDs</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>KEGG_genes</t>
         </is>
@@ -502,7 +512,7 @@
           <t>Hyper</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>1591</t>
         </is>
@@ -540,7 +550,7 @@
           <t>Hyper</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>1591</t>
         </is>
@@ -644,6 +654,16 @@
           <t>Hyper</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1591, 1594</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1594, 1591</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -677,6 +697,16 @@
           <t>Hyper</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1591, 1594</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1594, 1591</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -710,7 +740,17 @@
           <t>Hyper</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>18, 18, 64902</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>18.1, 18.2</t>
         </is>
@@ -816,6 +856,11 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>60496</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
           <t>501</t>
         </is>
       </c>
@@ -854,10 +899,20 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>11164</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>53343</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>53343, 53343, 53343</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>11164, 53343, 56985, 7226</t>
         </is>
@@ -897,10 +952,20 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>4967, 1738, 4967, 1743, 8050</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>8050, 1738, 4967, 1743</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>4967, 1738, 8050, 1743, 4967</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>4967</t>
         </is>
@@ -948,6 +1013,16 @@
           <t>10327</t>
         </is>
       </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>10327, 10327</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>10327</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -988,6 +1063,16 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
+          <t>219, 217</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>219, 217</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
           <t>218, 221, 222</t>
         </is>
       </c>
@@ -995,17 +1080,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ALDD2y</t>
+          <t>ALDD2xm</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>aldehyde dehydrogenase (acetaldehyde, NADP) Astrocyte</t>
+          <t>aldehyde dehydrogenase (acetylaldehyde, NAD), mitochondrial Astrocyte</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>acald[cA] + h2o[cA] + nadp[cA] --&gt; ac[cA] + 2.0 h[cA] + nadph[cA]</t>
+          <t>acald[mA] + h2o[mA] + nad[mA] --&gt; ac[mA] + 2.0 h[mA] + nadh[mA]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1014,10 +1099,10 @@
         </is>
       </c>
       <c r="E18">
-        <v>0.3461492786152284</v>
+        <v>0.2316318208042136</v>
       </c>
       <c r="F18">
-        <v>0.1839797433154619</v>
+        <v>1.431823101230085</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1026,10 +1111,20 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>218, 222, 221, 219, 223, 8854, 8854, 224, 8854</t>
+          <t>221, 220, 218, 222, 8854, 8854, 501, 224, 223, 8854, 216, 219, 217</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
+        <is>
+          <t>219, 217</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>219, 217</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>218, 221, 222</t>
         </is>
@@ -1038,17 +1133,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ALR</t>
+          <t>ALDD2y</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Aldose reductase Astrocyte</t>
+          <t>aldehyde dehydrogenase (acetaldehyde, NADP) Astrocyte</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>h2o[cA] + mthgxl[cA] + nadp[cA] --&gt; 2.0 h[cA] + nadph[cA] + pyr[cA]</t>
+          <t>acald[cA] + h2o[cA] + nadp[cA] --&gt; ac[cA] + 2.0 h[cA] + nadph[cA]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1057,36 +1152,51 @@
         </is>
       </c>
       <c r="E19">
-        <v>0.3815111982957977</v>
+        <v>0.3461492786152284</v>
       </c>
       <c r="F19">
-        <v>0.1837846093308289</v>
+        <v>0.1839797433154619</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>221, 218, 222, 8854, 8854, 224, 223, 8854, 219</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>10327.2, 8574.1, 10327.1, 231.1</t>
+          <t>223, 224, 8854</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>218, 222, 221, 219, 223, 8854, 8854, 224, 8854</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>218, 221, 222</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ASNt4</t>
+          <t>ALR</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>L-asparagine transport in via sodium symport Astrocyte</t>
+          <t>Aldose reductase Astrocyte</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>asn-L[e] + na1[e] --&gt; asn-L[cA] + na1[cA]</t>
+          <t>h2o[cA] + mthgxl[cA] + nadp[cA] --&gt; 2.0 h[cA] + nadph[cA] + pyr[cA]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1095,36 +1205,41 @@
         </is>
       </c>
       <c r="E20">
-        <v>0.04328107473014822</v>
+        <v>0.3815111982957977</v>
       </c>
       <c r="F20">
-        <v>0.03916633766978924</v>
+        <v>0.1837846093308289</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>54407, 11254, 81539, 55089, 340024, 57393, 59272</t>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>10327.2, 8574.1, 10327.1, 231.1</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ASPGLUm</t>
+          <t>ASNt4</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>aspartate-glutamate mitochondrial shuttle Astrocyte</t>
+          <t>L-asparagine transport in via sodium symport Astrocyte</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>asp-L[mA] + glu-L[cA] + h[cA] --&gt; asp-L[cA] + glu-L[mA] + h[mA]</t>
+          <t>asn-L[e] + na1[e] --&gt; asn-L[cA] + na1[cA]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1133,10 +1248,10 @@
         </is>
       </c>
       <c r="E21">
-        <v>0.2468311908770477</v>
+        <v>0.04328107473014822</v>
       </c>
       <c r="F21">
-        <v>1.74437491595559</v>
+        <v>0.03916633766978924</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1145,24 +1260,34 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>10165, 8604</t>
+          <t>11254, 57393, 59272, 54407, 340024, 81539, 55089</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>11254, 81539, 54407</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>54407, 11254, 81539, 55089, 340024, 57393, 59272</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ATPtm</t>
+          <t>ASPGLUm</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ADP/ATP transporter, mitochondrial Astrocyte</t>
+          <t>aspartate-glutamate mitochondrial shuttle Astrocyte</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>adp[cA] + atp[mA] --&gt; adp[mA] + atp[cA]</t>
+          <t>asp-L[mA] + glu-L[cA] + h[cA] --&gt; asp-L[cA] + glu-L[mA] + h[mA]</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1171,10 +1296,10 @@
         </is>
       </c>
       <c r="E22">
-        <v>0.02293267905734556</v>
+        <v>0.2468311908770477</v>
       </c>
       <c r="F22">
-        <v>0.116436870282059</v>
+        <v>1.74437491595559</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1183,24 +1308,34 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>291, 293, 292</t>
+          <t>10165, 8604</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>10165, 8604</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>10165, 8604</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CO2t</t>
+          <t>ATPtm</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CO2 transporter via diffusion Astrocyte</t>
+          <t>ADP/ATP transporter, mitochondrial Astrocyte</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>co2[e] &lt;=&gt; co2[cA]</t>
+          <t>adp[cA] + atp[mA] --&gt; adp[mA] + atp[cA]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1209,31 +1344,46 @@
         </is>
       </c>
       <c r="E23">
-        <v>0.5948953862997168</v>
+        <v>0.02293267905734556</v>
       </c>
       <c r="F23">
-        <v>0.05378587299982619</v>
+        <v>0.116436870282059</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
           <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>292, 291, 293</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>292, 291, 293</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>291, 293, 292</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>COQ7m</t>
+          <t>CO2t</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ubiquinone biosynthesis COQ7 Astrocyte</t>
+          <t>CO2 transporter via diffusion Astrocyte</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2dp6mobq_me[mA] + h[mA] + nadph[mA] + o2[mA] --&gt; 2dpmhobq[mA] + h2o[mA] + nadp[mA]</t>
+          <t>co2[e] &lt;=&gt; co2[cA]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1242,41 +1392,31 @@
         </is>
       </c>
       <c r="E24">
-        <v>0.3270868227758046</v>
+        <v>0.5948953862997168</v>
       </c>
       <c r="F24">
-        <v>1.355929201195742</v>
+        <v>0.05378587299982619</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
           <t>Hyper</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>10229</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>10229</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CYSGLUexR</t>
+          <t>COQ7m</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>L-cysteine/L-glutamine reversible exchanger Astrocyte</t>
+          <t>Ubiquinone biosynthesis COQ7 Astrocyte</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>cys-L[e] + gln-L[cA] --&gt; cys-L[cA] + gln-L[e]</t>
+          <t>2dp6mobq_me[mA] + h[mA] + nadph[mA] + o2[mA] --&gt; 2dpmhobq[mA] + h2o[mA] + nadp[mA]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1285,10 +1425,10 @@
         </is>
       </c>
       <c r="E25">
-        <v>0.4918656722394495</v>
+        <v>0.3270868227758046</v>
       </c>
       <c r="F25">
-        <v>0.01988646371897007</v>
+        <v>1.355929201195742</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1297,24 +1437,39 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>56301, 6520, 8140</t>
+          <t>10229</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>10229</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>10229</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>10229</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CYSO</t>
+          <t>CYSGLUexR</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>cysteine oxidase Astrocyte</t>
+          <t>L-cysteine/L-glutamine reversible exchanger Astrocyte</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>cys-L[cA] + o2[cA] --&gt; 3sala[cA] + 2.0 h[cA]</t>
+          <t>cys-L[e] + gln-L[cA] --&gt; cys-L[cA] + gln-L[e]</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1323,10 +1478,10 @@
         </is>
       </c>
       <c r="E26">
-        <v>0.2730459438691784</v>
+        <v>0.4918656722394495</v>
       </c>
       <c r="F26">
-        <v>0.1757328780829796</v>
+        <v>0.01988646371897007</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1335,29 +1490,34 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1036</t>
+          <t>6520, 56301, 8140</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1036</t>
+          <t>6520, 56301</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>56301, 6520, 8140</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>DGNSKm</t>
+          <t>CYSO</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>deoxyguanosine kinase Astrocyte</t>
+          <t>cysteine oxidase Astrocyte</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>atp[mA] + dgsn[mA] --&gt; adp[mA] + dgmp[mA] + h[mA]</t>
+          <t>cys-L[cA] + o2[cA] --&gt; 3sala[cA] + 2.0 h[cA]</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1366,10 +1526,10 @@
         </is>
       </c>
       <c r="E27">
-        <v>0.3175359391462746</v>
+        <v>0.2730459438691784</v>
       </c>
       <c r="F27">
-        <v>1.394932948836643</v>
+        <v>0.1757328780829796</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1378,29 +1538,39 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1716, 1716, 1716, 1716, 1716</t>
+          <t>1036</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1716</t>
+          <t>1036</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1036</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>1036</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DURIK1m</t>
+          <t>DGNSKm</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>deoxyuridine kinase (ATP:Deoxyuridine), mitochondrial Astrocyte</t>
+          <t>deoxyguanosine kinase Astrocyte</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>atp[mA] + duri[mA] --&gt; adp[mA] + dump[mA] + h[mA]</t>
+          <t>atp[mA] + dgsn[mA] --&gt; adp[mA] + dgmp[mA] + h[mA]</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1409,10 +1579,10 @@
         </is>
       </c>
       <c r="E28">
-        <v>0.1204938365801788</v>
+        <v>0.3175359391462746</v>
       </c>
       <c r="F28">
-        <v>1.219000364594774</v>
+        <v>1.394932948836643</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1421,29 +1591,39 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>7084</t>
+          <t>1716, 1716, 1716, 1716, 1716</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>7083, 7084</t>
+          <t>1716</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>1716, 1716, 1716, 1716, 1716</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>1716</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ETF</t>
+          <t>DURIK1m</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>electron transfer flavoprotein Astrocyte</t>
+          <t>deoxyuridine kinase (ATP:Deoxyuridine), mitochondrial Astrocyte</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>etfox[mA] + fadh2[mA] --&gt; etfrd[mA] + fad[mA]</t>
+          <t>atp[mA] + duri[mA] --&gt; adp[mA] + dump[mA] + h[mA]</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1452,10 +1632,10 @@
         </is>
       </c>
       <c r="E29">
-        <v>0.1178287990266148</v>
+        <v>0.1204938365801788</v>
       </c>
       <c r="F29">
-        <v>0.03229747664173104</v>
+        <v>1.219000364594774</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1464,29 +1644,39 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2109, 2108, 2109</t>
+          <t>7083, 7084</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2110</t>
+          <t>7084</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>7084</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>7083, 7084</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ETOHMO</t>
+          <t>DURIK1m</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ethanol monooxygenase Astrocyte</t>
+          <t>deoxyuridine kinase (ATP:Deoxyuridine), mitochondrial Astrocyte</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>etoh[cA] + h[cA] + nadph[cA] + o2[cA] --&gt; acald[cA] + 2.0 h2o[cA] + nadp[cA]</t>
+          <t>atp[mA] + duri[mA] --&gt; adp[mA] + dump[mA] + h[mA]</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1495,10 +1685,10 @@
         </is>
       </c>
       <c r="E30">
-        <v>0.3461492786152285</v>
+        <v>0.1204938365801788</v>
       </c>
       <c r="F30">
-        <v>0.1951647178153829</v>
+        <v>1.219000364594774</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1507,24 +1697,39 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>1571</t>
+          <t>7084</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>7084</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>7084</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>7083, 7084</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>FPGS8m</t>
+          <t>ETF</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>folylpolyglutamate synthetase (10fthf), mitochondrial Astrocyte</t>
+          <t>electron transfer flavoprotein Astrocyte</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>10fthf5glu[mA] + atp[mA] + glu-L[mA] --&gt; 10fthf6glu[mA] + adp[mA] + h[mA] + pi[mA]</t>
+          <t>etfox[mA] + fadh2[mA] --&gt; etfrd[mA] + fad[mA]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1533,10 +1738,10 @@
         </is>
       </c>
       <c r="E31">
-        <v>0.2545083847575631</v>
+        <v>0.1178287990266148</v>
       </c>
       <c r="F31">
-        <v>1.356187502335385</v>
+        <v>0.03229747664173104</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1545,29 +1750,39 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>2109, 2109, 2108, 2110, 2168</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>2109, 2108, 2110</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2109, 2108, 2109</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>2110</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>GCC2bim</t>
+          <t>ETOHMO</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>glycine-cleavage system (lipoamide) irreversible, mitochondrial Astrocyte</t>
+          <t>ethanol monooxygenase Astrocyte</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>alpam[mA] + thf[mA] --&gt; dhlam[mA] + mlthf[mA] + nh4[mA]</t>
+          <t>etoh[cA] + h[cA] + nadph[cA] + o2[cA] --&gt; acald[cA] + 2.0 h2o[cA] + nadp[cA]</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1576,10 +1791,10 @@
         </is>
       </c>
       <c r="E32">
-        <v>0.09559313845952661</v>
+        <v>0.3461492786152285</v>
       </c>
       <c r="F32">
-        <v>0.02354410875856976</v>
+        <v>0.1951647178153829</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1588,24 +1803,34 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>275, 1738, 2731, 2653</t>
+          <t>1571</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1571</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>1571</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>GCCbim</t>
+          <t>FPGS8m</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>glycine-cleavage complex (lipoylprotein) irreversible, mitochondrial Astrocyte</t>
+          <t>folylpolyglutamate synthetase (10fthf), mitochondrial Astrocyte</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>alpro[mA] + thf[mA] --&gt; dhlpro[mA] + mlthf[mA] + nh4[mA]</t>
+          <t>10fthf5glu[mA] + atp[mA] + glu-L[mA] --&gt; 10fthf6glu[mA] + adp[mA] + h[mA] + pi[mA]</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1614,36 +1839,51 @@
         </is>
       </c>
       <c r="E33">
-        <v>0.09559313845952661</v>
+        <v>0.2545083847575631</v>
       </c>
       <c r="F33">
-        <v>0.02354410875857164</v>
+        <v>1.356187502335385</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2356</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>275.1, 1738.1, 2731.1, 2653.1</t>
+          <t>2356</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2356</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>2356</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>GLCt1r</t>
+          <t>FPGS8m</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>glucose transport (uniport) Astrocyte</t>
+          <t>folylpolyglutamate synthetase (10fthf), mitochondrial Astrocyte</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>glc-D[e] --&gt; glc-D[cA]</t>
+          <t>10fthf5glu[mA] + atp[mA] + glu-L[mA] --&gt; 10fthf6glu[mA] + adp[mA] + h[mA] + pi[mA]</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1652,10 +1892,10 @@
         </is>
       </c>
       <c r="E34">
-        <v>0.945227732153085</v>
+        <v>0.2545083847575631</v>
       </c>
       <c r="F34">
-        <v>0.06670481248927029</v>
+        <v>1.356187502335385</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1664,24 +1904,39 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>66035, 6517, 56606, 154091, 6513, 11182, 29988, 6514, 155184, 56606, 144195, 6515, 81031</t>
+          <t>2356</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2356</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>2356</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>2356</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>GLCt2r</t>
+          <t>FPGS8m</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>D-glucose transport in via proton symport Astrocyte</t>
+          <t>folylpolyglutamate synthetase (10fthf), mitochondrial Astrocyte</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>glc-D[e] + h[e] --&gt; glc-D[cA] + h[cA]</t>
+          <t>10fthf5glu[mA] + atp[mA] + glu-L[mA] --&gt; 10fthf6glu[mA] + adp[mA] + h[mA] + pi[mA]</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1690,31 +1945,51 @@
         </is>
       </c>
       <c r="E35">
-        <v>0.7177229709166631</v>
+        <v>0.2545083847575631</v>
       </c>
       <c r="F35">
-        <v>0.3187743546870472</v>
+        <v>1.356187502335385</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
           <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2356</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2356</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>2356</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>2356</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>GLNS</t>
+          <t>GCC2bim</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>glutamine synthetase Astrocyte</t>
+          <t>glycine-cleavage system (lipoamide) irreversible, mitochondrial Astrocyte</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>atp[cA] + glu-L[cA] + nh4[cA] --&gt; adp[cA] + gln-L[cA] + h[cA] + pi[cA]</t>
+          <t>alpam[mA] + thf[mA] --&gt; dhlam[mA] + mlthf[mA] + nh4[mA]</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1723,10 +1998,10 @@
         </is>
       </c>
       <c r="E36">
-        <v>0.2551643238024873</v>
+        <v>0.09559313845952661</v>
       </c>
       <c r="F36">
-        <v>0.2047417833152293</v>
+        <v>0.02354410875856976</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1735,24 +2010,34 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2752, 51557</t>
+          <t>1738, 2653, 275, 2731</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1738, 275, 2731, 2653</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>275, 1738, 2731, 2653</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>GLUDym</t>
+          <t>GCCbim</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>glutamate dehydrogenase (NADP), mitochondrial Astrocyte</t>
+          <t>glycine-cleavage complex (lipoylprotein) irreversible, mitochondrial Astrocyte</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>glu-L[mA] + h2o[mA] + nadp[mA] --&gt; akg[mA] + h[mA] + nadph[mA] + nh4[mA]</t>
+          <t>alpro[mA] + thf[mA] --&gt; dhlpro[mA] + mlthf[mA] + nh4[mA]</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1761,10 +2046,10 @@
         </is>
       </c>
       <c r="E37">
-        <v>0.03248377960335636</v>
+        <v>0.09559313845952661</v>
       </c>
       <c r="F37">
-        <v>1.430549318024912</v>
+        <v>0.02354410875857164</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1773,29 +2058,34 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2747, 2746</t>
+          <t>1738, 2653, 275, 2731</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2746, 2747</t>
+          <t>1738, 275, 2731, 2653</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>275.1, 1738.1, 2731.1, 2653.1</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>GLUNm</t>
+          <t>GLCt1r</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>glutaminase (mitochondrial) Astrocyte</t>
+          <t>glucose transport (uniport) Astrocyte</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>gln-L[mA] + h2o[mA] --&gt; glu-L[mA] + nh4[mA]</t>
+          <t>glc-D[e] --&gt; glc-D[cA]</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1804,10 +2094,10 @@
         </is>
       </c>
       <c r="E38">
-        <v>0.1016262463976684</v>
+        <v>0.945227732153085</v>
       </c>
       <c r="F38">
-        <v>0.396363950552722</v>
+        <v>0.06670481248927029</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1816,24 +2106,34 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2744, 27165, 27165</t>
+          <t>6517, 6515, 6513, 66035, 6514, 155184, 29988, 81031, 56606, 144195, 11182, 154091, 56606</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>6513, 56606, 6515, 29988, 11182, 154091, 81031, 66035</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>66035, 6517, 56606, 154091, 6513, 11182, 29988, 6514, 155184, 56606, 144195, 6515, 81031</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>GLUVESSEC</t>
+          <t>GLCt2r</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>L-glutamate secretion via secretory vesicle (ATP driven) Astrocyte</t>
+          <t>D-glucose transport in via proton symport Astrocyte</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>atp[cA] + glu-L[cA] + h2o[cA] --&gt; adp[cA] + glu-L[e] + h[cA] + pi[cA]</t>
+          <t>glc-D[e] + h[e] --&gt; glc-D[cA] + h[cA]</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1842,36 +2142,36 @@
         </is>
       </c>
       <c r="E39">
-        <v>0.5879223687504413</v>
+        <v>0.7177229709166631</v>
       </c>
       <c r="F39">
-        <v>0.2490877043790228</v>
+        <v>0.3187743546870472</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>57084, 246213, 57030</t>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>6524</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>GLUt6</t>
+          <t>GLNS</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Glutamate transport via Na, H symport and K antiport Astrocyte</t>
+          <t>glutamine synthetase Astrocyte</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>glu-L[e] + h[e] + k[cA] + 3.0 na1[e] --&gt; glu-L[cA] + h[cA] + k[e] + 3.0 na1[cA]</t>
+          <t>atp[cA] + glu-L[cA] + nh4[cA] --&gt; adp[cA] + gln-L[cA] + h[cA] + pi[cA]</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1880,10 +2180,10 @@
         </is>
       </c>
       <c r="E40">
-        <v>0.5735118844228786</v>
+        <v>0.2551643238024873</v>
       </c>
       <c r="F40">
-        <v>0.1818419913750442</v>
+        <v>0.2047417833152293</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1892,24 +2192,34 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>6511, 6505, 6507, 6506, 6512</t>
+          <t>6510, 2752, 51557</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2752</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>2752, 51557</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>GLYOXm</t>
+          <t>GLUDym</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>hydroxyacylglutathione hydrolase, mitochondrial Astrocyte</t>
+          <t>glutamate dehydrogenase (NADP), mitochondrial Astrocyte</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>h2o[mA] + lgt-S[mA] --&gt; gthrd[mA] + h[mA] + lac-D[mA]</t>
+          <t>glu-L[mA] + h2o[mA] + nadp[mA] --&gt; akg[mA] + h[mA] + nadph[mA] + nh4[mA]</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1918,10 +2228,10 @@
         </is>
       </c>
       <c r="E41">
-        <v>0.281641752713357</v>
+        <v>0.03248377960335636</v>
       </c>
       <c r="F41">
-        <v>1.345748214834902</v>
+        <v>1.430549318024912</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1930,29 +2240,39 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>3029</t>
+          <t>2746, 2747</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>3029</t>
+          <t>2746, 2747</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>2747, 2746</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>2746, 2747</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>GND</t>
+          <t>GLUNm</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>phosphogluconate dehydrogenase Astrocyte</t>
+          <t>glutaminase (mitochondrial) Astrocyte</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>6pgc[cA] + nadp[cA] --&gt; co2[cA] + nadph[cA] + ru5p-D[cA]</t>
+          <t>gln-L[mA] + h2o[mA] --&gt; glu-L[mA] + nh4[mA]</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1961,36 +2281,46 @@
         </is>
       </c>
       <c r="E42">
-        <v>0.4127056666134207</v>
+        <v>0.1016262463976684</v>
       </c>
       <c r="F42">
-        <v>0.22491802372041</v>
+        <v>0.396363950552722</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>27165, 27165, 2744</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>5226.1</t>
+          <t>2744, 27165</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>2744, 27165, 27165</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>GTHOm</t>
+          <t>GLUVESSEC</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>glutathione oxidoreductase Astrocyte</t>
+          <t>L-glutamate secretion via secretory vesicle (ATP driven) Astrocyte</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>gthox[mA] + h[mA] + nadph[mA] --&gt; 2.0 gthrd[mA] + nadp[mA]</t>
+          <t>atp[cA] + glu-L[cA] + h2o[cA] --&gt; adp[cA] + glu-L[e] + h[cA] + pi[cA]</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1999,10 +2329,10 @@
         </is>
       </c>
       <c r="E43">
-        <v>0.2545083847575647</v>
+        <v>0.5879223687504413</v>
       </c>
       <c r="F43">
-        <v>1.102343503912964</v>
+        <v>0.2490877043790228</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2011,29 +2341,34 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2936</t>
+          <t>57030, 246213, 57084</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2936</t>
+          <t>246213, 57030, 57084</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>57084, 246213, 57030</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>H2Ot</t>
+          <t>GLUt6</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>H2O transport via diffusion Astrocyte</t>
+          <t>Glutamate transport via Na, H symport and K antiport Astrocyte</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>h2o[e] &lt;=&gt; h2o[cA]</t>
+          <t>glu-L[e] + h[e] + k[cA] + 3.0 na1[e] --&gt; glu-L[cA] + h[cA] + k[e] + 3.0 na1[cA]</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2042,10 +2377,10 @@
         </is>
       </c>
       <c r="E44">
-        <v>0.2551643238024978</v>
+        <v>0.5735118844228786</v>
       </c>
       <c r="F44">
-        <v>0.0918211779350052</v>
+        <v>0.1818419913750442</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2054,24 +2389,34 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>358, 361, 4284, 359, 362, 343</t>
+          <t>6505, 6511, 6512, 6507, 6506</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>6512, 6507, 6511, 6505, 6506</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>6511, 6505, 6507, 6506, 6512</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>HMGLm</t>
+          <t>GLYOXm</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>hydroxymethylglutaryl-CoA lyase Astrocyte</t>
+          <t>hydroxyacylglutathione hydrolase, mitochondrial Astrocyte</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>hmgcoa[mA] --&gt; acac[mA] + accoa[mA]</t>
+          <t>h2o[mA] + lgt-S[mA] --&gt; gthrd[mA] + h[mA] + lac-D[mA]</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2080,10 +2425,10 @@
         </is>
       </c>
       <c r="E45">
-        <v>0.1204938365801788</v>
+        <v>0.281641752713357</v>
       </c>
       <c r="F45">
-        <v>0.02298562016439399</v>
+        <v>1.345748214834902</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2092,29 +2437,39 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>3155, 54511</t>
+          <t>3029</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>3155, 54511</t>
+          <t>3029</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>3029</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>3029</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Htm</t>
+          <t>GLYOXm</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Uncoupling protein Astrocyte</t>
+          <t>hydroxyacylglutathione hydrolase, mitochondrial Astrocyte</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>h[cA] --&gt; h[mA]</t>
+          <t>h2o[mA] + lgt-S[mA] --&gt; gthrd[mA] + h[mA] + lac-D[mA]</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2123,10 +2478,10 @@
         </is>
       </c>
       <c r="E46">
-        <v>0.03248377960335507</v>
+        <v>0.281641752713357</v>
       </c>
       <c r="F46">
-        <v>1.642526058470975</v>
+        <v>1.345748214834902</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2135,24 +2490,39 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>9016, 7352, 7352, 7351, 9016, 7350, 9481</t>
+          <t>3029, 84264, 84264</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>3029</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>3029</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>3029</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ICDHxm</t>
+          <t>GND</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Isocitrate dehydrogenase (NAD+) Astrocyte</t>
+          <t>phosphogluconate dehydrogenase Astrocyte</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>icit[mA] + nad[mA] --&gt; akg[mA] + co2[mA] + nadh[mA]</t>
+          <t>6pgc[cA] + nadp[cA] --&gt; co2[cA] + nadph[cA] + ru5p-D[cA]</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2161,10 +2531,10 @@
         </is>
       </c>
       <c r="E47">
-        <v>0.03248377960335564</v>
+        <v>0.4127056666134207</v>
       </c>
       <c r="F47">
-        <v>0.1813071359032163</v>
+        <v>0.22491802372041</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2173,24 +2543,34 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>3421, 3420, 3419, 3420, 3421, 3419, 3420, 3421, 3419, 3420, 3421, 3419, 3421, 3419, 3420, 3421, 3419, 3420</t>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>5226.1</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>L-LACtm</t>
+          <t>GTHOm</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>L-lactate transport, mitochondrial Astrocyte</t>
+          <t>glutathione oxidoreductase Astrocyte</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>h[cA] + lac-L[cA] --&gt; h[mA] + lac-L[mA]</t>
+          <t>gthox[mA] + h[mA] + nadph[mA] --&gt; 2.0 gthrd[mA] + nadp[mA]</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2199,10 +2579,10 @@
         </is>
       </c>
       <c r="E48">
-        <v>0.2316318208042138</v>
+        <v>0.2545083847575647</v>
       </c>
       <c r="F48">
-        <v>1.643932903883289</v>
+        <v>1.102343503912964</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2211,24 +2591,39 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>6566</t>
+          <t>2936</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2936</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>2936</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>2936</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>LCADi_Dm</t>
+          <t>GTHOm</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>lactaldehyde dehydrogenase, mitochondrial Astrocyte</t>
+          <t>glutathione oxidoreductase Astrocyte</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>h2o[mA] + lald-D[mA] + nad[mA] --&gt; 2.0 h[mA] + lac-D[mA] + nadh[mA]</t>
+          <t>gthox[mA] + h[mA] + nadph[mA] --&gt; 2.0 gthrd[mA] + nadp[mA]</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2237,10 +2632,10 @@
         </is>
       </c>
       <c r="E49">
-        <v>0.09559313845952844</v>
+        <v>0.2545083847575647</v>
       </c>
       <c r="F49">
-        <v>1.432100157194409</v>
+        <v>1.102343503912964</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2249,29 +2644,39 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>8659, 8659, 219, 217, 5832, 4329, 7915, 7915</t>
+          <t>2936</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>217, 219, 223, 224, 501</t>
+          <t>2936</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>2936</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>2936</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>LDH_L</t>
+          <t>H2Ot</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>L-lactate dehydrogenase Astrocyte</t>
+          <t>H2O transport via diffusion Astrocyte</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>lac-L[cA] + nad[cA] &lt;-- h[cA] + nadh[cA] + pyr[cA]</t>
+          <t>h2o[e] &lt;=&gt; h2o[cA]</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2280,10 +2685,10 @@
         </is>
       </c>
       <c r="E50">
-        <v>0.33698693032714</v>
+        <v>0.2551643238024978</v>
       </c>
       <c r="F50">
-        <v>0.1637634430692716</v>
+        <v>0.0918211779350052</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2292,24 +2697,34 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>3945,  3939, 160287,  3948, 3939, 3948, 55293, 3945, 92483</t>
+          <t>343, 4284, 362, 361, 358, 359</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>361, 366</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>358, 361, 4284, 359, 362, 343</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>LSOProd</t>
+          <t>HMGLm</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Lumped superoxide production Astrocyte</t>
+          <t>hydroxymethylglutaryl-CoA lyase Astrocyte</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>focytC[mA] + o2[mA] --&gt; ficytC[mA] + o2s[mA]</t>
+          <t>hmgcoa[mA] --&gt; acac[mA] + accoa[mA]</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2318,31 +2733,51 @@
         </is>
       </c>
       <c r="E51">
-        <v>0.02254895615401662</v>
+        <v>0.1204938365801788</v>
       </c>
       <c r="F51">
-        <v>0.05339790801962968</v>
+        <v>0.02298562016439399</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
           <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>3155, 54511</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>54511</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>3155, 54511</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>3155, 54511</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MMCDm</t>
+          <t>Htm</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Methylmalonyl-CoA decarboxylase, mitochondrial Astrocyte</t>
+          <t>Uncoupling protein Astrocyte</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>h[mA] + mmcoa-S[mA] --&gt; co2[mA] + ppcoa[mA]</t>
+          <t>h[cA] --&gt; h[mA]</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2351,41 +2786,41 @@
         </is>
       </c>
       <c r="E52">
-        <v>0.1204938365801787</v>
+        <v>0.03248377960335507</v>
       </c>
       <c r="F52">
-        <v>1.189916481383731</v>
+        <v>1.642526058470975</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>23417</t>
-        </is>
-      </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>23417</t>
+          <t>7352, 9016, 9481</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>9016, 7352, 7352, 7351, 9016, 7350, 9481</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>MMSAD1m</t>
+          <t>ICDHxm</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>methylmalonate-semialdehyde dehydrogenase Astrocyte</t>
+          <t>Isocitrate dehydrogenase (NAD+) Astrocyte</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2mop[mA] + coa[mA] + nad[mA] --&gt; co2[mA] + nadh[mA] + ppcoa[mA]</t>
+          <t>icit[mA] + nad[mA] --&gt; akg[mA] + co2[mA] + nadh[mA]</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2394,10 +2829,10 @@
         </is>
       </c>
       <c r="E53">
-        <v>0.3085852034991958</v>
+        <v>0.03248377960335564</v>
       </c>
       <c r="F53">
-        <v>0.1966776965833001</v>
+        <v>0.1813071359032163</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2406,29 +2841,34 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>4329</t>
+          <t>3419, 3420, 3421, 3421, 3420, 3420</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>4329</t>
+          <t>3421, 3420, 3419</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>3421, 3420, 3419, 3420, 3421, 3419, 3420, 3421, 3419, 3420, 3421, 3419, 3421, 3419, 3420, 3421, 3419, 3420</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MMSAD3m</t>
+          <t>L-LACtm</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>methylmalonate-semialdehyde dehydrogenase (malonic semialdehyde), mitochondrial Astrocyte</t>
+          <t>L-lactate transport, mitochondrial Astrocyte</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>coa[mA] + msa[mA] + nad[mA] --&gt; accoa[mA] + co2[mA] + nadh[mA]</t>
+          <t>h[cA] + lac-L[cA] --&gt; h[mA] + lac-L[mA]</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2437,36 +2877,41 @@
         </is>
       </c>
       <c r="E54">
-        <v>0.03098273041885493</v>
+        <v>0.2316318208042138</v>
       </c>
       <c r="F54">
-        <v>0.2074217795823175</v>
+        <v>1.643932903883289</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>4329</t>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>6566, 9194</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>6566</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>NTD5m</t>
+          <t>LCADi_Dm</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>5'-nucleotidase (dTMP), mitochondrial Astrocyte</t>
+          <t>lactaldehyde dehydrogenase, mitochondrial Astrocyte</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>dtmp[mA] + h2o[mA] --&gt; pi[mA] + thymd[mA]</t>
+          <t>h2o[mA] + lald-D[mA] + nad[mA] --&gt; 2.0 h[mA] + lac-D[mA] + nadh[mA]</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2475,41 +2920,41 @@
         </is>
       </c>
       <c r="E55">
-        <v>0.1204938365801788</v>
+        <v>0.09559313845952844</v>
       </c>
       <c r="F55">
-        <v>0.4258745771538749</v>
+        <v>1.432100157194409</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>56953</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>100526794, 115024, 22978, 30833, 4907, 51251, 55, 56953, 84618, 93034</t>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>8659, 8659, 219, 217, 5832, 4329, 7915, 7915</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>217, 219, 223, 224, 501</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>O2t</t>
+          <t>LDH_L</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>o2 transport (diffusion) Astrocyte</t>
+          <t>L-lactate dehydrogenase Astrocyte</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>o2[e] &lt;=&gt; o2[cA]</t>
+          <t>lac-L[cA] + nad[cA] &lt;-- h[cA] + nadh[cA] + pyr[cA]</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2518,31 +2963,36 @@
         </is>
       </c>
       <c r="E56">
-        <v>0.5948953862997171</v>
+        <v>0.33698693032714</v>
       </c>
       <c r="F56">
-        <v>0.05149375585052034</v>
+        <v>0.1637634430692716</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
           <t>Hyper</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>3945,  3939, 160287,  3948, 3939, 3948, 55293, 3945, 92483</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>P45011A1m</t>
+          <t>LSOProd</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Cytochrome P450 11A1, mitochondrial [Precursor] Astrocyte</t>
+          <t>Lumped superoxide production Astrocyte</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>chsterol[mA] + h[mA] + nadph[mA] + 2.0 o2[mA] --&gt; 4mptnl[mA] + 2.0 h2o[mA] + nadp[mA] + prgnlone[mA]</t>
+          <t>focytC[mA] + o2[mA] --&gt; ficytC[mA] + o2s[mA]</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2551,36 +3001,31 @@
         </is>
       </c>
       <c r="E57">
-        <v>0.254508384757564</v>
+        <v>0.02254895615401662</v>
       </c>
       <c r="F57">
-        <v>1.551066065965337</v>
+        <v>0.05339790801962968</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
           <t>Hyper</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>1583</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PCm</t>
+          <t>MMCDm</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pyruvate carboxylase Astrocyte</t>
+          <t>Methylmalonyl-CoA decarboxylase, mitochondrial Astrocyte</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>atp[mA] + hco3[mA] + pyr[mA] --&gt; adp[mA] + h[mA] + oaa[mA] + pi[mA]</t>
+          <t>h[mA] + mmcoa-S[mA] --&gt; co2[mA] + ppcoa[mA]</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2589,10 +3034,10 @@
         </is>
       </c>
       <c r="E58">
-        <v>0.2127960709118143</v>
+        <v>0.1204938365801787</v>
       </c>
       <c r="F58">
-        <v>1.288790998346188</v>
+        <v>1.189916481383731</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2601,29 +3046,39 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>5091, 5091</t>
+          <t>23417</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>5091</t>
+          <t>23417</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>23417</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>23417</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PRO1xm</t>
+          <t>MMSAD1m</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>proline oxidase (NAD), mitochondrial Astrocyte</t>
+          <t>methylmalonate-semialdehyde dehydrogenase Astrocyte</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>nad[mA] + pro-L[mA] --&gt; 1pyr5c[mA] + 2.0 h[mA] + nadh[mA]</t>
+          <t>2mop[mA] + coa[mA] + nad[mA] --&gt; co2[mA] + nadh[mA] + ppcoa[mA]</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2632,10 +3087,10 @@
         </is>
       </c>
       <c r="E59">
-        <v>0.08945010681678646</v>
+        <v>0.3085852034991958</v>
       </c>
       <c r="F59">
-        <v>1.155048968612488</v>
+        <v>0.1966776965833001</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2644,24 +3099,39 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>5625</t>
+          <t>4329</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>4329</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>4329</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>4329</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PROD2m</t>
+          <t>MMSAD3m</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Proline dehydrogenase (m) Astrocyte</t>
+          <t>methylmalonate-semialdehyde dehydrogenase (malonic semialdehyde), mitochondrial Astrocyte</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>fad[mA] + pro-L[mA] --&gt; 1pyr5c[mA] + fadh2[mA] + h[mA]</t>
+          <t>coa[mA] + msa[mA] + nad[mA] --&gt; accoa[mA] + co2[mA] + nadh[mA]</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2670,10 +3140,10 @@
         </is>
       </c>
       <c r="E60">
-        <v>0.09236690168139318</v>
+        <v>0.03098273041885493</v>
       </c>
       <c r="F60">
-        <v>1.211710139841329</v>
+        <v>0.2074217795823175</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2682,24 +3152,34 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>5625</t>
+          <t>4329</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>4329</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>4329</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>PSFLIP</t>
+          <t>NTD5m</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>phosphatidylserine flippase Astrocyte</t>
+          <t>5'-nucleotidase (dTMP), mitochondrial Astrocyte</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>atp[cA] + h2o[cA] + ps_hs[e] --&gt; adp[cA] + h[cA] + pi[cA] + ps_hs[cA]</t>
+          <t>dtmp[mA] + h2o[mA] --&gt; pi[mA] + thymd[mA]</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2708,10 +3188,10 @@
         </is>
       </c>
       <c r="E61">
-        <v>0.1016262463976683</v>
+        <v>0.1204938365801788</v>
       </c>
       <c r="F61">
-        <v>0.2573511201165187</v>
+        <v>0.4258745771538749</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2720,24 +3200,39 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>10396, 57194</t>
+          <t>56953</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>56953</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>56953</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>100526794, 115024, 22978, 30833, 4907, 51251, 55, 56953, 84618, 93034</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>PSFLIPm</t>
+          <t>NTD5m</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>phosphatidylserine flippase Astrocyte</t>
+          <t>5'-nucleotidase (dTMP), mitochondrial Astrocyte</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>atp[cA] + h2o[cA] + ps_hs[cA] --&gt; adp[cA] + h[cA] + pi[cA] + ps_hs[mA]</t>
+          <t>dtmp[mA] + h2o[mA] --&gt; pi[mA] + thymd[mA]</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2746,10 +3241,10 @@
         </is>
       </c>
       <c r="E62">
-        <v>0.1016262463976683</v>
+        <v>0.1204938365801788</v>
       </c>
       <c r="F62">
-        <v>0.2396847780198574</v>
+        <v>0.4258745771538749</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2758,24 +3253,39 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>10396, 57194</t>
+          <t>51205, 54, 55, 53, 30833, 56953, 4907, 84618, 22978, 51251, 93034</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>56953</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>56953</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>100526794, 115024, 22978, 30833, 4907, 51251, 55, 56953, 84618, 93034</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SERGLNexR</t>
+          <t>O2t</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>L-Serine/Glutamine reversible exchange Astrocyte</t>
+          <t>o2 transport (diffusion) Astrocyte</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>gln-L[cA] + ser-L[e] --&gt; gln-L[e] + ser-L[cA]</t>
+          <t>o2[e] &lt;=&gt; o2[cA]</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2784,36 +3294,31 @@
         </is>
       </c>
       <c r="E63">
-        <v>0.4918656722394495</v>
+        <v>0.5948953862997171</v>
       </c>
       <c r="F63">
-        <v>0.01928872264041243</v>
+        <v>0.05149375585052034</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
           <t>Hyper</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>56301, 6520</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SERt4</t>
+          <t>P45011A1m</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>L-serine via sodium symport Astrocyte</t>
+          <t>Cytochrome P450 11A1, mitochondrial [Precursor] Astrocyte</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>na1[e] + ser-L[e] --&gt; na1[cA] + ser-L[cA]</t>
+          <t>chsterol[mA] + h[mA] + nadph[mA] + 2.0 o2[mA] --&gt; 4mptnl[mA] + 2.0 h2o[mA] + nadp[mA] + prgnlone[mA]</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2822,36 +3327,46 @@
         </is>
       </c>
       <c r="E64">
-        <v>0.03564676468208341</v>
+        <v>0.254508384757564</v>
       </c>
       <c r="F64">
-        <v>0.01862026940920982</v>
+        <v>1.551066065965337</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>1583</t>
+        </is>
+      </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>81539.1, 11254.1, 54407.1, 55089.1, 340024.1, 57393.1, 340024.1, 59272.1</t>
+          <t>1583</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>1583</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SPODMm</t>
+          <t>PCm</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>superoxide dismutase Astrocyte</t>
+          <t>pyruvate carboxylase Astrocyte</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2.0 h[mA] + 2.0 o2s[mA] --&gt; h2o2[mA] + o2[mA]</t>
+          <t>atp[mA] + hco3[mA] + pyr[mA] --&gt; adp[mA] + h[mA] + oaa[mA] + pi[mA]</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2860,36 +3375,51 @@
         </is>
       </c>
       <c r="E65">
-        <v>0.02008412559315792</v>
+        <v>0.2127960709118143</v>
       </c>
       <c r="F65">
-        <v>1.174586314071016</v>
+        <v>1.288790998346188</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>5091, 5091</t>
+        </is>
+      </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>6648</t>
+          <t>5091</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>5091, 5091</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>5091</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SSALxm</t>
+          <t>PRO1xm</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>succinate-semialdehyde dehydrogenase (NAD) reversible (mitochondrial) Astrocyte</t>
+          <t>proline oxidase (NAD), mitochondrial Astrocyte</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>h2o[mA] + nad[mA] + sucsal[mA] --&gt; 2.0 h[mA] + nadh[mA] + succ[mA]</t>
+          <t>nad[mA] + pro-L[mA] --&gt; 1pyr5c[mA] + 2.0 h[mA] + nadh[mA]</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2898,10 +3428,10 @@
         </is>
       </c>
       <c r="E66">
-        <v>0.2407409575736789</v>
+        <v>0.08945010681678646</v>
       </c>
       <c r="F66">
-        <v>1.456100599123247</v>
+        <v>1.155048968612488</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2910,29 +3440,34 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>7915</t>
+          <t>58510</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>7915</t>
+          <t>5625</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>5625</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>GLGNS1</t>
+          <t>PROD2m</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>glycogen synthase Astrocyte</t>
+          <t>Proline dehydrogenase (m) Astrocyte</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ggn[cA] + 3.0 udpg[cA] --&gt; glygn1[cA] + 3.0 h[cA] + 3.0 udp[cA]</t>
+          <t>fad[mA] + pro-L[mA] --&gt; 1pyr5c[mA] + fadh2[mA] + h[mA]</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2941,10 +3476,10 @@
         </is>
       </c>
       <c r="E67">
-        <v>0.8826984114934228</v>
+        <v>0.09236690168139318</v>
       </c>
       <c r="F67">
-        <v>0.1850788531738283</v>
+        <v>1.211710139841329</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2953,24 +3488,34 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>8908, 2998, 2992, 2997</t>
+          <t>5625</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>5625</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>5625</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>LacLtm</t>
+          <t>PROD2m</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>L-lactate mito transporter thorugh AQP9 Astrocyte</t>
+          <t>Proline dehydrogenase (m) Astrocyte</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>lac-L[cA] --&gt; lac-L[mA]</t>
+          <t>fad[mA] + pro-L[mA] --&gt; 1pyr5c[mA] + fadh2[mA] + h[mA]</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2979,10 +3524,10 @@
         </is>
       </c>
       <c r="E68">
-        <v>0.2151506028648214</v>
+        <v>0.09236690168139318</v>
       </c>
       <c r="F68">
-        <v>0.01735233573871959</v>
+        <v>1.211710139841329</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2991,24 +3536,34 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>5625, 58510</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>5625</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>5625</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>GLNtN1</t>
+          <t>PSFLIP</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Glutamine transporter Astrocyte</t>
+          <t>phosphatidylserine flippase Astrocyte</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>gln-L[e] + h[cA] + na1[e] --&gt; gln-L[cA] + h[e] + na1[cA]</t>
+          <t>atp[cA] + h2o[cA] + ps_hs[e] --&gt; adp[cA] + h[cA] + pi[cA] + ps_hs[cA]</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3017,10 +3572,10 @@
         </is>
       </c>
       <c r="E69">
-        <v>0.4877863136962159</v>
+        <v>0.1016262463976683</v>
       </c>
       <c r="F69">
-        <v>0.1685888312714857</v>
+        <v>0.2573511201165187</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3029,24 +3584,34 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>92745, 10991</t>
+          <t>57194, 10396</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>57194, 10396</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>10396, 57194</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>PCREATtmdiffir</t>
+          <t>PSFLIPm</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Phosphocreatine transport to/from mitochondria via diffusion Astrocyte</t>
+          <t>phosphatidylserine flippase Astrocyte</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>pcreat[mA] --&gt; pcreat[cA]</t>
+          <t>atp[cA] + h2o[cA] + ps_hs[cA] --&gt; adp[cA] + h[cA] + pi[cA] + ps_hs[mA]</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3055,31 +3620,46 @@
         </is>
       </c>
       <c r="E70">
-        <v>0.02293267905734556</v>
+        <v>0.1016262463976683</v>
       </c>
       <c r="F70">
-        <v>0.02648744365678043</v>
+        <v>0.2396847780198574</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
           <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>57194, 10396</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>57194, 10396</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>10396, 57194</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ASNt4_Int</t>
+          <t>PSFLIPm</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>L-asparagine transport in via sodium symport Interstitial And Synapse</t>
+          <t>phosphatidylserine flippase Astrocyte</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>asn-L[I] + na1[I] --&gt; asn-L[cA] + na1[cA]</t>
+          <t>atp[cA] + h2o[cA] + ps_hs[cA] --&gt; adp[cA] + h[cA] + pi[cA] + ps_hs[mA]</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3088,10 +3668,10 @@
         </is>
       </c>
       <c r="E71">
-        <v>0.04328107473014822</v>
+        <v>0.1016262463976683</v>
       </c>
       <c r="F71">
-        <v>0.01987425049014282</v>
+        <v>0.2396847780198574</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3100,24 +3680,34 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>54407, 11254, 81539, 55089, 340024, 57393, 59272</t>
+          <t>57194, 10396</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>57194, 10396</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>10396, 57194</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BTNt2_Int</t>
+          <t>SERGLNexR</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Biotin reversible transport via proton symport Interstitial And Synapse</t>
+          <t>L-Serine/Glutamine reversible exchange Astrocyte</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>btn[I] + h[I] &lt;=&gt; btn[cA] + h[cA]</t>
+          <t>gln-L[cA] + ser-L[e] --&gt; gln-L[e] + ser-L[cA]</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3126,10 +3716,10 @@
         </is>
       </c>
       <c r="E72">
-        <v>0.1573375403723916</v>
+        <v>0.4918656722394495</v>
       </c>
       <c r="F72">
-        <v>0.1539780115495046</v>
+        <v>0.01928872264041243</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3138,24 +3728,34 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>6566</t>
+          <t>6520, 56301</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>6520, 56301</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>56301, 6520</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BTNt4i_Int</t>
+          <t>SERt4</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Biotin uptake (antiport) Interstitial And Synapse</t>
+          <t>L-serine via sodium symport Astrocyte</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>btn[I] + h[cA] --&gt; btn[cA] + h[I]</t>
+          <t>na1[e] + ser-L[e] --&gt; na1[cA] + ser-L[cA]</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3164,36 +3764,46 @@
         </is>
       </c>
       <c r="E73">
-        <v>0.1573375403723916</v>
+        <v>0.03564676468208341</v>
       </c>
       <c r="F73">
-        <v>0.1539780115507472</v>
+        <v>0.01862026940920982</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>11254, 57393, 59272, 54407, 340024, 81539, 55089</t>
+        </is>
+      </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>80704.1</t>
+          <t>11254, 81539, 54407</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>81539.1, 11254.1, 54407.1, 55089.1, 340024.1, 57393.1, 340024.1, 59272.1</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>CO2t_Int</t>
+          <t>SPODMm</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>CO2 transporter via diffusion Interstitial And Synapse</t>
+          <t>superoxide dismutase Astrocyte</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>co2[I] &lt;=&gt; co2[cA]</t>
+          <t>2.0 h[mA] + 2.0 o2s[mA] --&gt; h2o2[mA] + o2[mA]</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3202,31 +3812,46 @@
         </is>
       </c>
       <c r="E74">
-        <v>0.5948953862997168</v>
+        <v>0.02008412559315792</v>
       </c>
       <c r="F74">
-        <v>0.02398105911374099</v>
+        <v>1.174586314071016</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
           <t>Hyper</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>6648</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>6648</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>6648</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>CYSGLUexR_Int</t>
+          <t>SPODMm</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>L-cysteine/L-glutamine reversible exchanger Interstitial And Synapse</t>
+          <t>superoxide dismutase Astrocyte</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>cys-L[I] + gln-L[cA] --&gt; cys-L[cA] + gln-L[I]</t>
+          <t>2.0 h[mA] + 2.0 o2s[mA] --&gt; h2o2[mA] + o2[mA]</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3235,10 +3860,10 @@
         </is>
       </c>
       <c r="E75">
-        <v>0.1801817876079312</v>
+        <v>0.02008412559315792</v>
       </c>
       <c r="F75">
-        <v>0.01518939019993718</v>
+        <v>1.174586314071016</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3247,24 +3872,34 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>56301, 6520, 8140</t>
+          <t>6649, 6648, 6647</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>6648</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>6648</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>GLCt2r_Int</t>
+          <t>SSALxm</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>D-glucose transport in via proton symport Interstitial And Synapse</t>
+          <t>succinate-semialdehyde dehydrogenase (NAD) reversible (mitochondrial) Astrocyte</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>glc-D[I] + h[I] --&gt; glc-D[cA] + h[cA]</t>
+          <t>h2o[mA] + nad[mA] + sucsal[mA] --&gt; 2.0 h[mA] + nadh[mA] + succ[mA]</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3273,31 +3908,46 @@
         </is>
       </c>
       <c r="E76">
-        <v>0.7177229709166631</v>
+        <v>0.2407409575736789</v>
       </c>
       <c r="F76">
-        <v>0.2040661336102463</v>
+        <v>1.456100599123247</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
           <t>Hyper</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>7915</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>7915</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>7915</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>GLUt6_Int</t>
+          <t>GLGNS1</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Glutamate transport via Na, H symport and K antiport Interstitial And Synapse</t>
+          <t>glycogen synthase Astrocyte</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>glu-L[I] + h[I] + k[cA] + 3.0 na1[I] --&gt; glu-L[cA] + h[cA] + k[I] + 3.0 na1[cA]</t>
+          <t>ggn[cA] + 3.0 udpg[cA] --&gt; glygn1[cA] + 3.0 h[cA] + 3.0 udp[cA]</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3306,10 +3956,10 @@
         </is>
       </c>
       <c r="E77">
-        <v>0.2551643238024872</v>
+        <v>0.8826984114934228</v>
       </c>
       <c r="F77">
-        <v>0.2121258292993385</v>
+        <v>0.1850788531738283</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -3318,24 +3968,34 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>6511, 6505, 6507, 6506, 6512</t>
+          <t>2992, 2997, 8908, 2998</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>2992, 2997, 8908, 2998</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>8908, 2998, 2992, 2997</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Kt1r_Int</t>
+          <t>LacLtm</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>potassium transport via uniport (facilitated diffusion) Interstitial And Synapse</t>
+          <t>L-lactate mito transporter thorugh AQP9 Astrocyte</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>k[I] &lt;=&gt; k[cA]</t>
+          <t>lac-L[cA] --&gt; lac-L[mA]</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3344,31 +4004,41 @@
         </is>
       </c>
       <c r="E78">
-        <v>0.1121240009630125</v>
+        <v>0.2151506028648214</v>
       </c>
       <c r="F78">
-        <v>0.01213982266257638</v>
+        <v>0.01735233573871959</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
           <t>Hyper</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>366</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>L-LACt2r_Int</t>
+          <t>GLNtN1</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>L-lactate reversible transport via proton symport Interstitial And Synapse</t>
+          <t>Glutamine transporter Astrocyte</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>h[I] + lac-L[I] &lt;-- h[cA] + lac-L[cA]</t>
+          <t>gln-L[e] + h[cA] + na1[e] --&gt; gln-L[cA] + h[e] + na1[cA]</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3377,10 +4047,10 @@
         </is>
       </c>
       <c r="E79">
-        <v>0.33698693032714</v>
+        <v>0.4877863136962159</v>
       </c>
       <c r="F79">
-        <v>0.154350827178808</v>
+        <v>0.1685888312714857</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -3389,24 +4059,34 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>9194, 23539, 6566, 9123, 682</t>
+          <t>10991, 92745</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>92745, 10991</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>92745, 10991</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>NH4t3r_Int</t>
+          <t>PCREATtmdiffir</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ammonia transport via proton antiport Interstitial And Synapse</t>
+          <t>Phosphocreatine transport to/from mitochondria via diffusion Astrocyte</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>h[I] + nh4[cA] &lt;=&gt; h[cA] + nh4[I]</t>
+          <t>pcreat[mA] --&gt; pcreat[cA]</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3415,10 +4095,10 @@
         </is>
       </c>
       <c r="E80">
-        <v>0.2551643238024936</v>
+        <v>0.02293267905734556</v>
       </c>
       <c r="F80">
-        <v>0.1609705505710438</v>
+        <v>0.02648744365678043</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -3429,17 +4109,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>NaKt_Int</t>
+          <t>ASNt4_Int</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Na+/K+ exchanging ATPase Interstitial And Synapse</t>
+          <t>L-asparagine transport in via sodium symport Interstitial And Synapse</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>atp[cA] + h2o[cA] + 2.0 k[I] + 3.0 na1[cA] --&gt; adp[cA] + h[cA] + 2.0 k[cA] + 3.0 na1[I] + pi[cA]</t>
+          <t>asn-L[I] + na1[I] --&gt; asn-L[cA] + na1[cA]</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3448,36 +4128,36 @@
         </is>
       </c>
       <c r="E81">
-        <v>0.19532483578669</v>
+        <v>0.04328107473014822</v>
       </c>
       <c r="F81">
-        <v>0.2284735158014929</v>
+        <v>0.01987425049014282</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>481, 478, 477, 23439, 483, 476, 481, 480, 482, 478, 482, 476, 482, 477, 481, 476, 23439, 476, 480, 23439, 481, 477</t>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>54407, 11254, 81539, 55089, 340024, 57393, 59272</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>O2t_Int</t>
+          <t>BTNt2_Int</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>o2 transport (diffusion) Interstitial And Synapse</t>
+          <t>Biotin reversible transport via proton symport Interstitial And Synapse</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>o2[I] &lt;=&gt; o2[cA]</t>
+          <t>btn[I] + h[I] &lt;=&gt; btn[cA] + h[cA]</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3486,31 +4166,36 @@
         </is>
       </c>
       <c r="E82">
-        <v>0.5948953862997176</v>
+        <v>0.1573375403723916</v>
       </c>
       <c r="F82">
-        <v>0.01676494102426236</v>
+        <v>0.1539780115495046</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
           <t>Hyper</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>6566</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ORNtiDF_Int</t>
+          <t>BTNt4i_Int</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ornithine transport via diffusion (extracellular to cytosol) Interstitial And Synapse</t>
+          <t>Biotin uptake (antiport) Interstitial And Synapse</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>orn[I] --&gt; orn[cA]</t>
+          <t>btn[I] + h[cA] --&gt; btn[cA] + h[I]</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3519,36 +4204,36 @@
         </is>
       </c>
       <c r="E83">
-        <v>0.1307815701708421</v>
+        <v>0.1573375403723916</v>
       </c>
       <c r="F83">
-        <v>0.01934206601100877</v>
+        <v>0.1539780115507472</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>6542, 6541, 84889</t>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>80704.1</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>PEFLIP_Int</t>
+          <t>CO2t_Int</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>phosphatidylethanolamine flippase Interstitial And Synapse</t>
+          <t>CO2 transporter via diffusion Interstitial And Synapse</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>atp[cA] + h2o[cA] + pe_hs[I] --&gt; adp[cA] + h[cA] + pe_hs[cA] + pi[cA]</t>
+          <t>co2[I] &lt;=&gt; co2[cA]</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3557,36 +4242,31 @@
         </is>
       </c>
       <c r="E84">
-        <v>0.1995916731610817</v>
+        <v>0.5948953862997168</v>
       </c>
       <c r="F84">
-        <v>0.2394838054536436</v>
+        <v>0.02398105911374099</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
           <t>Hyper</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>10396, 57194, 5244</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>PSFLIP_Int</t>
+          <t>CYSGLUexR_Int</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>phosphatidylserine flippase Interstitial And Synapse</t>
+          <t>L-cysteine/L-glutamine reversible exchanger Interstitial And Synapse</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>atp[cA] + h2o[cA] + ps_hs[I] --&gt; adp[cA] + h[cA] + pi[cA] + ps_hs[cA]</t>
+          <t>cys-L[I] + gln-L[cA] --&gt; cys-L[cA] + gln-L[I]</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3595,36 +4275,36 @@
         </is>
       </c>
       <c r="E85">
-        <v>0.1016262463976683</v>
+        <v>0.1801817876079312</v>
       </c>
       <c r="F85">
-        <v>0.2394838054338641</v>
+        <v>0.01518939019993718</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>10396, 57194</t>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>56301, 6520, 8140</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>PYRt2r_Int</t>
+          <t>GLCt2r_Int</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>pyruvate reversible transport via proton symport Interstitial And Synapse</t>
+          <t>D-glucose transport in via proton symport Interstitial And Synapse</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>h[I] + pyr[I] --&gt; h[cA] + pyr[cA]</t>
+          <t>glc-D[I] + h[I] --&gt; glc-D[cA] + h[cA]</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3633,36 +4313,31 @@
         </is>
       </c>
       <c r="E86">
-        <v>0.08680866587348109</v>
+        <v>0.7177229709166631</v>
       </c>
       <c r="F86">
-        <v>0.1551791273444653</v>
+        <v>0.2040661336102463</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
           <t>Hyper</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>9123, 9194, 6566</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SERGLNexR_Int</t>
+          <t>GLUt6_Int</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>L-Serine/Glutamine reversible exchange Interstitial And Synapse</t>
+          <t>Glutamate transport via Na, H symport and K antiport Interstitial And Synapse</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>gln-L[cA] + ser-L[I] --&gt; gln-L[I] + ser-L[cA]</t>
+          <t>glu-L[I] + h[I] + k[cA] + 3.0 na1[I] --&gt; glu-L[cA] + h[cA] + k[I] + 3.0 na1[cA]</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3671,36 +4346,36 @@
         </is>
       </c>
       <c r="E87">
-        <v>0.1801817876079313</v>
+        <v>0.2551643238024872</v>
       </c>
       <c r="F87">
-        <v>0.01258244076911771</v>
+        <v>0.2121258292993385</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>56301, 6520</t>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>6511, 6505, 6507, 6506, 6512</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SERt4_Int</t>
+          <t>Kt1r_Int</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>L-serine via sodium symport Interstitial And Synapse</t>
+          <t>potassium transport via uniport (facilitated diffusion) Interstitial And Synapse</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>na1[I] + ser-L[I] --&gt; na1[cA] + ser-L[cA]</t>
+          <t>k[I] &lt;=&gt; k[cA]</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3709,36 +4384,31 @@
         </is>
       </c>
       <c r="E88">
-        <v>0.03564676468208343</v>
+        <v>0.1121240009630125</v>
       </c>
       <c r="F88">
-        <v>0.01618124589050244</v>
+        <v>0.01213982266257638</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
           <t>Hyper</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>81539, 11254, 54407, 55089, 340024, 57393, 340024, 59272</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>GLNtN1_Int</t>
+          <t>L-LACt2r_Int</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Glutamine transporter Interstitial And Synapse</t>
+          <t>L-lactate reversible transport via proton symport Interstitial And Synapse</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>gln-L[I] + h[cA] + na1[I] &lt;=&gt; gln-L[cA] + h[I] + na1[cA]</t>
+          <t>h[I] + lac-L[I] &lt;-- h[cA] + lac-L[cA]</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3747,48 +4417,48 @@
         </is>
       </c>
       <c r="E89">
-        <v>0.2551643238024873</v>
+        <v>0.33698693032714</v>
       </c>
       <c r="F89">
-        <v>0.1871443215804511</v>
+        <v>0.154350827178808</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>92745, 10991</t>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>9194, 23539, 6566, 9123, 682</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>3DPHBH2_Neuron</t>
+          <t>NH4t3r_Int</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Hydroxylation of 3-Decaprenyl-4-hydroxybenzoate (NADPH) Neuron</t>
+          <t>ammonia transport via proton antiport Interstitial And Synapse</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>3dphb[mN] + h[mN] + nadph[mN] + o2[mN] --&gt; 3dpdhb[mN] + h2o[mN] + nadp[mN]</t>
+          <t>h[I] + nh4[cA] &lt;=&gt; h[cA] + nh4[I]</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Neuron</t>
+          <t>Astrocyte</t>
         </is>
       </c>
       <c r="E90">
-        <v>0.04231154086752686</v>
+        <v>0.2551643238024936</v>
       </c>
       <c r="F90">
-        <v>0.9894602786806701</v>
+        <v>0.1609705505710438</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -3799,374 +4469,354 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>AACOAT_Neuron</t>
+          <t>NaKt_Int</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Acetoacetyl-CoA:acetate CoA-transferase Neuron</t>
+          <t>Na+/K+ exchanging ATPase Interstitial And Synapse</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>acac[cN] + atp[cN] + coa[cN] --&gt; aacoa[cN] + amp[cN] + ppi[cN]</t>
+          <t>atp[cA] + h2o[cA] + 2.0 k[I] + 3.0 na1[cA] --&gt; adp[cA] + h[cA] + 2.0 k[cA] + 3.0 na1[I] + pi[cA]</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Neuron</t>
+          <t>Astrocyte</t>
         </is>
       </c>
       <c r="E91">
-        <v>0.6265040045668269</v>
+        <v>0.19532483578669</v>
       </c>
       <c r="F91">
-        <v>0.08628332551625202</v>
+        <v>0.2284735158014929</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>65985.1</t>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>481, 478, 477, 23439, 483, 476, 481, 480, 482, 478, 482, 476, 482, 477, 481, 476, 23439, 476, 480, 23439, 481, 477</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ACACt2_Neuron</t>
+          <t>O2t_Int</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>acetoacetate transport via proton symport Neuron</t>
+          <t>o2 transport (diffusion) Interstitial And Synapse</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>acac[I] + h[I] --&gt; acac[cN] + h[cN]</t>
+          <t>o2[I] &lt;=&gt; o2[cA]</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Neuron</t>
+          <t>Astrocyte</t>
         </is>
       </c>
       <c r="E92">
-        <v>0.2016499406551919</v>
+        <v>0.5948953862997176</v>
       </c>
       <c r="F92">
-        <v>0.2533609148468003</v>
+        <v>0.01676494102426236</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
           <t>Hyper</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>9194, 6566</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ACOAD1fm_Neuron</t>
+          <t>ORNtiDF_Int</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>acyl-CoA dehydrogenase (butanoyl-CoA), mitochondrial Neuron</t>
+          <t>ornithine transport via diffusion (extracellular to cytosol) Interstitial And Synapse</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>btcoa[mN] + fad[mN] --&gt; b2coa[mN] + fadh2[mN]</t>
+          <t>orn[I] --&gt; orn[cA]</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Neuron</t>
+          <t>Astrocyte</t>
         </is>
       </c>
       <c r="E93">
-        <v>0.04231154086752679</v>
+        <v>0.1307815701708421</v>
       </c>
       <c r="F93">
-        <v>0.03604237851649731</v>
+        <v>0.01934206601100877</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>80724.1, 36.1, 35.1, 34.1, 84129.1, 27034.1, 28976.1</t>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>6542, 6541, 84889</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ACOAD8m_Neuron</t>
+          <t>PEFLIP_Int</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>acyl-CoA dehydrogenase (isovaleryl-CoA), mitochondrial Neuron</t>
+          <t>phosphatidylethanolamine flippase Interstitial And Synapse</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>fad[mN] + ivcoa[mN] --&gt; 3mb2coa[mN] + fadh2[mN]</t>
+          <t>atp[cA] + h2o[cA] + pe_hs[I] --&gt; adp[cA] + h[cA] + pe_hs[cA] + pi[cA]</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Neuron</t>
+          <t>Astrocyte</t>
         </is>
       </c>
       <c r="E94">
-        <v>0.3000741007317247</v>
+        <v>0.1995916731610817</v>
       </c>
       <c r="F94">
-        <v>0.03447843579429074</v>
+        <v>0.2394838054536436</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>3712</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>3712</t>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>10396, 57194, 5244</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ACONTm_Neuron</t>
+          <t>PSFLIP_Int</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Aconitate hydratase Neuron</t>
+          <t>phosphatidylserine flippase Interstitial And Synapse</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>cit[mN] &lt;=&gt; icit[mN]</t>
+          <t>atp[cA] + h2o[cA] + ps_hs[I] --&gt; adp[cA] + h[cA] + pi[cA] + ps_hs[cA]</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Neuron</t>
+          <t>Astrocyte</t>
         </is>
       </c>
       <c r="E95">
-        <v>0.4083399935410396</v>
+        <v>0.1016262463976683</v>
       </c>
       <c r="F95">
-        <v>0.02274252576991687</v>
+        <v>0.2394838054338641</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>50, 48</t>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>10396, 57194</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ACSm_Neuron</t>
+          <t>PYRt2r_Int</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>acetyl-CoA synthetase Neuron</t>
+          <t>pyruvate reversible transport via proton symport Interstitial And Synapse</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>ac[mN] + atp[mN] + coa[mN] --&gt; accoa[mN] + amp[mN] + ppi[mN]</t>
+          <t>h[I] + pyr[I] --&gt; h[cA] + pyr[cA]</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Neuron</t>
+          <t>Astrocyte</t>
         </is>
       </c>
       <c r="E96">
-        <v>0.3716638157312586</v>
+        <v>0.08680866587348109</v>
       </c>
       <c r="F96">
-        <v>0.1361675731392452</v>
+        <v>0.1551791273444653</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>84532.1</t>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>9123, 9194, 6566</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ADK1_Neuron</t>
+          <t>SERGLNexR_Int</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>adenylate kinase Neuron</t>
+          <t>L-Serine/Glutamine reversible exchange Interstitial And Synapse</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>amp[cN] + atp[cN] --&gt; 2.0 adp[cN]</t>
+          <t>gln-L[cA] + ser-L[I] --&gt; gln-L[I] + ser-L[cA]</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Neuron</t>
+          <t>Astrocyte</t>
         </is>
       </c>
       <c r="E97">
-        <v>0.1506962774412709</v>
+        <v>0.1801817876079313</v>
       </c>
       <c r="F97">
-        <v>0.03129678805852438</v>
+        <v>0.01258244076911771</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>122481, 203, 26289, 26289, 204</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>102157402, 122481, 158067, 203, 204, 205, 221264, 26289</t>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>56301, 6520</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ADPRDPm_Neuron</t>
+          <t>SERt4_Int</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ADPribose diphosphatase (mitochondrial) Neuron</t>
+          <t>L-serine via sodium symport Interstitial And Synapse</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>adprib[mN] + h2o[mN] --&gt; amp[mN] + 2.0 h[mN] + r5p[mN]</t>
+          <t>na1[I] + ser-L[I] --&gt; na1[cA] + ser-L[cA]</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Neuron</t>
+          <t>Astrocyte</t>
         </is>
       </c>
       <c r="E98">
-        <v>0.2468311908770466</v>
+        <v>0.03564676468208343</v>
       </c>
       <c r="F98">
-        <v>0.9850989854928444</v>
+        <v>0.01618124589050244</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>53343, 53343, 53343</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>11164, 53343, 56985, 7226</t>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>81539, 11254, 54407, 55089, 340024, 57393, 340024, 59272</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>AKGMALtm_Neuron</t>
+          <t>GLNtN1_Int</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>alpha-ketoglutarate/malate transporter Neuron</t>
+          <t>Glutamine transporter Interstitial And Synapse</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>akg[mN] + mal-L[cN] &lt;=&gt; akg[cN] + mal-L[mN]</t>
+          <t>gln-L[I] + h[cA] + na1[I] &lt;=&gt; gln-L[cA] + h[I] + na1[cA]</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Neuron</t>
+          <t>Astrocyte</t>
         </is>
       </c>
       <c r="E99">
-        <v>0.4083399935410399</v>
+        <v>0.2551643238024873</v>
       </c>
       <c r="F99">
-        <v>0.02751723644067625</v>
+        <v>0.1871443215804511</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>8402, 1468</t>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>92745, 10991</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ALCD2if_Neuron</t>
+          <t>3DPHBH2_Neuron</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>alcohol dehydrogenase, forward rxn (ethanol -&gt; acetaldehyde) Neuron</t>
+          <t>Hydroxylation of 3-Decaprenyl-4-hydroxybenzoate (NADPH) Neuron</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>etoh[cN] + nad[cN] --&gt; acald[cN] + h[cN] + nadh[cN]</t>
+          <t>3dphb[mN] + h[mN] + nadph[mN] + o2[mN] --&gt; 3dpdhb[mN] + h2o[mN] + nadp[mN]</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4175,41 +4825,31 @@
         </is>
       </c>
       <c r="E100">
-        <v>0.2014323321775647</v>
+        <v>0.04231154086752686</v>
       </c>
       <c r="F100">
-        <v>0.1297894155051556</v>
+        <v>0.9894602786806701</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
           <t>Hyper</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>130, 127, 125, 124, 131, 126, 128, 137872, 284273, 284273</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>124, 125, 126, 127, 128, 130, 131</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ALCD2yf_Neuron</t>
+          <t>AACOAT_Neuron</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>alcohol dehydrogenase (ethanol, NADP), forward reaction Neuron</t>
+          <t>Acetoacetyl-CoA:acetate CoA-transferase Neuron</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>etoh[cN] + nadp[cN] --&gt; acald[cN] + h[cN] + nadph[cN]</t>
+          <t>acac[cN] + atp[cN] + coa[cN] --&gt; aacoa[cN] + amp[cN] + ppi[cN]</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4218,41 +4858,36 @@
         </is>
       </c>
       <c r="E101">
-        <v>0.1759088483639199</v>
+        <v>0.6265040045668269</v>
       </c>
       <c r="F101">
-        <v>0.1296797055822377</v>
+        <v>0.08628332551625202</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>10327, 10327</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>10327</t>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>65985.1</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ALDD2x_Neuron</t>
+          <t>ACACt2_Neuron</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>aldehyde dehydrogenase (acetaldehyde, NAD) Neuron</t>
+          <t>acetoacetate transport via proton symport Neuron</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>acald[cN] + h2o[cN] + nad[cN] --&gt; ac[cN] + 2.0 h[cN] + nadh[cN]</t>
+          <t>acac[I] + h[I] --&gt; acac[cN] + h[cN]</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4261,41 +4896,36 @@
         </is>
       </c>
       <c r="E102">
-        <v>0.0423115408675274</v>
+        <v>0.2016499406551919</v>
       </c>
       <c r="F102">
-        <v>0.1625009218133469</v>
+        <v>0.2533609148468003</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>218, 222, 220, 221, 219, 223, 216, 8854, 501, 8854, 224, 8854</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>218, 221, 222</t>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>9194, 6566</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ALR_Neuron</t>
+          <t>ACOAD1fm_Neuron</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Aldose reductase Neuron</t>
+          <t>acyl-CoA dehydrogenase (butanoyl-CoA), mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>h2o[cN] + mthgxl[cN] + nadp[cN] --&gt; 2.0 h[cN] + nadph[cN] + pyr[cN]</t>
+          <t>btcoa[mN] + fad[mN] --&gt; b2coa[mN] + fadh2[mN]</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4304,36 +4934,36 @@
         </is>
       </c>
       <c r="E103">
-        <v>0.1999574601762108</v>
+        <v>0.04231154086752679</v>
       </c>
       <c r="F103">
-        <v>0.1629922962322324</v>
+        <v>0.03604237851649731</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>120227</t>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>80724.1, 36.1, 35.1, 34.1, 84129.1, 27034.1, 28976.1</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>APOCFm_Neuron</t>
+          <t>ACOAD8m_Neuron</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Apocarboxylase formation, mitochondrial Neuron</t>
+          <t>acyl-CoA dehydrogenase (isovaleryl-CoA), mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>apoC[mN] + lys-L[mN] --&gt; apoC-Lys[mN] + h2o[mN] + h[mN]</t>
+          <t>fad[mN] + ivcoa[mN] --&gt; 3mb2coa[mN] + fadh2[mN]</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4342,31 +4972,41 @@
         </is>
       </c>
       <c r="E104">
-        <v>0.2468311908770461</v>
+        <v>0.3000741007317247</v>
       </c>
       <c r="F104">
-        <v>0.9846893788208902</v>
+        <v>0.03447843579429074</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
           <t>Hyper</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>3712</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>3712</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ASNt4_Neuron</t>
+          <t>ACONTm_Neuron</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>L-asparagine transport in via sodium symport Neuron</t>
+          <t>Aconitate hydratase Neuron</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>asn-L[I] + na1[I] --&gt; asn-L[cN] + na1[cN]</t>
+          <t>cit[mN] &lt;=&gt; icit[mN]</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4375,36 +5015,36 @@
         </is>
       </c>
       <c r="E105">
-        <v>0.16135807451028</v>
+        <v>0.4083399935410396</v>
       </c>
       <c r="F105">
-        <v>0.02564507093492142</v>
+        <v>0.02274252576991687</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>54407, 11254, 81539, 55089, 340024, 57393, 59272</t>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>50, 48</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ASPGLUm_Neuron</t>
+          <t>ACSm_Neuron</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>aspartate-glutamate mitochondrial shuttle Neuron</t>
+          <t>acetyl-CoA synthetase Neuron</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>asp-L[mN] + glu-L[cN] + h[cN] --&gt; asp-L[cN] + glu-L[mN] + h[mN]</t>
+          <t>ac[mN] + atp[mN] + coa[mN] --&gt; accoa[mN] + amp[mN] + ppi[mN]</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4413,36 +5053,36 @@
         </is>
       </c>
       <c r="E106">
-        <v>0.4083399935410372</v>
+        <v>0.3716638157312586</v>
       </c>
       <c r="F106">
-        <v>1.195827285799175</v>
+        <v>0.1361675731392452</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>10165, 8604</t>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>84532.1</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ASPTA_Neuron</t>
+          <t>ADK1_Neuron</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>aspartate transaminase Neuron</t>
+          <t>adenylate kinase Neuron</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>akg[cN] + asp-L[cN] &lt;=&gt; glu-L[cN] + oaa[cN]</t>
+          <t>amp[cN] + atp[cN] --&gt; 2.0 adp[cN]</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4451,36 +5091,41 @@
         </is>
       </c>
       <c r="E107">
-        <v>0.408339993541037</v>
+        <v>0.1506962774412709</v>
       </c>
       <c r="F107">
-        <v>0.0175006435618293</v>
+        <v>0.03129678805852438</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2805</t>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>122481, 203, 26289, 26289, 204</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>102157402, 122481, 158067, 203, 204, 205, 221264, 26289</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ASPTAm_Neuron</t>
+          <t>ADPRDPm_Neuron</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>aspartate transaminase Neuron</t>
+          <t>ADPribose diphosphatase (mitochondrial) Neuron</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>akg[mN] + asp-L[mN] &lt;=&gt; glu-L[mN] + oaa[mN]</t>
+          <t>adprib[mN] + h2o[mN] --&gt; amp[mN] + 2.0 h[mN] + r5p[mN]</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4489,36 +5134,41 @@
         </is>
       </c>
       <c r="E108">
-        <v>0.408339993541037</v>
+        <v>0.2468311908770466</v>
       </c>
       <c r="F108">
-        <v>0.05253819219518121</v>
+        <v>0.9850989854928444</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2806</t>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>53343, 53343, 53343</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>11164, 53343, 56985, 7226</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ATPtm_Neuron</t>
+          <t>AKGMALtm_Neuron</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ADP/ATP transporter, mitochondrial Neuron</t>
+          <t>alpha-ketoglutarate/malate transporter Neuron</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>adp[cN] + atp[mN] --&gt; adp[mN] + atp[cN]</t>
+          <t>akg[mN] + mal-L[cN] &lt;=&gt; akg[cN] + mal-L[mN]</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4527,36 +5177,36 @@
         </is>
       </c>
       <c r="E109">
-        <v>0.8581238802303921</v>
+        <v>0.4083399935410399</v>
       </c>
       <c r="F109">
-        <v>0.102559750031811</v>
+        <v>0.02751723644067625</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>291, 293, 292</t>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>8402, 1468</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BHBt_Neuron</t>
+          <t>ALCD2if_Neuron</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>(R)-3-Hydroxybutanoate transport via H+ symport Neuron</t>
+          <t>alcohol dehydrogenase, forward rxn (ethanol -&gt; acetaldehyde) Neuron</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>bhb[I] + h[I] --&gt; bhb[cN] + h[cN]</t>
+          <t>etoh[cN] + nad[cN] --&gt; acald[cN] + h[cN] + nadh[cN]</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4565,31 +5215,41 @@
         </is>
       </c>
       <c r="E110">
-        <v>0.1362286582990552</v>
+        <v>0.2014323321775647</v>
       </c>
       <c r="F110">
-        <v>0.2474917241365879</v>
+        <v>0.1297894155051556</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
           <t>Hyper</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>130, 127, 125, 124, 131, 126, 128, 137872, 284273, 284273</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>124, 125, 126, 127, 128, 130, 131</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>C160CPT2_Neuron</t>
+          <t>ALCD2yf_Neuron</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>C160 transport into the mitochondria Neuron</t>
+          <t>alcohol dehydrogenase (ethanol, NADP), forward reaction Neuron</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>coa[mN] + pmtcrn[mN] --&gt; crn[mN] + pmtcoa[mN]</t>
+          <t>etoh[cN] + nadp[cN] --&gt; acald[cN] + h[cN] + nadph[cN]</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4598,36 +5258,41 @@
         </is>
       </c>
       <c r="E111">
-        <v>0.5035992905001541</v>
+        <v>0.1759088483639199</v>
       </c>
       <c r="F111">
-        <v>0.0680609906231158</v>
+        <v>0.1296797055822377</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>1376.1, 1374.1</t>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>10327, 10327</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>10327</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>C204CPT2_Neuron</t>
+          <t>ALDD2x_Neuron</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>arachidonic acid transport into the mitochondria Neuron</t>
+          <t>aldehyde dehydrogenase (acetaldehyde, NAD) Neuron</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>arachdcrn[mN] + coa[mN] --&gt; arachdcoa[mN] + crn[mN]</t>
+          <t>acald[cN] + h2o[cN] + nad[cN] --&gt; ac[cN] + 2.0 h[cN] + nadh[cN]</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4636,36 +5301,41 @@
         </is>
       </c>
       <c r="E112">
-        <v>0.5035992905001541</v>
+        <v>0.0423115408675274</v>
       </c>
       <c r="F112">
-        <v>0.03474144153057189</v>
+        <v>0.1625009218133469</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>1376.1</t>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>218, 222, 220, 221, 219, 223, 216, 8854, 501, 8854, 224, 8854</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>218, 221, 222</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>C226CPT2_Neuron</t>
+          <t>ALR_Neuron</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>C226 transport into the mitochondria Neuron</t>
+          <t>Aldose reductase Neuron</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>c226crn[mN] + coa[mN] --&gt; c226coa[mN] + crn[mN]</t>
+          <t>h2o[cN] + mthgxl[cN] + nadp[cN] --&gt; 2.0 h[cN] + nadph[cN] + pyr[cN]</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4674,36 +5344,36 @@
         </is>
       </c>
       <c r="E113">
-        <v>0.5035992905001541</v>
+        <v>0.1999574601762108</v>
       </c>
       <c r="F113">
-        <v>0.03474144153058004</v>
+        <v>0.1629922962322324</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>1376.1</t>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>120227</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>CO2t_Neuron</t>
+          <t>APOCFm_Neuron</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>CO2 transporter via diffusion Neuron</t>
+          <t>Apocarboxylase formation, mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>co2[I] &lt;=&gt; co2[cN]</t>
+          <t>apoC[mN] + lys-L[mN] --&gt; apoC-Lys[mN] + h2o[mN] + h[mN]</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4712,10 +5382,10 @@
         </is>
       </c>
       <c r="E114">
-        <v>0.5948953862997168</v>
+        <v>0.2468311908770461</v>
       </c>
       <c r="F114">
-        <v>0.02451667932674401</v>
+        <v>0.9846893788208902</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -4726,17 +5396,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>CO2tm_Neuron</t>
+          <t>ASNt4_Neuron</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>CO2 transport (diffusion), mitochondrial Neuron</t>
+          <t>L-asparagine transport in via sodium symport Neuron</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>co2[cN] &lt;=&gt; co2[mN]</t>
+          <t>asn-L[I] + na1[I] --&gt; asn-L[cN] + na1[cN]</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4745,31 +5415,36 @@
         </is>
       </c>
       <c r="E115">
-        <v>0.5948953862997168</v>
+        <v>0.16135807451028</v>
       </c>
       <c r="F115">
-        <v>0.06812637180639752</v>
+        <v>0.02564507093492142</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
           <t>Hyper</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>54407, 11254, 81539, 55089, 340024, 57393, 59272</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>COQ3m_Neuron</t>
+          <t>ASPGLUm_Neuron</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>methyltransferase COQ3 Neuron</t>
+          <t>aspartate-glutamate mitochondrial shuttle Neuron</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2dpmhobq[mN] + amet[mN] --&gt; ahcys[mN] + h[mN] + q10[mN]</t>
+          <t>asp-L[mN] + glu-L[cN] + h[cN] --&gt; asp-L[cN] + glu-L[mN] + h[mN]</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4778,36 +5453,36 @@
         </is>
       </c>
       <c r="E116">
-        <v>0.3649308603518459</v>
+        <v>0.4083399935410372</v>
       </c>
       <c r="F116">
-        <v>0.8413908126579929</v>
+        <v>1.195827285799175</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>51805</t>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>10165, 8604</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>CSm_Neuron</t>
+          <t>ASPTA_Neuron</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>citrate synthase Neuron</t>
+          <t>aspartate transaminase Neuron</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>accoa[mN] + h2o[mN] + oaa[mN] --&gt; cit[mN] + coa[mN] + h[mN]</t>
+          <t>akg[cN] + asp-L[cN] &lt;=&gt; glu-L[cN] + oaa[cN]</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -4816,36 +5491,36 @@
         </is>
       </c>
       <c r="E117">
-        <v>0.4083399935410397</v>
+        <v>0.408339993541037</v>
       </c>
       <c r="F117">
-        <v>1.087644010014422</v>
+        <v>0.0175006435618293</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>1431, 1431</t>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>2805</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>DURIK1m_Neuron</t>
+          <t>ASPTAm_Neuron</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>deoxyuridine kinase (ATP:Deoxyuridine), mitochondrial Neuron</t>
+          <t>aspartate transaminase Neuron</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>atp[mN] + duri[mN] --&gt; adp[mN] + dump[mN] + h[mN]</t>
+          <t>akg[mN] + asp-L[mN] &lt;=&gt; glu-L[mN] + oaa[mN]</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -4854,41 +5529,36 @@
         </is>
       </c>
       <c r="E118">
-        <v>0.1506962774412711</v>
+        <v>0.408339993541037</v>
       </c>
       <c r="F118">
-        <v>0.9046338375844781</v>
+        <v>0.05253819219518121</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>7084</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>7083, 7084</t>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>2806</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>DUTPDPm_Neuron</t>
+          <t>ATPtm_Neuron</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>dUTP diphosphatase Neuron</t>
+          <t>ADP/ATP transporter, mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>dutp[mN] + h2o[mN] --&gt; dump[mN] + h[mN] + ppi[mN]</t>
+          <t>adp[cN] + atp[mN] --&gt; adp[mN] + atp[cN]</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -4897,36 +5567,36 @@
         </is>
       </c>
       <c r="E119">
-        <v>0.1506962774412712</v>
+        <v>0.8581238802303921</v>
       </c>
       <c r="F119">
-        <v>1.00090553375108</v>
+        <v>0.102559750031811</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>1854, 3704</t>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>291, 293, 292</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ETF_Neuron</t>
+          <t>BHBt_Neuron</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>electron transfer flavoprotein Neuron</t>
+          <t>(R)-3-Hydroxybutanoate transport via H+ symport Neuron</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>etfox[mN] + fadh2[mN] --&gt; etfrd[mN] + fad[mN]</t>
+          <t>bhb[I] + h[I] --&gt; bhb[cN] + h[cN]</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4935,36 +5605,31 @@
         </is>
       </c>
       <c r="E120">
-        <v>0.4083399935410396</v>
+        <v>0.1362286582990552</v>
       </c>
       <c r="F120">
-        <v>0.03542454749858223</v>
+        <v>0.2474917241365879</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
           <t>Hyper</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2109, 2108, 2109, 2108</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ETFQO_Neuron</t>
+          <t>C160CPT2_Neuron</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Electron transfer flavoprotein-ubiquinone oxidoreductase Neuron</t>
+          <t>C160 transport into the mitochondria Neuron</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>etfrd[mN] + q10[mN] --&gt; etfox[mN] + q10h2[mN]</t>
+          <t>coa[mN] + pmtcrn[mN] --&gt; crn[mN] + pmtcoa[mN]</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -4973,36 +5638,36 @@
         </is>
       </c>
       <c r="E121">
-        <v>0.4083399935410396</v>
+        <v>0.5035992905001541</v>
       </c>
       <c r="F121">
-        <v>0.04913382692225356</v>
+        <v>0.0680609906231158</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2110</t>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>1376.1, 1374.1</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ETOHMO_Neuron</t>
+          <t>C204CPT2_Neuron</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ethanol monooxygenase Neuron</t>
+          <t>arachidonic acid transport into the mitochondria Neuron</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>etoh[cN] + h[cN] + nadph[cN] + o2[cN] --&gt; acald[cN] + 2.0 h2o[cN] + nadp[cN]</t>
+          <t>arachdcrn[mN] + coa[mN] --&gt; arachdcoa[mN] + crn[mN]</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5011,36 +5676,36 @@
         </is>
       </c>
       <c r="E122">
-        <v>0.4321230137492205</v>
+        <v>0.5035992905001541</v>
       </c>
       <c r="F122">
-        <v>0.1676490117004737</v>
+        <v>0.03474144153057189</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>1571</t>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>1376.1</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>FUMm_Neuron</t>
+          <t>C226CPT2_Neuron</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>fumarase, mitochondrial Neuron</t>
+          <t>C226 transport into the mitochondria Neuron</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>fum[mN] + h2o[mN] &lt;=&gt; mal-L[mN]</t>
+          <t>c226crn[mN] + coa[mN] --&gt; c226coa[mN] + crn[mN]</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5049,36 +5714,36 @@
         </is>
       </c>
       <c r="E123">
-        <v>0.4083399935410396</v>
+        <v>0.5035992905001541</v>
       </c>
       <c r="F123">
-        <v>0.2562932067632965</v>
+        <v>0.03474144153058004</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2271</t>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>1376.1</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>GLNtm_Neuron</t>
+          <t>CO2t_Neuron</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>L-glutamine transport via electroneutral transporter Neuron</t>
+          <t>CO2 transporter via diffusion Neuron</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>gln-L[cN] --&gt; gln-L[mN]</t>
+          <t>co2[I] &lt;=&gt; co2[cN]</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -5087,10 +5752,10 @@
         </is>
       </c>
       <c r="E124">
-        <v>0.2551643238024872</v>
+        <v>0.5948953862997168</v>
       </c>
       <c r="F124">
-        <v>0.01665627034685863</v>
+        <v>0.02451667932674401</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -5101,17 +5766,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>GLUDym_Neuron</t>
+          <t>CO2tm_Neuron</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>glutamate dehydrogenase (NADP), mitochondrial Neuron</t>
+          <t>CO2 transport (diffusion), mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>glu-L[mN] + h2o[mN] + nadp[mN] --&gt; akg[mN] + h[mN] + nadph[mN] + nh4[mN]</t>
+          <t>co2[cN] &lt;=&gt; co2[mN]</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5120,36 +5785,31 @@
         </is>
       </c>
       <c r="E125">
-        <v>0.04231154086752641</v>
+        <v>0.5948953862997168</v>
       </c>
       <c r="F125">
-        <v>1.01818144384251</v>
+        <v>0.06812637180639752</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
           <t>Hyper</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2747, 2746</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>GLUNm_Neuron</t>
+          <t>COQ3m_Neuron</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>glutaminase (mitochondrial) Neuron</t>
+          <t>methyltransferase COQ3 Neuron</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>gln-L[mN] + h2o[mN] --&gt; glu-L[mN] + nh4[mN]</t>
+          <t>2dpmhobq[mN] + amet[mN] --&gt; ahcys[mN] + h[mN] + q10[mN]</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5158,36 +5818,36 @@
         </is>
       </c>
       <c r="E126">
-        <v>0.2551643238024873</v>
+        <v>0.3649308603518459</v>
       </c>
       <c r="F126">
-        <v>0.3635989667157648</v>
+        <v>0.8413908126579929</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2744, 27165, 27165</t>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>51805</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>GLUVESSEC_Neuron</t>
+          <t>CSm_Neuron</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>L-glutamate secretion via secretory vesicle (ATP driven) Neuron</t>
+          <t>citrate synthase Neuron</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>atp[cN] + glu-L[cN] + h2o[cN] --&gt; adp[cN] + glu-L[I] + h[cN] + pi[cN]</t>
+          <t>accoa[mN] + h2o[mN] + oaa[mN] --&gt; cit[mN] + coa[mN] + h[mN]</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -5196,36 +5856,36 @@
         </is>
       </c>
       <c r="E127">
-        <v>0.2551643238024872</v>
+        <v>0.4083399935410397</v>
       </c>
       <c r="F127">
-        <v>0.248741982028832</v>
+        <v>1.087644010014422</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>57084, 246213, 57030</t>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>1431, 1431</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>GLUt2m_Neuron</t>
+          <t>DURIK1m_Neuron</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>L-glutamate reversible transport via proton symport, mitochondrial Neuron</t>
+          <t>deoxyuridine kinase (ATP:Deoxyuridine), mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>glu-L[cN] + h[cN] &lt;=&gt; glu-L[mN] + h[mN]</t>
+          <t>atp[mN] + duri[mN] --&gt; adp[mN] + dump[mN] + h[mN]</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -5234,36 +5894,41 @@
         </is>
       </c>
       <c r="E128">
-        <v>0.2551643238024807</v>
+        <v>0.1506962774412711</v>
       </c>
       <c r="F128">
-        <v>1.178692701110391</v>
+        <v>0.9046338375844781</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>10165, 8604, 83733, 79751</t>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>7084</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>7083, 7084</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>GLYCLTDym_Neuron</t>
+          <t>DUTPDPm_Neuron</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Glycolate dehydrogenase (NADP), mitochondrial Neuron</t>
+          <t>dUTP diphosphatase Neuron</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>glx[mN] + h[mN] + nadph[mN] --&gt; glyclt[mN] + nadp[mN]</t>
+          <t>dutp[mN] + h2o[mN] --&gt; dump[mN] + h[mN] + ppi[mN]</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -5272,36 +5937,36 @@
         </is>
       </c>
       <c r="E129">
-        <v>0.456973716068677</v>
+        <v>0.1506962774412712</v>
       </c>
       <c r="F129">
-        <v>0.8447100538376612</v>
+        <v>1.00090553375108</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>9380</t>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>1854, 3704</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>GLYKm_Neuron</t>
+          <t>ETF_Neuron</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>glycerol kinase Neuron</t>
+          <t>electron transfer flavoprotein Neuron</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>atp[mN] + glyc[mN] --&gt; adp[mN] + glyc3p[mN] + h[mN]</t>
+          <t>etfox[mN] + fadh2[mN] --&gt; etfrd[mN] + fad[mN]</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -5310,41 +5975,36 @@
         </is>
       </c>
       <c r="E130">
-        <v>0.1791162903049744</v>
+        <v>0.4083399935410396</v>
       </c>
       <c r="F130">
-        <v>1.037401310885178</v>
+        <v>0.03542454749858223</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2710, 2712, 2710, 2713</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>256356, 2710, 2712</t>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>2109, 2108, 2109, 2108</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>GLYOXm_Neuron</t>
+          <t>ETFQO_Neuron</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>hydroxyacylglutathione hydrolase, mitochondrial Neuron</t>
+          <t>Electron transfer flavoprotein-ubiquinone oxidoreductase Neuron</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>h2o[mN] + lgt-S[mN] --&gt; gthrd[mN] + h[mN] + lac-D[mN]</t>
+          <t>etfrd[mN] + q10[mN] --&gt; etfox[mN] + q10h2[mN]</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -5353,41 +6013,36 @@
         </is>
       </c>
       <c r="E131">
-        <v>0.2816417527133567</v>
+        <v>0.4083399935410396</v>
       </c>
       <c r="F131">
-        <v>0.9846893787808997</v>
+        <v>0.04913382692225356</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>3029</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>3029</t>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>2110</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>GTHOm_Neuron</t>
+          <t>ETOHMO_Neuron</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>glutathione oxidoreductase Neuron</t>
+          <t>ethanol monooxygenase Neuron</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>gthox[mN] + h[mN] + nadph[mN] --&gt; 2.0 gthrd[mN] + nadp[mN]</t>
+          <t>etoh[cN] + h[cN] + nadph[cN] + o2[cN] --&gt; acald[cN] + 2.0 h2o[cN] + nadp[cN]</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -5396,41 +6051,36 @@
         </is>
       </c>
       <c r="E132">
-        <v>0.296866814184105</v>
+        <v>0.4321230137492205</v>
       </c>
       <c r="F132">
-        <v>0.8526690810809062</v>
+        <v>0.1676490117004737</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2936</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>2936</t>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>1571</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>H2Otm_Neuron</t>
+          <t>FUMm_Neuron</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>H2O transport, mitochondrial Neuron</t>
+          <t>fumarase, mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>h2o[cN] &lt;=&gt; h2o[mN]</t>
+          <t>fum[mN] + h2o[mN] &lt;=&gt; mal-L[mN]</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -5439,36 +6089,36 @@
         </is>
       </c>
       <c r="E133">
-        <v>0.8873408209388892</v>
+        <v>0.4083399935410396</v>
       </c>
       <c r="F133">
-        <v>0.4424500097571316</v>
+        <v>0.2562932067632965</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>343</t>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>2271</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>HMGCOASim_Neuron</t>
+          <t>GLNtm_Neuron</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Hydroxymethylglutaryl CoA synthase (ir) Neuron</t>
+          <t>L-glutamine transport via electroneutral transporter Neuron</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>aacoa[mN] + accoa[mN] + h2o[mN] --&gt; coa[mN] + h[mN] + hmgcoa[mN]</t>
+          <t>gln-L[cN] --&gt; gln-L[mN]</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -5477,36 +6127,31 @@
         </is>
       </c>
       <c r="E134">
-        <v>0.4083399935410398</v>
+        <v>0.2551643238024872</v>
       </c>
       <c r="F134">
-        <v>1.047877906036578</v>
+        <v>0.01665627034685863</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
           <t>Hyper</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>3158</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>HMGLm_Neuron</t>
+          <t>GLUDym_Neuron</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>hydroxymethylglutaryl-CoA lyase Neuron</t>
+          <t>glutamate dehydrogenase (NADP), mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>hmgcoa[mN] --&gt; acac[mN] + accoa[mN]</t>
+          <t>glu-L[mN] + h2o[mN] + nadp[mN] --&gt; akg[mN] + h[mN] + nadph[mN] + nh4[mN]</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -5515,36 +6160,36 @@
         </is>
       </c>
       <c r="E135">
-        <v>0.4083399935410396</v>
+        <v>0.04231154086752641</v>
       </c>
       <c r="F135">
-        <v>0.02581166415880359</v>
+        <v>1.01818144384251</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>3155, 54511</t>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>2747, 2746</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Htm_Neuron</t>
+          <t>GLUNm_Neuron</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Uncoupling protein Neuron</t>
+          <t>glutaminase (mitochondrial) Neuron</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>h[cN] --&gt; h[mN]</t>
+          <t>gln-L[mN] + h2o[mN] --&gt; glu-L[mN] + nh4[mN]</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -5553,36 +6198,36 @@
         </is>
       </c>
       <c r="E136">
-        <v>0.0423115408675267</v>
+        <v>0.2551643238024873</v>
       </c>
       <c r="F136">
-        <v>1.135726263752819</v>
+        <v>0.3635989667157648</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>9481, 7352, 7351, 7350</t>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>2744, 27165, 27165</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ICDHxm_Neuron</t>
+          <t>GLUVESSEC_Neuron</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Isocitrate dehydrogenase (NAD+) Neuron</t>
+          <t>L-glutamate secretion via secretory vesicle (ATP driven) Neuron</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>icit[mN] + nad[mN] --&gt; akg[mN] + co2[mN] + nadh[mN]</t>
+          <t>atp[cN] + glu-L[cN] + h2o[cN] --&gt; adp[cN] + glu-L[I] + h[cN] + pi[cN]</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -5591,36 +6236,36 @@
         </is>
       </c>
       <c r="E137">
-        <v>0.04231154086752646</v>
+        <v>0.2551643238024872</v>
       </c>
       <c r="F137">
-        <v>0.1915764574847617</v>
+        <v>0.248741982028832</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>3421, 3420, 3419, 3420, 3421, 3419, 3420, 3421, 3419, 3420, 3421, 3419, 3421, 3419, 3420, 3421, 3419, 3420</t>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>57084, 246213, 57030</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ICDHyrm_Neuron</t>
+          <t>GLUt2m_Neuron</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Isocitrate dehydrogenase (NADP+) Neuron</t>
+          <t>L-glutamate reversible transport via proton symport, mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>icit[mN] + nadp[mN] &lt;=&gt; akg[mN] + co2[mN] + nadph[mN]</t>
+          <t>glu-L[cN] + h[cN] &lt;=&gt; glu-L[mN] + h[mN]</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -5629,36 +6274,36 @@
         </is>
       </c>
       <c r="E138">
-        <v>0.4083399935410396</v>
+        <v>0.2551643238024807</v>
       </c>
       <c r="F138">
-        <v>0.1103608579544724</v>
+        <v>1.178692701110391</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>3418</t>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>10165, 8604, 83733, 79751</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Kt1r_Neuron</t>
+          <t>GLYCLTDym_Neuron</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>potassium transport via uniport (facilitated diffusion) Neuron</t>
+          <t>Glycolate dehydrogenase (NADP), mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>k[I] &lt;=&gt; k[cN]</t>
+          <t>glx[mN] + h[mN] + nadph[mN] --&gt; glyclt[mN] + nadp[mN]</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -5667,31 +6312,36 @@
         </is>
       </c>
       <c r="E139">
-        <v>0.9327452401202376</v>
+        <v>0.456973716068677</v>
       </c>
       <c r="F139">
-        <v>0.01402060344072543</v>
+        <v>0.8447100538376612</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
           <t>Hyper</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>9380</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>L-LACt2r_Neuron</t>
+          <t>GLYKm_Neuron</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>L-lactate reversible transport via proton symport Neuron</t>
+          <t>glycerol kinase Neuron</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>h[I] + lac-L[I] --&gt; h[cN] + lac-L[cN]</t>
+          <t>atp[mN] + glyc[mN] --&gt; adp[mN] + glyc3p[mN] + h[mN]</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -5700,36 +6350,41 @@
         </is>
       </c>
       <c r="E140">
-        <v>0.33698693032714</v>
+        <v>0.1791162903049744</v>
       </c>
       <c r="F140">
-        <v>0.2474917241559471</v>
+        <v>1.037401310885178</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>9194, 23539, 6566, 9123, 682</t>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>2710, 2712, 2710, 2713</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>256356, 2710, 2712</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>L-LACtm_Neuron</t>
+          <t>GLYOXm_Neuron</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>L-lactate transport, mitochondrial Neuron</t>
+          <t>hydroxyacylglutathione hydrolase, mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>h[cN] + lac-L[cN] --&gt; h[mN] + lac-L[mN]</t>
+          <t>h2o[mN] + lgt-S[mN] --&gt; gthrd[mN] + h[mN] + lac-D[mN]</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -5738,36 +6393,41 @@
         </is>
       </c>
       <c r="E141">
-        <v>0.04231154086752445</v>
+        <v>0.2816417527133567</v>
       </c>
       <c r="F141">
-        <v>1.135726263750671</v>
+        <v>0.9846893787808997</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>6566</t>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>3029</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>3029</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>LDH_L_Neuron</t>
+          <t>GTHOm_Neuron</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>L-lactate dehydrogenase Neuron</t>
+          <t>glutathione oxidoreductase Neuron</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>lac-L[cN] + nad[cN] --&gt; h[cN] + nadh[cN] + pyr[cN]</t>
+          <t>gthox[mN] + h[mN] + nadph[mN] --&gt; 2.0 gthrd[mN] + nadp[mN]</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -5776,36 +6436,41 @@
         </is>
       </c>
       <c r="E142">
-        <v>0.3369869303271401</v>
+        <v>0.296866814184105</v>
       </c>
       <c r="F142">
-        <v>0.1271057218330384</v>
+        <v>0.8526690810809062</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>3945, 3939, 160287, 3948, 3939, 3948, 55293, 3945, 92483</t>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>2936</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>2936</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>LSOProd_Neuron</t>
+          <t>H2Otm_Neuron</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Lumped superoxide production Neuron</t>
+          <t>H2O transport, mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>focytC[mN] + o2[mN] --&gt; ficytC[mN] + o2s[mN]</t>
+          <t>h2o[cN] &lt;=&gt; h2o[mN]</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -5814,31 +6479,36 @@
         </is>
       </c>
       <c r="E143">
-        <v>0.04231154086752677</v>
+        <v>0.8873408209388892</v>
       </c>
       <c r="F143">
-        <v>0.06987928758625953</v>
+        <v>0.4424500097571316</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
           <t>Hyper</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>343</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>MDH_Neuron</t>
+          <t>HMGCOASim_Neuron</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>malate dehydrogenase Neuron</t>
+          <t>Hydroxymethylglutaryl CoA synthase (ir) Neuron</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>mal-L[cN] + nad[cN] &lt;=&gt; h[cN] + nadh[cN] + oaa[cN]</t>
+          <t>aacoa[mN] + accoa[mN] + h2o[mN] --&gt; coa[mN] + h[mN] + hmgcoa[mN]</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -5847,36 +6517,36 @@
         </is>
       </c>
       <c r="E144">
-        <v>0.4083399935410378</v>
+        <v>0.4083399935410398</v>
       </c>
       <c r="F144">
-        <v>0.1439141137301207</v>
+        <v>1.047877906036578</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>130752, 4190</t>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>3158</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>MDHm_Neuron</t>
+          <t>HMGLm_Neuron</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>malate dehydrogenase, mitochondrial Neuron</t>
+          <t>hydroxymethylglutaryl-CoA lyase Neuron</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>mal-L[mN] + nad[mN] &lt;=&gt; h[mN] + nadh[mN] + oaa[mN]</t>
+          <t>hmgcoa[mN] --&gt; acac[mN] + accoa[mN]</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -5885,36 +6555,36 @@
         </is>
       </c>
       <c r="E145">
-        <v>0.525771967612382</v>
+        <v>0.4083399935410396</v>
       </c>
       <c r="F145">
-        <v>0.8726283398733388</v>
+        <v>0.02581166415880359</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>4191, 4190</t>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>3155, 54511</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>MMSAD1m_Neuron</t>
+          <t>Htm_Neuron</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>methylmalonate-semialdehyde dehydrogenase Neuron</t>
+          <t>Uncoupling protein Neuron</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>2mop[mN] + coa[mN] + nad[mN] --&gt; co2[mN] + nadh[mN] + ppcoa[mN]</t>
+          <t>h[cN] --&gt; h[mN]</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -5923,36 +6593,36 @@
         </is>
       </c>
       <c r="E146">
-        <v>0.1791162903049763</v>
+        <v>0.0423115408675267</v>
       </c>
       <c r="F146">
-        <v>0.2137909934887952</v>
+        <v>1.135726263752819</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>4329.1</t>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>9481, 7352, 7351, 7350</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>NH4t3r_Neuron</t>
+          <t>ICDHxm_Neuron</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ammonia transport via proton antiport Neuron</t>
+          <t>Isocitrate dehydrogenase (NAD+) Neuron</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>h[I] + nh4[cN] &lt;=&gt; h[cN] + nh4[I]</t>
+          <t>icit[mN] + nad[mN] --&gt; akg[mN] + co2[mN] + nadh[mN]</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -5961,31 +6631,36 @@
         </is>
       </c>
       <c r="E147">
-        <v>0.2551643238024938</v>
+        <v>0.04231154086752646</v>
       </c>
       <c r="F147">
-        <v>0.2557087658230433</v>
+        <v>0.1915764574847617</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
           <t>Hyper</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>3421, 3420, 3419, 3420, 3421, 3419, 3420, 3421, 3419, 3420, 3421, 3419, 3421, 3419, 3420, 3421, 3419, 3420</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>NMNATm_Neuron</t>
+          <t>ICDHyrm_Neuron</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>nicotinamide-nucleotide adenylyltransferase, mitochondrial Neuron</t>
+          <t>Isocitrate dehydrogenase (NADP+) Neuron</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>atp[mN] + h[mN] + nmn[mN] --&gt; nad[mN] + ppi[mN]</t>
+          <t>icit[mN] + nadp[mN] &lt;=&gt; akg[mN] + co2[mN] + nadph[mN]</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -5994,36 +6669,36 @@
         </is>
       </c>
       <c r="E148">
-        <v>0.296866814184104</v>
+        <v>0.4083399935410396</v>
       </c>
       <c r="F148">
-        <v>0.9538898269505853</v>
+        <v>0.1103608579544724</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>349565</t>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>3418</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>NaKt_Neuron</t>
+          <t>Kt1r_Neuron</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Na+/K+ exchanging ATPase Neuron</t>
+          <t>potassium transport via uniport (facilitated diffusion) Neuron</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>atp[cN] + h2o[cN] + 2.0 k[I] + 3.0 na1[cN] --&gt; adp[cN] + h[cN] + 2.0 k[cN] + 3.0 na1[I] + pi[cN]</t>
+          <t>k[I] &lt;=&gt; k[cN]</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -6032,36 +6707,31 @@
         </is>
       </c>
       <c r="E149">
-        <v>0.8142410713786293</v>
+        <v>0.9327452401202376</v>
       </c>
       <c r="F149">
-        <v>0.2736933873635355</v>
+        <v>0.01402060344072543</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
           <t>Hyper</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>481, 478, 477, 23439, 483, 476, 481, 480, 482, 478, 482, 476, 482, 477, 481, 476, 23439, 476, 480, 23439, 481, 477</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>O2t_Neuron</t>
+          <t>L-LACt2r_Neuron</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>o2 transport (diffusion) Neuron</t>
+          <t>L-lactate reversible transport via proton symport Neuron</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>o2[I] &lt;=&gt; o2[cN]</t>
+          <t>h[I] + lac-L[I] --&gt; h[cN] + lac-L[cN]</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -6070,31 +6740,36 @@
         </is>
       </c>
       <c r="E150">
-        <v>0.5948953862997173</v>
+        <v>0.33698693032714</v>
       </c>
       <c r="F150">
-        <v>0.01667158192925891</v>
+        <v>0.2474917241559471</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
           <t>Hyper</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>9194, 23539, 6566, 9123, 682</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>O2tm_Neuron</t>
+          <t>L-LACtm_Neuron</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>O2 transport (diffusion) Neuron</t>
+          <t>L-lactate transport, mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>o2[cN] &lt;=&gt; o2[mN]</t>
+          <t>h[cN] + lac-L[cN] --&gt; h[mN] + lac-L[mN]</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -6103,31 +6778,36 @@
         </is>
       </c>
       <c r="E151">
-        <v>0.5948953862997173</v>
+        <v>0.04231154086752445</v>
       </c>
       <c r="F151">
-        <v>0.05070255170580898</v>
+        <v>1.135726263750671</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
           <t>Hyper</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>6566</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>OCOAT1m_Neuron</t>
+          <t>LDH_L_Neuron</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>3-oxoacid CoA-transferase Neuron</t>
+          <t>L-lactate dehydrogenase Neuron</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>acac[mN] + succoa[mN] &lt;=&gt; aacoa[mN] + succ[mN]</t>
+          <t>lac-L[cN] + nad[cN] --&gt; h[cN] + nadh[cN] + pyr[cN]</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -6136,36 +6816,36 @@
         </is>
       </c>
       <c r="E152">
-        <v>0.4083399935410396</v>
+        <v>0.3369869303271401</v>
       </c>
       <c r="F152">
-        <v>0.02339489940607675</v>
+        <v>0.1271057218330384</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>5019, 64064</t>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>3945, 3939, 160287, 3948, 3939, 3948, 55293, 3945, 92483</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>P45011A1m_Neuron</t>
+          <t>LSOProd_Neuron</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Cytochrome P450 11A1, mitochondrial [Precursor] Neuron</t>
+          <t>Lumped superoxide production Neuron</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>chsterol[mN] + h[mN] + nadph[mN] + 2.0 o2[mN] --&gt; 4mptnl[mN] + 2.0 h2o[mN] + nadp[mN] + prgnlone[mN]</t>
+          <t>focytC[mN] + o2[mN] --&gt; ficytC[mN] + o2s[mN]</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -6174,36 +6854,31 @@
         </is>
       </c>
       <c r="E153">
-        <v>0.2968668141841054</v>
+        <v>0.04231154086752677</v>
       </c>
       <c r="F153">
-        <v>1.206921075078173</v>
+        <v>0.06987928758625953</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
           <t>Hyper</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>1583</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>PCFLOPm_Neuron</t>
+          <t>MDH_Neuron</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>phosphatidylcholine flippase Neuron</t>
+          <t>malate dehydrogenase Neuron</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>atp[cN] + h2o[cN] + pchol_hs[mN] --&gt; adp[cN] + h[cN] + pchol_hs[cN] + pi[cN]</t>
+          <t>mal-L[cN] + nad[cN] &lt;=&gt; h[cN] + nadh[cN] + oaa[cN]</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -6212,36 +6887,36 @@
         </is>
       </c>
       <c r="E154">
-        <v>0.1506962774412711</v>
+        <v>0.4083399935410378</v>
       </c>
       <c r="F154">
-        <v>0.2501926744170687</v>
+        <v>0.1439141137301207</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>57194</t>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>130752, 4190</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>PDHm_Neuron</t>
+          <t>MDHm_Neuron</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>pyruvate dehydrogenase Neuron</t>
+          <t>malate dehydrogenase, mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>coa[mN] + nad[mN] + pyr[mN] --&gt; accoa[mN] + co2[mN] + nadh[mN]</t>
+          <t>mal-L[mN] + nad[mN] &lt;=&gt; h[mN] + nadh[mN] + oaa[mN]</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -6250,36 +6925,36 @@
         </is>
       </c>
       <c r="E155">
-        <v>0.4083399935410396</v>
+        <v>0.525771967612382</v>
       </c>
       <c r="F155">
-        <v>0.1989616618003694</v>
+        <v>0.8726283398733388</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>1738, 8050, 5161, 5162, 1737, 1738, 8050, 5160, 5162, 1737</t>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>4191, 4190</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>PEFLIP_Neuron</t>
+          <t>MMSAD1m_Neuron</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>phosphatidylethanolamine flippase Neuron</t>
+          <t>methylmalonate-semialdehyde dehydrogenase Neuron</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>atp[cN] + h2o[cN] + pe_hs[I] --&gt; adp[cN] + h[cN] + pe_hs[cN] + pi[cN]</t>
+          <t>2mop[mN] + coa[mN] + nad[mN] --&gt; co2[mN] + nadh[mN] + ppcoa[mN]</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -6288,36 +6963,36 @@
         </is>
       </c>
       <c r="E156">
-        <v>0.1506962774412711</v>
+        <v>0.1791162903049763</v>
       </c>
       <c r="F156">
-        <v>0.2391294400777179</v>
+        <v>0.2137909934887952</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>57194, 5244, 10396</t>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>4329.1</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>PEFLIPm_Neuron</t>
+          <t>NH4t3r_Neuron</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>phosphatidylethanolamine flippase Neuron</t>
+          <t>ammonia transport via proton antiport Neuron</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>atp[cN] + h2o[cN] + pe_hs[cN] --&gt; adp[cN] + h[cN] + pe_hs[mN] + pi[cN]</t>
+          <t>h[I] + nh4[cN] &lt;=&gt; h[cN] + nh4[I]</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -6326,36 +7001,31 @@
         </is>
       </c>
       <c r="E157">
-        <v>0.1791162903049741</v>
+        <v>0.2551643238024938</v>
       </c>
       <c r="F157">
-        <v>0.232367751967101</v>
+        <v>0.2557087658230433</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
           <t>Hyper</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>57194, 10396</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>PIt2m_Neuron</t>
+          <t>NMNATm_Neuron</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>phosphate transporter, mitochondrial Neuron</t>
+          <t>nicotinamide-nucleotide adenylyltransferase, mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>h[cN] + pi[cN] &lt;=&gt; h[mN] + pi[mN]</t>
+          <t>atp[mN] + h[mN] + nmn[mN] --&gt; nad[mN] + ppi[mN]</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -6364,36 +7034,36 @@
         </is>
       </c>
       <c r="E158">
-        <v>0.858123880230392</v>
+        <v>0.296866814184104</v>
       </c>
       <c r="F158">
-        <v>1.353657660745549</v>
+        <v>0.9538898269505853</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>5250, 5250, 5250, 5250</t>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>349565</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>PNTKm_Neuron</t>
+          <t>NaKt_Neuron</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>pantothenate kinase (mitochondrial) Neuron</t>
+          <t>Na+/K+ exchanging ATPase Neuron</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>atp[mN] + pnto-R[mN] --&gt; 4ppan[mN] + adp[mN] + h[mN]</t>
+          <t>atp[cN] + h2o[cN] + 2.0 k[I] + 3.0 na1[cN] --&gt; adp[cN] + h[cN] + 2.0 k[cN] + 3.0 na1[I] + pi[cN]</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -6402,41 +7072,36 @@
         </is>
       </c>
       <c r="E159">
-        <v>0.1791162903049744</v>
+        <v>0.8142410713786293</v>
       </c>
       <c r="F159">
-        <v>0.8921906991366757</v>
+        <v>0.2736933873635355</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>80025</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>53354, 79646, 80025</t>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>481, 478, 477, 23439, 483, 476, 481, 480, 482, 478, 482, 476, 482, 477, 481, 476, 23439, 476, 480, 23439, 481, 477</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>PPAt_Neuron</t>
+          <t>O2t_Neuron</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Propionate transport, diffusion Neuron</t>
+          <t>o2 transport (diffusion) Neuron</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>ppa[I] --&gt; ppa[cN]</t>
+          <t>o2[I] &lt;=&gt; o2[cN]</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -6445,10 +7110,10 @@
         </is>
       </c>
       <c r="E160">
-        <v>0.2613192597124655</v>
+        <v>0.5948953862997173</v>
       </c>
       <c r="F160">
-        <v>0.03257646339807395</v>
+        <v>0.01667158192925891</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -6459,17 +7124,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>PROD2m_Neuron</t>
+          <t>O2tm_Neuron</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Proline dehydrogenase (m) Neuron</t>
+          <t>O2 transport (diffusion) Neuron</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>fad[mN] + pro-L[mN] --&gt; 1pyr5c[mN] + fadh2[mN] + h[mN]</t>
+          <t>o2[cN] &lt;=&gt; o2[mN]</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -6478,41 +7143,31 @@
         </is>
       </c>
       <c r="E161">
-        <v>0.150696277441272</v>
+        <v>0.5948953862997173</v>
       </c>
       <c r="F161">
-        <v>0.9962228949063443</v>
+        <v>0.05070255170580898</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
           <t>Hyper</t>
-        </is>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>5625</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>5625</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>PSFLIP_Neuron</t>
+          <t>OCOAT1m_Neuron</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>phosphatidylserine flippase Neuron</t>
+          <t>3-oxoacid CoA-transferase Neuron</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>atp[cN] + h2o[cN] + ps_hs[I] --&gt; adp[cN] + h[cN] + pi[cN] + ps_hs[cN]</t>
+          <t>acac[mN] + succoa[mN] &lt;=&gt; aacoa[mN] + succ[mN]</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -6521,36 +7176,36 @@
         </is>
       </c>
       <c r="E162">
-        <v>0.1506962774412711</v>
+        <v>0.4083399935410396</v>
       </c>
       <c r="F162">
-        <v>0.2391294400755584</v>
+        <v>0.02339489940607675</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>57194, 10396</t>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>5019, 64064</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>PSFLIPm_Neuron</t>
+          <t>P45011A1m_Neuron</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>phosphatidylserine flippase Neuron</t>
+          <t>Cytochrome P450 11A1, mitochondrial [Precursor] Neuron</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>atp[cN] + h2o[cN] + ps_hs[cN] --&gt; adp[cN] + h[cN] + pi[cN] + ps_hs[mN]</t>
+          <t>chsterol[mN] + h[mN] + nadph[mN] + 2.0 o2[mN] --&gt; 4mptnl[mN] + 2.0 h2o[mN] + nadp[mN] + prgnlone[mN]</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -6559,36 +7214,36 @@
         </is>
       </c>
       <c r="E163">
-        <v>0.1506962774412711</v>
+        <v>0.2968668141841054</v>
       </c>
       <c r="F163">
-        <v>0.223758703875962</v>
+        <v>1.206921075078173</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>57194, 10396</t>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>1583</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>PYRt2m_Neuron</t>
+          <t>PCFLOPm_Neuron</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>pyruvate mitochondrial transport via proton symport Neuron</t>
+          <t>phosphatidylcholine flippase Neuron</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>h[cN] + pyr[cN] &lt;=&gt; h[mN] + pyr[mN]</t>
+          <t>atp[cN] + h2o[cN] + pchol_hs[mN] --&gt; adp[cN] + h[cN] + pchol_hs[cN] + pi[cN]</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -6597,36 +7252,36 @@
         </is>
       </c>
       <c r="E164">
-        <v>0.4083399935410396</v>
+        <v>0.1506962774412711</v>
       </c>
       <c r="F164">
-        <v>1.165123429527704</v>
+        <v>0.2501926744170687</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>6566</t>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>57194</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>SUCD1m_Neuron</t>
+          <t>PDHm_Neuron</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>succinate dehydrogenase Neuron</t>
+          <t>pyruvate dehydrogenase Neuron</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>fad[mN] + succ[mN] &lt;=&gt; fadh2[mN] + fum[mN]</t>
+          <t>coa[mN] + nad[mN] + pyr[mN] --&gt; accoa[mN] + co2[mN] + nadh[mN]</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -6638,33 +7293,33 @@
         <v>0.4083399935410396</v>
       </c>
       <c r="F165">
-        <v>0.02846387973416268</v>
+        <v>0.1989616618003694</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>6389, 6392, 6391, 6390</t>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>1738, 8050, 5161, 5162, 1737, 1738, 8050, 5160, 5162, 1737</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>SUCOAS1m_Neuron</t>
+          <t>PEFLIP_Neuron</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Succinate--CoA ligase (GDP-forming) Neuron</t>
+          <t>phosphatidylethanolamine flippase Neuron</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>coa[mN] + gtp[mN] + succ[mN] --&gt; gdp[mN] + pi[mN] + succoa[mN]</t>
+          <t>atp[cN] + h2o[cN] + pe_hs[I] --&gt; adp[cN] + h[cN] + pe_hs[cN] + pi[cN]</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -6673,41 +7328,36 @@
         </is>
       </c>
       <c r="E166">
-        <v>0.1506962774412712</v>
+        <v>0.1506962774412711</v>
       </c>
       <c r="F166">
-        <v>0.0960771713942376</v>
+        <v>0.2391294400777179</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>8802, 8801</t>
-        </is>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>8801, 8802, 8803</t>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>57194, 5244, 10396</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>SUCOASm_Neuron</t>
+          <t>PEFLIPm_Neuron</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Succinate--CoA ligase (ADP-forming) Neuron</t>
+          <t>phosphatidylethanolamine flippase Neuron</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>atp[mN] + coa[mN] + succ[mN] --&gt; adp[mN] + pi[mN] + succoa[mN]</t>
+          <t>atp[cN] + h2o[cN] + pe_hs[cN] --&gt; adp[cN] + h[cN] + pe_hs[mN] + pi[cN]</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -6716,41 +7366,36 @@
         </is>
       </c>
       <c r="E167">
-        <v>0.1506962774412712</v>
+        <v>0.1791162903049741</v>
       </c>
       <c r="F167">
-        <v>0.1407317940142127</v>
+        <v>0.232367751967101</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>8802, 8803</t>
-        </is>
-      </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>8801, 8802, 8803</t>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>57194, 10396</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>THD1m_Neuron</t>
+          <t>PIt2m_Neuron</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>NAD(P) transhydrogenase Neuron</t>
+          <t>phosphate transporter, mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>h[cN] + nadh[mN] + nadp[mN] &lt;=&gt; h[mN] + nad[mN] + nadph[mN]</t>
+          <t>h[cN] + pi[cN] &lt;=&gt; h[mN] + pi[mN]</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -6759,41 +7404,36 @@
         </is>
       </c>
       <c r="E168">
-        <v>0.4083399935410395</v>
+        <v>0.858123880230392</v>
       </c>
       <c r="F168">
-        <v>1.27081754360695</v>
+        <v>1.353657660745549</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>23530, 23530</t>
-        </is>
-      </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>23530</t>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>5250, 5250, 5250, 5250</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>TMDK1m_Neuron</t>
+          <t>PNTKm_Neuron</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>thymidine kinase (ATP:thymidine) Neuron</t>
+          <t>pantothenate kinase (mitochondrial) Neuron</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>atp[mN] + thymd[mN] --&gt; adp[mN] + dtmp[mN] + h[mN]</t>
+          <t>atp[mN] + pnto-R[mN] --&gt; 4ppan[mN] + adp[mN] + h[mN]</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -6802,41 +7442,41 @@
         </is>
       </c>
       <c r="E169">
-        <v>0.1506962774412711</v>
+        <v>0.1791162903049744</v>
       </c>
       <c r="F169">
-        <v>0.9046615169040608</v>
+        <v>0.8921906991366757</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>7084</t>
-        </is>
-      </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>7083, 7084</t>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>80025</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>53354, 79646, 80025</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>DAKm_Neuron</t>
+          <t>PPAt_Neuron</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>adentylate kinase (GTP) / GTP-AMP Phosphotransferase Neuron</t>
+          <t>Propionate transport, diffusion Neuron</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>damp[mN] + gtp[mN] --&gt; dadp[mN] + gdp[mN]</t>
+          <t>ppa[I] --&gt; ppa[cN]</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -6845,10 +7485,10 @@
         </is>
       </c>
       <c r="E170">
-        <v>0.2468311908770458</v>
+        <v>0.2613192597124655</v>
       </c>
       <c r="F170">
-        <v>0.01846027385426</v>
+        <v>0.03257646339807395</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -6859,17 +7499,17 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>DTKm_Neuron</t>
+          <t>PROD2m_Neuron</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>deoxythymidylate kinase (ATP) Neuron</t>
+          <t>Proline dehydrogenase (m) Neuron</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>atp[mN] + dtmp[mN] --&gt; adp[mN] + dtdp[mN]</t>
+          <t>fad[mN] + pro-L[mN] --&gt; 1pyr5c[mN] + fadh2[mN] + h[mN]</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -6878,36 +7518,41 @@
         </is>
       </c>
       <c r="E171">
-        <v>0.2468311908770461</v>
+        <v>0.150696277441272</v>
       </c>
       <c r="F171">
-        <v>0.07528650210830622</v>
+        <v>0.9962228949063443</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>1841</t>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>5625</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>5625</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>DCKm_Neuron</t>
+          <t>PSFLIP_Neuron</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>deoxycytidylate kinase (ATP) Neuron</t>
+          <t>phosphatidylserine flippase Neuron</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>atp[mN] + dcmp[mN] --&gt; adp[mN] + dcdp[mN]</t>
+          <t>atp[cN] + h2o[cN] + ps_hs[I] --&gt; adp[cN] + h[cN] + pi[cN] + ps_hs[cN]</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -6916,36 +7561,36 @@
         </is>
       </c>
       <c r="E172">
-        <v>0.2468311908770458</v>
+        <v>0.1506962774412711</v>
       </c>
       <c r="F172">
-        <v>0.07214109702722118</v>
+        <v>0.2391294400755584</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>51727</t>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>57194, 10396</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>DGKm_Neuron</t>
+          <t>PSFLIPm_Neuron</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>deoxyguanylate kinase (ATP) Neuron</t>
+          <t>phosphatidylserine flippase Neuron</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>atp[mN] + dgmp[mN] --&gt; adp[mN] + dgdp[mN]</t>
+          <t>atp[cN] + h2o[cN] + ps_hs[cN] --&gt; adp[cN] + h[cN] + pi[cN] + ps_hs[mN]</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -6954,36 +7599,36 @@
         </is>
       </c>
       <c r="E173">
-        <v>0.2468311908770458</v>
+        <v>0.1506962774412711</v>
       </c>
       <c r="F173">
-        <v>0.07214109702571395</v>
+        <v>0.223758703875962</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>2987.1</t>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>57194, 10396</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>NH3tm_Neuron</t>
+          <t>PYRt2m_Neuron</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>mitochondrial ammonium transport Neuron</t>
+          <t>pyruvate mitochondrial transport via proton symport Neuron</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>h[mN] + nh4[cN] &lt;=&gt; h[cN] + nh4[mN]</t>
+          <t>h[cN] + pyr[cN] &lt;=&gt; h[mN] + pyr[mN]</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -6992,31 +7637,36 @@
         </is>
       </c>
       <c r="E174">
-        <v>0.2551643238024937</v>
+        <v>0.4083399935410396</v>
       </c>
       <c r="F174">
-        <v>1.189861121530439</v>
+        <v>1.165123429527704</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
           <t>Hyper</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>6566</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>NDPK1_Neuron</t>
+          <t>SUCD1m_Neuron</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>GTP-ADP Phosphotransferase Neuron</t>
+          <t>succinate dehydrogenase Neuron</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>atp[cN] + gdp[cN] --&gt; adp[cN] + gtp[cN]</t>
+          <t>fad[mN] + succ[mN] &lt;=&gt; fadh2[mN] + fum[mN]</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -7025,36 +7675,36 @@
         </is>
       </c>
       <c r="E175">
-        <v>0.1185135354265836</v>
+        <v>0.4083399935410396</v>
       </c>
       <c r="F175">
-        <v>0.02906929610572547</v>
+        <v>0.02846387973416268</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>4832, 10201, 4831, 4830, 29922, 4830, 29922</t>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>6389, 6392, 6391, 6390</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>GLNtN1_Neuron</t>
+          <t>SUCOAS1m_Neuron</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Glutamine transporter Neuron</t>
+          <t>Succinate--CoA ligase (GDP-forming) Neuron</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>gln-L[I] + h[cN] + na1[I] &lt;=&gt; gln-L[cN] + h[I] + na1[cN]</t>
+          <t>coa[mN] + gtp[mN] + succ[mN] --&gt; gdp[mN] + pi[mN] + succoa[mN]</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -7063,36 +7713,41 @@
         </is>
       </c>
       <c r="E176">
-        <v>0.2551643238024874</v>
+        <v>0.1506962774412712</v>
       </c>
       <c r="F176">
-        <v>0.2827472212696471</v>
+        <v>0.0960771713942376</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>92745, 10991</t>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>8802, 8801</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>8801, 8802, 8803</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>CKc_Neuron</t>
+          <t>SUCOASm_Neuron</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ATP Creatine kinase Neuron</t>
+          <t>Succinate--CoA ligase (ADP-forming) Neuron</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>atp[cN] + creat[cN] --&gt; adp[cN] + pcreat[cN]</t>
+          <t>atp[mN] + coa[mN] + succ[mN] --&gt; adp[mN] + pi[mN] + succoa[mN]</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -7101,36 +7756,41 @@
         </is>
       </c>
       <c r="E177">
-        <v>0.1506962774412709</v>
+        <v>0.1506962774412712</v>
       </c>
       <c r="F177">
-        <v>0.06855946241864902</v>
+        <v>0.1407317940142127</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
           <t>Hyper</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>1152</t>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>8802, 8803</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>8801, 8802, 8803</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>CREATtmdiffir_Neuron</t>
+          <t>THD1m_Neuron</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Creatine transport to/from mitochondria via diffusion Neuron</t>
+          <t>NAD(P) transhydrogenase Neuron</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>creat[cN] --&gt; creat[mN]</t>
+          <t>h[cN] + nadh[mN] + nadp[mN] &lt;=&gt; h[mN] + nad[mN] + nadph[mN]</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -7139,31 +7799,41 @@
         </is>
       </c>
       <c r="E178">
-        <v>0.1506962774412709</v>
+        <v>0.4083399935410395</v>
       </c>
       <c r="F178">
-        <v>0.02668601033442716</v>
+        <v>1.27081754360695</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
           <t>Hyper</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>23530, 23530</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>23530</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>NaEX_Neuron</t>
+          <t>TMDK1m_Neuron</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Sodium transport (added for simulation)</t>
+          <t>thymidine kinase (ATP:thymidine) Neuron</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>na1[e] &lt;=&gt; na1[cN]</t>
+          <t>atp[mN] + thymd[mN] --&gt; adp[mN] + dtmp[mN] + h[mN]</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -7172,50 +7842,420 @@
         </is>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>0.1506962774412711</v>
       </c>
       <c r="F179">
-        <v>0.01352149704355755</v>
+        <v>0.9046615169040608</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
           <t>Hyper</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>7084</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>7083, 7084</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
+          <t>DAKm_Neuron</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>adentylate kinase (GTP) / GTP-AMP Phosphotransferase Neuron</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>damp[mN] + gtp[mN] --&gt; dadp[mN] + gdp[mN]</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E180">
+        <v>0.2468311908770458</v>
+      </c>
+      <c r="F180">
+        <v>0.01846027385426</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>DTKm_Neuron</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>deoxythymidylate kinase (ATP) Neuron</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>atp[mN] + dtmp[mN] --&gt; adp[mN] + dtdp[mN]</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E181">
+        <v>0.2468311908770461</v>
+      </c>
+      <c r="F181">
+        <v>0.07528650210830622</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>1841</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>DCKm_Neuron</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>deoxycytidylate kinase (ATP) Neuron</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>atp[mN] + dcmp[mN] --&gt; adp[mN] + dcdp[mN]</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E182">
+        <v>0.2468311908770458</v>
+      </c>
+      <c r="F182">
+        <v>0.07214109702722118</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>51727</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>DGKm_Neuron</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>deoxyguanylate kinase (ATP) Neuron</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>atp[mN] + dgmp[mN] --&gt; adp[mN] + dgdp[mN]</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E183">
+        <v>0.2468311908770458</v>
+      </c>
+      <c r="F183">
+        <v>0.07214109702571395</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>2987.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>NH3tm_Neuron</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>mitochondrial ammonium transport Neuron</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>h[mN] + nh4[cN] &lt;=&gt; h[cN] + nh4[mN]</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E184">
+        <v>0.2551643238024937</v>
+      </c>
+      <c r="F184">
+        <v>1.189861121530439</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>NDPK1_Neuron</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>GTP-ADP Phosphotransferase Neuron</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>atp[cN] + gdp[cN] --&gt; adp[cN] + gtp[cN]</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E185">
+        <v>0.1185135354265836</v>
+      </c>
+      <c r="F185">
+        <v>0.02906929610572547</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>4832, 10201, 4831, 4830, 29922, 4830, 29922</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>GLNtN1_Neuron</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Glutamine transporter Neuron</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>gln-L[I] + h[cN] + na1[I] &lt;=&gt; gln-L[cN] + h[I] + na1[cN]</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E186">
+        <v>0.2551643238024874</v>
+      </c>
+      <c r="F186">
+        <v>0.2827472212696471</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>92745, 10991</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>CKc_Neuron</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>ATP Creatine kinase Neuron</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>atp[cN] + creat[cN] --&gt; adp[cN] + pcreat[cN]</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E187">
+        <v>0.1506962774412709</v>
+      </c>
+      <c r="F187">
+        <v>0.06855946241864902</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>1152</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>CREATtmdiffir_Neuron</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Creatine transport to/from mitochondria via diffusion Neuron</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>creat[cN] --&gt; creat[mN]</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E188">
+        <v>0.1506962774412709</v>
+      </c>
+      <c r="F188">
+        <v>0.02668601033442716</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>NaEX_Neuron</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Sodium transport (added for simulation)</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>na1[e] &lt;=&gt; na1[cN]</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="F189">
+        <v>0.01352149704355755</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
           <t>GLCt1r_Neuron</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B190" t="inlineStr">
         <is>
           <t>Glucose transporter_Neuron</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C190" t="inlineStr">
         <is>
           <t>glc-D[e] --&gt; glc-D[cN]</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>Neuron</t>
-        </is>
-      </c>
-      <c r="E180">
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E190">
         <v>0.8435695736090508</v>
       </c>
-      <c r="F180">
+      <c r="F190">
         <v>0.1569952680804823</v>
       </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>Hyper</t>
-        </is>
-      </c>
-      <c r="H180" t="inlineStr">
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Hyper</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
         <is>
           <t>66035, 6517, 56606, 154091, 6513, 11182, 29988, 6514, 155184, 56606, 144195, 6515, 81031</t>
         </is>
